--- a/data/pca/keyFactor/keyFactor_2014-05-30.xlsx
+++ b/data/pca/keyFactor/keyFactor_2014-05-30.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4286 +417,8570 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>41431</v>
+        <v>41072</v>
       </c>
       <c r="B2">
-        <v>0.9999252890877047</v>
+        <v>0.9999466092885732</v>
       </c>
       <c r="C2">
-        <v>1.000206937323603</v>
+        <v>0.9989572563641647</v>
       </c>
       <c r="D2">
-        <v>1.000043903764637</v>
+        <v>1.000366741147529</v>
       </c>
       <c r="E2">
-        <v>1.000184488242297</v>
+        <v>0.9999977665945698</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>41432</v>
+        <v>41073</v>
       </c>
       <c r="B3">
-        <v>1.001540391531673</v>
+        <v>0.9998813420016976</v>
       </c>
       <c r="C3">
-        <v>0.9997637967031403</v>
+        <v>0.9986669331192534</v>
       </c>
       <c r="D3">
-        <v>0.9999506061189825</v>
+        <v>1.000199240250994</v>
       </c>
       <c r="E3">
-        <v>1.000289257224263</v>
+        <v>0.999857963336004</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41435</v>
+        <v>41074</v>
       </c>
       <c r="B4">
-        <v>1.001417976102202</v>
+        <v>0.9984651637240944</v>
       </c>
       <c r="C4">
-        <v>0.9998062332037756</v>
+        <v>0.9986214797445792</v>
       </c>
       <c r="D4">
-        <v>0.9999509811775704</v>
+        <v>0.9999227869103888</v>
       </c>
       <c r="E4">
-        <v>1.000839395973579</v>
+        <v>1.000134620785005</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41436</v>
+        <v>41075</v>
       </c>
       <c r="B5">
-        <v>1.002859050623548</v>
+        <v>1.000051202194908</v>
       </c>
       <c r="C5">
-        <v>1.000156134062707</v>
+        <v>0.9981733458155653</v>
       </c>
       <c r="D5">
-        <v>1.000109016344808</v>
+        <v>1.000697639471232</v>
       </c>
       <c r="E5">
-        <v>1.001195157977281</v>
+        <v>0.9998729158052562</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41437</v>
+        <v>41078</v>
       </c>
       <c r="B6">
-        <v>1.002639132748917</v>
+        <v>0.9999212903419232</v>
       </c>
       <c r="C6">
-        <v>1.001025630630638</v>
+        <v>0.9972767570954908</v>
       </c>
       <c r="D6">
-        <v>1.000552294407015</v>
+        <v>1.000918159145526</v>
       </c>
       <c r="E6">
-        <v>1.001232311875451</v>
+        <v>1.00021552483603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41438</v>
+        <v>41079</v>
       </c>
       <c r="B7">
-        <v>1.002263915628208</v>
+        <v>0.9984729520958396</v>
       </c>
       <c r="C7">
-        <v>0.9997618677359231</v>
+        <v>0.9970462817238707</v>
       </c>
       <c r="D7">
-        <v>1.000654490470215</v>
+        <v>1.002006019775831</v>
       </c>
       <c r="E7">
-        <v>1.0010776438802</v>
+        <v>1.000521217727045</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41439</v>
+        <v>41080</v>
       </c>
       <c r="B8">
-        <v>1.002889743568482</v>
+        <v>1.000061401024352</v>
       </c>
       <c r="C8">
-        <v>1.000357184951875</v>
+        <v>0.9975709038262719</v>
       </c>
       <c r="D8">
-        <v>1.000804619014723</v>
+        <v>1.001609736357488</v>
       </c>
       <c r="E8">
-        <v>1.001192548670691</v>
+        <v>1.000796613489316</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41442</v>
+        <v>41081</v>
       </c>
       <c r="B9">
-        <v>1.002556104165067</v>
+        <v>0.9986444624089262</v>
       </c>
       <c r="C9">
-        <v>0.999762799575968</v>
+        <v>0.9997588751834389</v>
       </c>
       <c r="D9">
-        <v>1.000431275113646</v>
+        <v>0.9998979597614582</v>
       </c>
       <c r="E9">
-        <v>1.00126052656148</v>
+        <v>1.000215685676648</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41443</v>
+        <v>41082</v>
       </c>
       <c r="B10">
-        <v>1.003411453309036</v>
+        <v>0.9986054003657685</v>
       </c>
       <c r="C10">
-        <v>0.9989613811718275</v>
+        <v>0.9999224392863822</v>
       </c>
       <c r="D10">
-        <v>1.000345984165097</v>
+        <v>1.000208327139426</v>
       </c>
       <c r="E10">
-        <v>1.001696461306945</v>
+        <v>1.00052607905636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41444</v>
+        <v>41085</v>
       </c>
       <c r="B11">
-        <v>1.004286942406776</v>
+        <v>0.9985277905286846</v>
       </c>
       <c r="C11">
-        <v>0.9993188427728843</v>
+        <v>0.9999517513438086</v>
       </c>
       <c r="D11">
-        <v>1.000214101280991</v>
+        <v>0.9985899477579627</v>
       </c>
       <c r="E11">
-        <v>1.001328665110912</v>
+        <v>1.000803290395206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41445</v>
+        <v>41086</v>
       </c>
       <c r="B12">
-        <v>1.00706607441845</v>
+        <v>1.000196458131966</v>
       </c>
       <c r="C12">
-        <v>1.000450746836568</v>
+        <v>1.000393652299426</v>
       </c>
       <c r="D12">
-        <v>1.000755446600523</v>
+        <v>0.9989127344540634</v>
       </c>
       <c r="E12">
-        <v>1.000686395856357</v>
+        <v>1.001063886785713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41446</v>
+        <v>41087</v>
       </c>
       <c r="B13">
-        <v>1.006432101982704</v>
+        <v>0.998757491618729</v>
       </c>
       <c r="C13">
-        <v>1.000645959883021</v>
+        <v>1.000179619720597</v>
       </c>
       <c r="D13">
-        <v>1.000751008108384</v>
+        <v>0.9995667130262961</v>
       </c>
       <c r="E13">
-        <v>1.000947972768213</v>
+        <v>1.001013661269386</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41449</v>
+        <v>41088</v>
       </c>
       <c r="B14">
-        <v>1.00806364715784</v>
+        <v>0.9988233038762484</v>
       </c>
       <c r="C14">
-        <v>1.001533011001099</v>
+        <v>1.000595025155923</v>
       </c>
       <c r="D14">
-        <v>1.001514219597378</v>
+        <v>1.000192671210586</v>
       </c>
       <c r="E14">
-        <v>1.000771264704062</v>
+        <v>1.001214935811985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41450</v>
+        <v>41089</v>
       </c>
       <c r="B15">
-        <v>1.007639168424573</v>
+        <v>1.000351300559931</v>
       </c>
       <c r="C15">
-        <v>1.000292634179814</v>
+        <v>0.9993862945271483</v>
       </c>
       <c r="D15">
-        <v>1.001393984628869</v>
+        <v>1.000336239289992</v>
       </c>
       <c r="E15">
-        <v>1.00061348229825</v>
+        <v>1.003496001114062</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41451</v>
+        <v>41092</v>
       </c>
       <c r="B16">
-        <v>1.009348197268127</v>
+        <v>1.00030725257613</v>
       </c>
       <c r="C16">
-        <v>0.9999356426568166</v>
+        <v>0.999382829362762</v>
       </c>
       <c r="D16">
-        <v>1.001480483082226</v>
+        <v>1.000278930458798</v>
       </c>
       <c r="E16">
-        <v>1.001392011351604</v>
+        <v>1.003480648207781</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41452</v>
+        <v>41093</v>
       </c>
       <c r="B17">
-        <v>1.008556923776814</v>
+        <v>1.00029792065822</v>
       </c>
       <c r="C17">
-        <v>0.9998373880342489</v>
+        <v>0.9972812924772374</v>
       </c>
       <c r="D17">
-        <v>1.001043047714181</v>
+        <v>1.001059539039437</v>
       </c>
       <c r="E17">
-        <v>1.001278087831249</v>
+        <v>1.004050900347195</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41453</v>
+        <v>41094</v>
       </c>
       <c r="B18">
-        <v>1.006028734679944</v>
+        <v>0.9988333454476294</v>
       </c>
       <c r="C18">
-        <v>1.000864743847208</v>
+        <v>0.9971565064912166</v>
       </c>
       <c r="D18">
-        <v>0.9986399375575867</v>
+        <v>1.001700226317866</v>
       </c>
       <c r="E18">
-        <v>1.000602046313009</v>
+        <v>1.004253878179602</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41456</v>
+        <v>41095</v>
       </c>
       <c r="B19">
-        <v>1.006019784159355</v>
+        <v>0.9987230833927458</v>
       </c>
       <c r="C19">
-        <v>1.000916078961881</v>
+        <v>0.9977643752313278</v>
       </c>
       <c r="D19">
-        <v>0.9986725558238899</v>
+        <v>1.001213472467614</v>
       </c>
       <c r="E19">
-        <v>1.000636449017847</v>
+        <v>1.003551314622207</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41457</v>
+        <v>41096</v>
       </c>
       <c r="B20">
-        <v>1.006947476299674</v>
+        <v>0.9987219699669746</v>
       </c>
       <c r="C20">
-        <v>1.000561369044159</v>
+        <v>0.9991227458773302</v>
       </c>
       <c r="D20">
-        <v>0.9975667182878223</v>
+        <v>1.00057258593817</v>
       </c>
       <c r="E20">
-        <v>1.000687825593247</v>
+        <v>1.002701304941478</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41458</v>
+        <v>41099</v>
       </c>
       <c r="B21">
-        <v>1.006522788593222</v>
+        <v>0.9986517259791667</v>
       </c>
       <c r="C21">
-        <v>1.00103896808993</v>
+        <v>0.999422545764028</v>
       </c>
       <c r="D21">
-        <v>0.9977540040327099</v>
+        <v>1.000076677438588</v>
       </c>
       <c r="E21">
-        <v>1.000891441287194</v>
+        <v>1.003058648974104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>41459</v>
+        <v>41100</v>
       </c>
       <c r="B22">
-        <v>1.006546556974172</v>
+        <v>0.9986006371322398</v>
       </c>
       <c r="C22">
-        <v>1.000930780398417</v>
+        <v>1.000764617055319</v>
       </c>
       <c r="D22">
-        <v>0.9977563856068741</v>
+        <v>0.9995276629155546</v>
       </c>
       <c r="E22">
-        <v>1.000769890174763</v>
+        <v>1.003304265597141</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>41460</v>
+        <v>41101</v>
       </c>
       <c r="B23">
-        <v>1.007401485613123</v>
+        <v>0.9986058555387143</v>
       </c>
       <c r="C23">
-        <v>1.001169691596735</v>
+        <v>1.001179347349458</v>
       </c>
       <c r="D23">
-        <v>0.9977127397326242</v>
+        <v>1.000321962057653</v>
       </c>
       <c r="E23">
-        <v>1.000859302300502</v>
+        <v>1.003369757326572</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>41463</v>
+        <v>41102</v>
       </c>
       <c r="B24">
-        <v>1.007583518229326</v>
+        <v>0.9985481144954321</v>
       </c>
       <c r="C24">
-        <v>1.000554165661347</v>
+        <v>1.00181296259526</v>
       </c>
       <c r="D24">
-        <v>0.9974925892901839</v>
+        <v>0.9993265631804342</v>
       </c>
       <c r="E24">
-        <v>1.001017074033343</v>
+        <v>1.003034184741724</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>41464</v>
+        <v>41103</v>
       </c>
       <c r="B25">
-        <v>1.007114032759005</v>
+        <v>0.9984999626643963</v>
       </c>
       <c r="C25">
-        <v>1.000093514467322</v>
+        <v>1.00110773596425</v>
       </c>
       <c r="D25">
-        <v>0.9972099389861464</v>
+        <v>0.9997829142475962</v>
       </c>
       <c r="E25">
-        <v>1.001883906946974</v>
+        <v>1.003519904385529</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>41465</v>
+        <v>41106</v>
       </c>
       <c r="B26">
-        <v>1.007009622867806</v>
+        <v>0.9985181231316347</v>
       </c>
       <c r="C26">
-        <v>1.000219000441806</v>
+        <v>1.001263234620452</v>
       </c>
       <c r="D26">
-        <v>0.9968822739250767</v>
+        <v>0.9997022816488388</v>
       </c>
       <c r="E26">
-        <v>1.001303641573567</v>
+        <v>1.003891147106909</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>41466</v>
+        <v>41107</v>
       </c>
       <c r="B27">
-        <v>1.004680381397913</v>
+        <v>0.9985346945642142</v>
       </c>
       <c r="C27">
-        <v>0.9998044683274293</v>
+        <v>1.00165813640296</v>
       </c>
       <c r="D27">
-        <v>0.9966360155364018</v>
+        <v>1.000088701233542</v>
       </c>
       <c r="E27">
-        <v>1.001465633075141</v>
+        <v>1.004121068599324</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>41467</v>
+        <v>41108</v>
       </c>
       <c r="B28">
-        <v>1.005411524168355</v>
+        <v>0.9985145376699259</v>
       </c>
       <c r="C28">
-        <v>0.9999602821352792</v>
+        <v>1.001953064267632</v>
       </c>
       <c r="D28">
-        <v>0.9966899814381549</v>
+        <v>1.000379664104638</v>
       </c>
       <c r="E28">
-        <v>1.001308291288527</v>
+        <v>1.004145876160744</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41470</v>
+        <v>41109</v>
       </c>
       <c r="B29">
-        <v>1.005186185019552</v>
+        <v>0.9968014788300051</v>
       </c>
       <c r="C29">
-        <v>0.9994911629228416</v>
+        <v>1.001252489473863</v>
       </c>
       <c r="D29">
-        <v>0.9967601887973342</v>
+        <v>1.000809603522073</v>
       </c>
       <c r="E29">
-        <v>1.001319913938083</v>
+        <v>1.00434451630742</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41471</v>
+        <v>41110</v>
       </c>
       <c r="B30">
-        <v>1.003580218903078</v>
+        <v>0.9967473193396053</v>
       </c>
       <c r="C30">
-        <v>1.000355166383971</v>
+        <v>1.001332585995369</v>
       </c>
       <c r="D30">
-        <v>0.9967975239715181</v>
+        <v>1.000179217787379</v>
       </c>
       <c r="E30">
-        <v>1.001605369072581</v>
+        <v>1.00435928182921</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41472</v>
+        <v>41113</v>
       </c>
       <c r="B31">
-        <v>1.004305798331305</v>
+        <v>1.021256207869277</v>
       </c>
       <c r="C31">
-        <v>0.999844947545107</v>
+        <v>1.001551207330092</v>
       </c>
       <c r="D31">
-        <v>0.9967340366446105</v>
+        <v>0.9999067959284168</v>
       </c>
       <c r="E31">
-        <v>1.001727618136492</v>
+        <v>1.004183700114411</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41473</v>
+        <v>41114</v>
       </c>
       <c r="B32">
-        <v>1.004499187160317</v>
+        <v>1.017691828078729</v>
       </c>
       <c r="C32">
-        <v>0.9994486968224987</v>
+        <v>1.00184599267263</v>
       </c>
       <c r="D32">
-        <v>0.9964177332570406</v>
+        <v>0.9992052239898067</v>
       </c>
       <c r="E32">
-        <v>1.001505899868617</v>
+        <v>1.003752583266494</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>41474</v>
+        <v>41115</v>
       </c>
       <c r="B33">
-        <v>1.003234008158619</v>
+        <v>1.01761411192667</v>
       </c>
       <c r="C33">
-        <v>0.9996844429628373</v>
+        <v>1.001247132118354</v>
       </c>
       <c r="D33">
-        <v>0.9963922257779548</v>
+        <v>0.9985603065067756</v>
       </c>
       <c r="E33">
-        <v>1.001508563665944</v>
+        <v>1.003799202589883</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>41477</v>
+        <v>41116</v>
       </c>
       <c r="B34">
-        <v>1.001001180659231</v>
+        <v>1.02022217693949</v>
       </c>
       <c r="C34">
-        <v>0.9999266325455729</v>
+        <v>0.9998126817815428</v>
       </c>
       <c r="D34">
-        <v>0.9966646611535709</v>
+        <v>0.9992868690697686</v>
       </c>
       <c r="E34">
-        <v>1.001783573534965</v>
+        <v>1.004003827281017</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>41478</v>
+        <v>41117</v>
       </c>
       <c r="B35">
-        <v>1.000123312464652</v>
+        <v>1.020146638131623</v>
       </c>
       <c r="C35">
-        <v>1.000116622517998</v>
+        <v>0.9990675068436498</v>
       </c>
       <c r="D35">
-        <v>0.9965828403666631</v>
+        <v>1.000241466025095</v>
       </c>
       <c r="E35">
-        <v>1.001784332419393</v>
+        <v>1.003784233464574</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>41479</v>
+        <v>41120</v>
       </c>
       <c r="B36">
-        <v>1.001633741591488</v>
+        <v>1.020789118726269</v>
       </c>
       <c r="C36">
-        <v>0.9999632406417119</v>
+        <v>0.9987739695845094</v>
       </c>
       <c r="D36">
-        <v>0.9965542848427268</v>
+        <v>0.9998602589389403</v>
       </c>
       <c r="E36">
-        <v>1.001662048834924</v>
+        <v>1.003894889243329</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>41480</v>
+        <v>41121</v>
       </c>
       <c r="B37">
-        <v>1.001416968883742</v>
+        <v>1.020087033145598</v>
       </c>
       <c r="C37">
-        <v>1.000029537477941</v>
+        <v>0.9996050849098874</v>
       </c>
       <c r="D37">
-        <v>0.9966585829892795</v>
+        <v>0.9993406930734586</v>
       </c>
       <c r="E37">
-        <v>1.001685868138063</v>
+        <v>1.003807389505096</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>41481</v>
+        <v>41122</v>
       </c>
       <c r="B38">
-        <v>1.00094549214943</v>
+        <v>1.020782667706122</v>
       </c>
       <c r="C38">
-        <v>1.000221550364715</v>
+        <v>0.999978534066</v>
       </c>
       <c r="D38">
-        <v>0.9966077406438085</v>
+        <v>0.9994626449952049</v>
       </c>
       <c r="E38">
-        <v>1.001724235237199</v>
+        <v>1.003868645439217</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>41484</v>
+        <v>41123</v>
       </c>
       <c r="B39">
-        <v>1.001138815508396</v>
+        <v>1.020747316583703</v>
       </c>
       <c r="C39">
-        <v>1.000324985111481</v>
+        <v>1.000643328922364</v>
       </c>
       <c r="D39">
-        <v>0.9962893597669467</v>
+        <v>0.9987705938217833</v>
       </c>
       <c r="E39">
-        <v>1.001959718281848</v>
+        <v>1.003807283782046</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>41485</v>
+        <v>41124</v>
       </c>
       <c r="B40">
-        <v>1.001473680157825</v>
+        <v>1.02000582839244</v>
       </c>
       <c r="C40">
-        <v>1.00055760726405</v>
+        <v>0.9997309680887873</v>
       </c>
       <c r="D40">
-        <v>0.9964699713727381</v>
+        <v>0.9996469911000472</v>
       </c>
       <c r="E40">
-        <v>1.001705154600187</v>
+        <v>1.004238161678304</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>41486</v>
+        <v>41127</v>
       </c>
       <c r="B41">
-        <v>1.002133058587285</v>
+        <v>1.019960666196996</v>
       </c>
       <c r="C41">
-        <v>1.0008619319715</v>
+        <v>0.9997308148577189</v>
       </c>
       <c r="D41">
-        <v>0.9969405576938509</v>
+        <v>0.9995837400861319</v>
       </c>
       <c r="E41">
-        <v>1.001070655804684</v>
+        <v>1.004218988226218</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>41487</v>
+        <v>41128</v>
       </c>
       <c r="B42">
-        <v>1.002684978983793</v>
+        <v>1.018422735410161</v>
       </c>
       <c r="C42">
-        <v>0.9994254672846703</v>
+        <v>0.9981838924999747</v>
       </c>
       <c r="D42">
-        <v>0.9967163517443113</v>
+        <v>1.000674952551768</v>
       </c>
       <c r="E42">
-        <v>1.000598792513929</v>
+        <v>1.004164485871695</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>41488</v>
+        <v>41129</v>
       </c>
       <c r="B43">
-        <v>1.003059931642847</v>
+        <v>1.018380761844022</v>
       </c>
       <c r="C43">
-        <v>0.9992183142858415</v>
+        <v>0.9986865133907289</v>
       </c>
       <c r="D43">
-        <v>0.997001732651986</v>
+        <v>1.000500166869987</v>
       </c>
       <c r="E43">
-        <v>1.000493805751776</v>
+        <v>1.003726296934878</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>41491</v>
+        <v>41130</v>
       </c>
       <c r="B44">
-        <v>1.0030537605017</v>
+        <v>1.019965426419118</v>
       </c>
       <c r="C44">
-        <v>0.9992729084041075</v>
+        <v>0.9980949310117355</v>
       </c>
       <c r="D44">
-        <v>0.9970380260328557</v>
+        <v>1.000860549169712</v>
       </c>
       <c r="E44">
-        <v>1.00052224252648</v>
+        <v>1.003668275645949</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>41492</v>
+        <v>41131</v>
       </c>
       <c r="B45">
-        <v>1.004835910919413</v>
+        <v>1.019910455677708</v>
       </c>
       <c r="C45">
-        <v>0.9992642639079033</v>
+        <v>0.9976928818544071</v>
       </c>
       <c r="D45">
-        <v>0.9977653774378947</v>
+        <v>1.001138720868376</v>
       </c>
       <c r="E45">
-        <v>1.000808606841604</v>
+        <v>1.003094355051711</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>41493</v>
+        <v>41134</v>
       </c>
       <c r="B46">
-        <v>1.004858207735435</v>
+        <v>1.019873741550178</v>
       </c>
       <c r="C46">
-        <v>0.9997558712454383</v>
+        <v>0.9981676472221028</v>
       </c>
       <c r="D46">
-        <v>0.9977117809549105</v>
+        <v>1.000898499429939</v>
       </c>
       <c r="E46">
-        <v>1.000576743446161</v>
+        <v>1.003250445526928</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>41494</v>
+        <v>41135</v>
       </c>
       <c r="B47">
-        <v>1.002204954692954</v>
+        <v>1.019112512768024</v>
       </c>
       <c r="C47">
-        <v>0.9994793169320213</v>
+        <v>0.9984254304003807</v>
       </c>
       <c r="D47">
-        <v>0.9976511407314682</v>
+        <v>1.000789590965617</v>
       </c>
       <c r="E47">
-        <v>1.000236522624496</v>
+        <v>1.003927319895273</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>41495</v>
+        <v>41136</v>
       </c>
       <c r="B48">
-        <v>1.001690687029059</v>
+        <v>1.019056544135171</v>
       </c>
       <c r="C48">
-        <v>0.9993856618205599</v>
+        <v>0.9982471482707667</v>
       </c>
       <c r="D48">
-        <v>0.9982815786929119</v>
+        <v>1.000827756980876</v>
       </c>
       <c r="E48">
-        <v>0.9999824058169585</v>
+        <v>1.00400755805315</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>41498</v>
+        <v>41137</v>
       </c>
       <c r="B49">
-        <v>0.9998635407608437</v>
+        <v>1.019725084961412</v>
       </c>
       <c r="C49">
-        <v>0.9991977089817251</v>
+        <v>0.9968869737485305</v>
       </c>
       <c r="D49">
-        <v>0.9992982203849307</v>
+        <v>1.001019676341592</v>
       </c>
       <c r="E49">
-        <v>1.00025515373978</v>
+        <v>1.004083857191108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>41499</v>
+        <v>41138</v>
       </c>
       <c r="B50">
-        <v>1.000215471699084</v>
+        <v>1.018235847315197</v>
       </c>
       <c r="C50">
-        <v>0.998761323857289</v>
+        <v>0.9966722126281948</v>
       </c>
       <c r="D50">
-        <v>0.9993188298703228</v>
+        <v>1.00122353864172</v>
       </c>
       <c r="E50">
-        <v>1.000240684300332</v>
+        <v>1.004266385354855</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>41500</v>
+        <v>41141</v>
       </c>
       <c r="B51">
-        <v>0.9988798949412423</v>
+        <v>1.0190247231053</v>
       </c>
       <c r="C51">
-        <v>0.9992731166545284</v>
+        <v>0.9964922813578379</v>
       </c>
       <c r="D51">
-        <v>0.9997029882138689</v>
+        <v>1.000883283913329</v>
       </c>
       <c r="E51">
-        <v>1.00010432250776</v>
+        <v>1.004373723710988</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>41501</v>
+        <v>41142</v>
       </c>
       <c r="B52">
-        <v>0.9968187577927369</v>
+        <v>1.018189182179618</v>
       </c>
       <c r="C52">
-        <v>0.9998815252747306</v>
+        <v>0.9958652257184656</v>
       </c>
       <c r="D52">
-        <v>0.999795786310664</v>
+        <v>1.000806088369018</v>
       </c>
       <c r="E52">
-        <v>0.9998574893664596</v>
+        <v>1.004638167850687</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>41502</v>
+        <v>41143</v>
       </c>
       <c r="B53">
-        <v>0.9971654672366304</v>
+        <v>1.018133347514826</v>
       </c>
       <c r="C53">
-        <v>0.9997970892672002</v>
+        <v>0.9950491991103346</v>
       </c>
       <c r="D53">
-        <v>0.9993412018054827</v>
+        <v>1.000304133684908</v>
       </c>
       <c r="E53">
-        <v>0.9996315388712261</v>
+        <v>1.00460361266897</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>41505</v>
+        <v>41144</v>
       </c>
       <c r="B54">
-        <v>0.9976959875964435</v>
+        <v>1.017232371799193</v>
       </c>
       <c r="C54">
-        <v>1.000829378791291</v>
+        <v>0.995092470579841</v>
       </c>
       <c r="D54">
-        <v>0.9997417223483078</v>
+        <v>0.9997853252038643</v>
       </c>
       <c r="E54">
-        <v>0.9993540455560644</v>
+        <v>1.004385670443021</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>41506</v>
+        <v>41145</v>
       </c>
       <c r="B55">
-        <v>0.9965960294492326</v>
+        <v>1.017187910101462</v>
       </c>
       <c r="C55">
-        <v>1.000674115310531</v>
+        <v>0.9951926133930846</v>
       </c>
       <c r="D55">
-        <v>0.9998792088563323</v>
+        <v>0.9996915692911575</v>
       </c>
       <c r="E55">
-        <v>0.9993973794917854</v>
+        <v>1.004569581686599</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>41507</v>
+        <v>41148</v>
       </c>
       <c r="B56">
-        <v>0.9978002544862453</v>
+        <v>1.017182319836786</v>
       </c>
       <c r="C56">
-        <v>1.001093475598553</v>
+        <v>0.995567357416817</v>
       </c>
       <c r="D56">
-        <v>0.9999949813394378</v>
+        <v>0.9996508954040894</v>
       </c>
       <c r="E56">
-        <v>0.9992837274992923</v>
+        <v>1.004372246245131</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>41508</v>
+        <v>41149</v>
       </c>
       <c r="B57">
-        <v>0.9968296467666388</v>
+        <v>1.017123912090556</v>
       </c>
       <c r="C57">
-        <v>1.000453861734682</v>
+        <v>0.9957890730238483</v>
       </c>
       <c r="D57">
-        <v>0.9997386394061942</v>
+        <v>0.9992864915876858</v>
       </c>
       <c r="E57">
-        <v>0.9996196081754118</v>
+        <v>1.004342699836151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>41509</v>
+        <v>41150</v>
       </c>
       <c r="B58">
-        <v>0.9958709910582167</v>
+        <v>1.016180785018466</v>
       </c>
       <c r="C58">
-        <v>1.000317773500942</v>
+        <v>0.9960370035597671</v>
       </c>
       <c r="D58">
-        <v>0.9998096437499242</v>
+        <v>0.9991758759600246</v>
       </c>
       <c r="E58">
-        <v>0.999611465269811</v>
+        <v>1.004461261313095</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>41512</v>
+        <v>41151</v>
       </c>
       <c r="B59">
-        <v>0.9954501140948878</v>
+        <v>1.017154511774132</v>
       </c>
       <c r="C59">
-        <v>1.000564485425061</v>
+        <v>0.9965831699067399</v>
       </c>
       <c r="D59">
-        <v>0.9999714867392261</v>
+        <v>0.9982641207544877</v>
       </c>
       <c r="E59">
-        <v>0.9996455773235141</v>
+        <v>1.004370567790058</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>41513</v>
+        <v>41152</v>
       </c>
       <c r="B60">
-        <v>0.9970086592676753</v>
+        <v>1.017979199291406</v>
       </c>
       <c r="C60">
-        <v>1.001659766010455</v>
+        <v>0.9954971337816984</v>
       </c>
       <c r="D60">
-        <v>0.9999280596990611</v>
+        <v>0.997875262658539</v>
       </c>
       <c r="E60">
-        <v>1.000041063456202</v>
+        <v>1.004455819424442</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>41514</v>
+        <v>41156</v>
       </c>
       <c r="B61">
-        <v>0.9976252691798101</v>
+        <v>1.019584291583448</v>
       </c>
       <c r="C61">
-        <v>1.001203174244368</v>
+        <v>0.9953817508159207</v>
       </c>
       <c r="D61">
-        <v>1.000082594038135</v>
+        <v>0.9978354869080606</v>
       </c>
       <c r="E61">
-        <v>0.9999979110839622</v>
+        <v>1.004463048664231</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>41515</v>
+        <v>41157</v>
       </c>
       <c r="B62">
-        <v>0.9973755366182464</v>
+        <v>1.019541927396307</v>
       </c>
       <c r="C62">
-        <v>1.00100423452027</v>
+        <v>0.9951569986757943</v>
       </c>
       <c r="D62">
-        <v>1.000037328563898</v>
+        <v>0.9978473477661575</v>
       </c>
       <c r="E62">
-        <v>0.9997313429755171</v>
+        <v>1.004617942964685</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>41516</v>
+        <v>41158</v>
       </c>
       <c r="B63">
-        <v>0.9977617730345485</v>
+        <v>1.021600861897341</v>
       </c>
       <c r="C63">
-        <v>1.00124574938151</v>
+        <v>0.994234284574306</v>
       </c>
       <c r="D63">
-        <v>1.000023763782465</v>
+        <v>0.998763254219395</v>
       </c>
       <c r="E63">
-        <v>0.9994652696637875</v>
+        <v>1.004768345167481</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>41520</v>
+        <v>41159</v>
       </c>
       <c r="B64">
-        <v>0.9972464681763714</v>
+        <v>1.020310157126679</v>
       </c>
       <c r="C64">
-        <v>1.000922267184554</v>
+        <v>0.9927601306497402</v>
       </c>
       <c r="D64">
-        <v>0.9999414181741995</v>
+        <v>0.9995994207838949</v>
       </c>
       <c r="E64">
-        <v>0.9997260982601852</v>
+        <v>1.004443084880957</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>41521</v>
+        <v>41162</v>
       </c>
       <c r="B65">
-        <v>0.9972152138215806</v>
+        <v>1.018900772729576</v>
       </c>
       <c r="C65">
-        <v>1.00055397901196</v>
+        <v>0.993675820973451</v>
       </c>
       <c r="D65">
-        <v>1.000343558373942</v>
+        <v>0.9994006727992978</v>
       </c>
       <c r="E65">
-        <v>0.9997649101690097</v>
+        <v>1.00422363042682</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41522</v>
+        <v>41163</v>
       </c>
       <c r="B66">
-        <v>0.9981134735412377</v>
+        <v>1.018837748896858</v>
       </c>
       <c r="C66">
-        <v>0.9994812530230046</v>
+        <v>0.9934899468229995</v>
       </c>
       <c r="D66">
-        <v>1.000171040941949</v>
+        <v>0.9996731736891187</v>
       </c>
       <c r="E66">
-        <v>1.000005605979409</v>
+        <v>1.003849585597507</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41523</v>
+        <v>41164</v>
       </c>
       <c r="B67">
-        <v>0.9979028661517995</v>
+        <v>1.019559360953903</v>
       </c>
       <c r="C67">
-        <v>1.000015596382706</v>
+        <v>0.9930909434881851</v>
       </c>
       <c r="D67">
-        <v>1.000098714102027</v>
+        <v>0.9996137153484248</v>
       </c>
       <c r="E67">
-        <v>1.000198202610348</v>
+        <v>1.003937308322367</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41526</v>
+        <v>41165</v>
       </c>
       <c r="B68">
-        <v>0.9982255759462728</v>
+        <v>1.019450564963042</v>
       </c>
       <c r="C68">
-        <v>0.9994085522516341</v>
+        <v>0.9916991927075762</v>
       </c>
       <c r="D68">
-        <v>1.000376126958231</v>
+        <v>0.9997517940376104</v>
       </c>
       <c r="E68">
-        <v>1.000504091545217</v>
+        <v>1.004163840247809</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41527</v>
+        <v>41166</v>
       </c>
       <c r="B69">
-        <v>0.9995327629426198</v>
+        <v>1.01933969941571</v>
       </c>
       <c r="C69">
-        <v>0.999260670862517</v>
+        <v>0.990165388041359</v>
       </c>
       <c r="D69">
-        <v>0.9997766547613767</v>
+        <v>1.000059650542195</v>
       </c>
       <c r="E69">
-        <v>1.000266355561066</v>
+        <v>1.004156879944758</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41528</v>
+        <v>41169</v>
       </c>
       <c r="B70">
-        <v>0.9994412076588371</v>
+        <v>1.017878619094428</v>
       </c>
       <c r="C70">
-        <v>0.9993408510686869</v>
+        <v>0.9905994402833783</v>
       </c>
       <c r="D70">
-        <v>0.9991614445528541</v>
+        <v>0.9993396469526541</v>
       </c>
       <c r="E70">
-        <v>0.999901929823399</v>
+        <v>1.004260266470137</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41529</v>
+        <v>41170</v>
       </c>
       <c r="B71">
-        <v>1.001203508248707</v>
+        <v>1.017838246326364</v>
       </c>
       <c r="C71">
-        <v>0.999698362753485</v>
+        <v>0.9906602591566986</v>
       </c>
       <c r="D71">
-        <v>0.9993848734603022</v>
+        <v>0.9989350683108784</v>
       </c>
       <c r="E71">
-        <v>0.9999584927165092</v>
+        <v>1.003868114237368</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41530</v>
+        <v>41171</v>
       </c>
       <c r="B72">
-        <v>1.000550600606094</v>
+        <v>1.018602242782029</v>
       </c>
       <c r="C72">
-        <v>0.9999166552964214</v>
+        <v>0.9903351523650026</v>
       </c>
       <c r="D72">
-        <v>0.9993013742932446</v>
+        <v>0.9984112845132942</v>
       </c>
       <c r="E72">
-        <v>0.9998424172975129</v>
+        <v>1.00398635873702</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41533</v>
+        <v>41172</v>
       </c>
       <c r="B73">
-        <v>1.000616085508551</v>
+        <v>1.018577875392764</v>
       </c>
       <c r="C73">
-        <v>0.9991795981686719</v>
+        <v>0.990616504721159</v>
       </c>
       <c r="D73">
-        <v>0.9991109907753674</v>
+        <v>0.9980586386406707</v>
       </c>
       <c r="E73">
-        <v>0.9995914679296064</v>
+        <v>1.004292337380774</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41534</v>
+        <v>41173</v>
       </c>
       <c r="B74">
-        <v>1.000132465883656</v>
+        <v>1.01852743552577</v>
       </c>
       <c r="C74">
-        <v>0.9991730587704171</v>
+        <v>0.9906085340294197</v>
       </c>
       <c r="D74">
-        <v>0.9993313175067478</v>
+        <v>0.9974635980195578</v>
       </c>
       <c r="E74">
-        <v>0.9996067003027123</v>
+        <v>1.004893387959874</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41535</v>
+        <v>41176</v>
       </c>
       <c r="B75">
-        <v>0.9976327829340306</v>
+        <v>1.017753682218526</v>
       </c>
       <c r="C75">
-        <v>1.000050345297207</v>
+        <v>0.9917752832947776</v>
       </c>
       <c r="D75">
-        <v>0.9991554450417899</v>
+        <v>0.9976479145847549</v>
       </c>
       <c r="E75">
-        <v>0.9998379230193143</v>
+        <v>1.00501164320663</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41536</v>
+        <v>41177</v>
       </c>
       <c r="B76">
-        <v>0.99833935249742</v>
+        <v>1.017717578800603</v>
       </c>
       <c r="C76">
-        <v>0.999751344505913</v>
+        <v>0.9922244758780671</v>
       </c>
       <c r="D76">
-        <v>0.9993345689577914</v>
+        <v>0.9976096308416537</v>
       </c>
       <c r="E76">
-        <v>0.9997319387842304</v>
+        <v>1.004411449583926</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41537</v>
+        <v>41178</v>
       </c>
       <c r="B77">
-        <v>1.000336910485564</v>
+        <v>1.018537448843577</v>
       </c>
       <c r="C77">
-        <v>1.000659222303203</v>
+        <v>0.9922115318860654</v>
       </c>
       <c r="D77">
-        <v>0.9979071040185947</v>
+        <v>0.9972101087571769</v>
       </c>
       <c r="E77">
-        <v>0.9995948127235247</v>
+        <v>1.003690123521288</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41540</v>
+        <v>41179</v>
       </c>
       <c r="B78">
-        <v>1.000955688827235</v>
+        <v>1.018439533186744</v>
       </c>
       <c r="C78">
-        <v>1.000727309584034</v>
+        <v>0.9911746807099919</v>
       </c>
       <c r="D78">
-        <v>0.9977906484853396</v>
+        <v>0.9974819292666793</v>
       </c>
       <c r="E78">
-        <v>0.9994919397298542</v>
+        <v>1.003740921874101</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41541</v>
+        <v>41180</v>
       </c>
       <c r="B79">
-        <v>1.000918762767382</v>
+        <v>1.018395159925797</v>
       </c>
       <c r="C79">
-        <v>1.000673907297196</v>
+        <v>0.991082279823452</v>
       </c>
       <c r="D79">
-        <v>0.9973646642137025</v>
+        <v>0.9973631695767698</v>
       </c>
       <c r="E79">
-        <v>0.9996684521521226</v>
+        <v>1.00283746198671</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>41542</v>
+        <v>41183</v>
       </c>
       <c r="B80">
-        <v>1.000333603662218</v>
+        <v>1.017569524760503</v>
       </c>
       <c r="C80">
-        <v>1.001184490454312</v>
+        <v>0.9906850754700508</v>
       </c>
       <c r="D80">
-        <v>0.9970514240000378</v>
+        <v>0.9975965595514945</v>
       </c>
       <c r="E80">
-        <v>0.9996007037202954</v>
+        <v>1.002687152917464</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>41543</v>
+        <v>41184</v>
       </c>
       <c r="B81">
-        <v>1.000861705987706</v>
+        <v>1.017529742265801</v>
       </c>
       <c r="C81">
-        <v>1.000926763607563</v>
+        <v>0.9906518692340068</v>
       </c>
       <c r="D81">
-        <v>0.9968812551548666</v>
+        <v>0.997962744191865</v>
       </c>
       <c r="E81">
-        <v>0.9997186263894479</v>
+        <v>1.002217147939757</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>41544</v>
+        <v>41185</v>
       </c>
       <c r="B82">
-        <v>1.000873908569909</v>
+        <v>1.017493029182807</v>
       </c>
       <c r="C82">
-        <v>1.001078004801032</v>
+        <v>0.9908945753844763</v>
       </c>
       <c r="D82">
-        <v>0.996945347022837</v>
+        <v>0.9979939422362528</v>
       </c>
       <c r="E82">
-        <v>1.000024706563473</v>
+        <v>1.002463209701552</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>41547</v>
+        <v>41186</v>
       </c>
       <c r="B83">
-        <v>1.000832023285312</v>
+        <v>1.017404536230181</v>
       </c>
       <c r="C83">
-        <v>1.00182162069283</v>
+        <v>0.9901093834247875</v>
       </c>
       <c r="D83">
-        <v>0.9969252519190636</v>
+        <v>0.9979256587615074</v>
       </c>
       <c r="E83">
-        <v>1.000194528523942</v>
+        <v>1.002371550686028</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>41548</v>
+        <v>41187</v>
       </c>
       <c r="B84">
-        <v>1.001569592345726</v>
+        <v>1.01735514264016</v>
       </c>
       <c r="C84">
-        <v>1.000904125168301</v>
+        <v>0.9905182617491957</v>
       </c>
       <c r="D84">
-        <v>0.996742881283133</v>
+        <v>0.9978397508834628</v>
       </c>
       <c r="E84">
-        <v>1.000261084404294</v>
+        <v>1.002301910647613</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>41549</v>
+        <v>41190</v>
       </c>
       <c r="B85">
-        <v>1.001428043239734</v>
+        <v>1.017310059752609</v>
       </c>
       <c r="C85">
-        <v>1.001049549613347</v>
+        <v>0.9905186133786472</v>
       </c>
       <c r="D85">
-        <v>0.9969527034803964</v>
+        <v>0.9977756984759433</v>
       </c>
       <c r="E85">
-        <v>0.9999615319386198</v>
+        <v>1.002282191078263</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>41550</v>
+        <v>41191</v>
       </c>
       <c r="B86">
-        <v>1.002021644399531</v>
+        <v>1.016492055285233</v>
       </c>
       <c r="C86">
-        <v>1.001812587856539</v>
+        <v>0.991853257590682</v>
       </c>
       <c r="D86">
-        <v>0.9968746459369465</v>
+        <v>0.9972345323640762</v>
       </c>
       <c r="E86">
-        <v>1.000142131867153</v>
+        <v>1.002606893936479</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>41551</v>
+        <v>41192</v>
       </c>
       <c r="B87">
-        <v>1.002254815656197</v>
+        <v>1.017371228162112</v>
       </c>
       <c r="C87">
-        <v>1.001455784300492</v>
+        <v>0.9918414433618664</v>
       </c>
       <c r="D87">
-        <v>0.9967305081290042</v>
+        <v>0.9967400616193581</v>
       </c>
       <c r="E87">
-        <v>0.9999963113559843</v>
+        <v>1.002453406764763</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>41554</v>
+        <v>41193</v>
       </c>
       <c r="B88">
-        <v>1.001718326542813</v>
+        <v>1.018157952157827</v>
       </c>
       <c r="C88">
-        <v>1.001528158294183</v>
+        <v>0.991607034252868</v>
       </c>
       <c r="D88">
-        <v>0.9971705055966987</v>
+        <v>0.997122558422633</v>
       </c>
       <c r="E88">
-        <v>1.000193617160674</v>
+        <v>1.002427930619932</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>41555</v>
+        <v>41194</v>
       </c>
       <c r="B89">
-        <v>1.002797167189313</v>
+        <v>1.018133495492784</v>
       </c>
       <c r="C89">
-        <v>1.00183755075761</v>
+        <v>0.9920018893476892</v>
       </c>
       <c r="D89">
-        <v>0.9973306059775019</v>
+        <v>0.9970550462644004</v>
       </c>
       <c r="E89">
-        <v>1.000228848423476</v>
+        <v>1.002501758929765</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>41556</v>
+        <v>41197</v>
       </c>
       <c r="B90">
-        <v>1.002564578679809</v>
+        <v>1.018070316043285</v>
       </c>
       <c r="C90">
-        <v>1.001672804594221</v>
+        <v>0.9918663479429161</v>
       </c>
       <c r="D90">
-        <v>0.9974016103193029</v>
+        <v>0.9972637357014379</v>
       </c>
       <c r="E90">
-        <v>1.000447685927501</v>
+        <v>1.002588981533753</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>41557</v>
+        <v>41198</v>
       </c>
       <c r="B91">
-        <v>1.002624719887804</v>
+        <v>1.017971841837147</v>
       </c>
       <c r="C91">
-        <v>1.000424231257795</v>
+        <v>0.9906681073982347</v>
       </c>
       <c r="D91">
-        <v>0.99708976749073</v>
+        <v>0.9981730168123271</v>
       </c>
       <c r="E91">
-        <v>1.000170382162859</v>
+        <v>1.002842382899266</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>41558</v>
+        <v>41199</v>
       </c>
       <c r="B92">
-        <v>1.00341565280222</v>
+        <v>1.018671359671388</v>
       </c>
       <c r="C92">
-        <v>1.000305160905088</v>
+        <v>0.9901972875010712</v>
       </c>
       <c r="D92">
-        <v>0.9968313566337732</v>
+        <v>0.9984170653279104</v>
       </c>
       <c r="E92">
-        <v>0.9999835486702987</v>
+        <v>1.002892781515541</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>41561</v>
+        <v>41200</v>
       </c>
       <c r="B93">
-        <v>1.003409222859776</v>
+        <v>1.019368277215946</v>
       </c>
       <c r="C93">
-        <v>1.000359502523149</v>
+        <v>0.9906730962306036</v>
       </c>
       <c r="D93">
-        <v>0.9968672964382728</v>
+        <v>0.9988700581838129</v>
       </c>
       <c r="E93">
-        <v>1.00001252621825</v>
+        <v>1.003083858269798</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>41562</v>
+        <v>41201</v>
       </c>
       <c r="B94">
-        <v>1.00255134830514</v>
+        <v>1.017988389271965</v>
       </c>
       <c r="C94">
-        <v>1.000377610019945</v>
+        <v>0.9906120266381768</v>
       </c>
       <c r="D94">
-        <v>0.9971692508196317</v>
+        <v>0.9980575425240689</v>
       </c>
       <c r="E94">
-        <v>0.9999103261246804</v>
+        <v>1.002933592828996</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>41563</v>
+        <v>41204</v>
       </c>
       <c r="B95">
-        <v>1.003252173416223</v>
+        <v>1.017830094538287</v>
       </c>
       <c r="C95">
-        <v>1.000030454667785</v>
+        <v>0.9903717213771813</v>
       </c>
       <c r="D95">
-        <v>0.9969632342216783</v>
+        <v>0.9976765441195298</v>
       </c>
       <c r="E95">
-        <v>0.9998124017668955</v>
+        <v>1.002866287737021</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>41564</v>
+        <v>41205</v>
       </c>
       <c r="B96">
-        <v>1.001701180966557</v>
+        <v>1.017791841079383</v>
       </c>
       <c r="C96">
-        <v>1.000110242400115</v>
+        <v>0.9915611533042089</v>
       </c>
       <c r="D96">
-        <v>0.9970303350805986</v>
+        <v>0.9969567205839658</v>
       </c>
       <c r="E96">
-        <v>0.9999131496873299</v>
+        <v>1.00263639063789</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>41565</v>
+        <v>41206</v>
       </c>
       <c r="B97">
-        <v>1.001851180071032</v>
+        <v>1.017752836970405</v>
       </c>
       <c r="C97">
-        <v>0.999460363410883</v>
+        <v>0.9919372464684393</v>
       </c>
       <c r="D97">
-        <v>0.9970668746239201</v>
+        <v>0.9970873703439221</v>
       </c>
       <c r="E97">
-        <v>0.9995750240218665</v>
+        <v>1.002839819354232</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>41568</v>
+        <v>41207</v>
       </c>
       <c r="B98">
-        <v>1.000929718031818</v>
+        <v>1.017672327428881</v>
       </c>
       <c r="C98">
-        <v>0.9995498934934538</v>
+        <v>0.9909711332551285</v>
       </c>
       <c r="D98">
-        <v>0.9970037573060044</v>
+        <v>0.9972138681668892</v>
       </c>
       <c r="E98">
-        <v>0.9992527881828394</v>
+        <v>1.002669251322244</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>41569</v>
+        <v>41208</v>
       </c>
       <c r="B99">
-        <v>0.9995625467680169</v>
+        <v>1.017595820193764</v>
       </c>
       <c r="C99">
-        <v>0.9996229156353099</v>
+        <v>0.9910556324611678</v>
       </c>
       <c r="D99">
-        <v>0.9969145559367489</v>
+        <v>0.9969727339901382</v>
       </c>
       <c r="E99">
-        <v>0.9995806053652956</v>
+        <v>1.002788653103666</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>41570</v>
+        <v>41211</v>
       </c>
       <c r="B100">
-        <v>1.000117327325421</v>
+        <v>1.018430723532048</v>
       </c>
       <c r="C100">
-        <v>0.9994159662276419</v>
+        <v>0.9909007196200142</v>
       </c>
       <c r="D100">
-        <v>0.9968903884682191</v>
+        <v>0.9968279419446435</v>
       </c>
       <c r="E100">
-        <v>0.9992565156726075</v>
+        <v>1.002685996874713</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>41571</v>
+        <v>41212</v>
       </c>
       <c r="B101">
-        <v>0.9981396369537615</v>
+        <v>1.018346272973125</v>
       </c>
       <c r="C101">
-        <v>0.9992957617472508</v>
+        <v>0.990435998922609</v>
       </c>
       <c r="D101">
-        <v>0.9971239186369046</v>
+        <v>0.9970552029714024</v>
       </c>
       <c r="E101">
-        <v>0.9993967406949177</v>
+        <v>1.002802784844048</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>41572</v>
+        <v>41213</v>
       </c>
       <c r="B102">
-        <v>0.9977618995856097</v>
+        <v>1.019643887268452</v>
       </c>
       <c r="C102">
-        <v>0.9991374290270491</v>
+        <v>0.9898422680330682</v>
       </c>
       <c r="D102">
-        <v>0.996947928739969</v>
+        <v>0.9970287240834097</v>
       </c>
       <c r="E102">
-        <v>0.9995800215452654</v>
+        <v>1.002416661605344</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>41575</v>
+        <v>41214</v>
       </c>
       <c r="B103">
-        <v>0.9976113043563019</v>
+        <v>1.019590491926863</v>
       </c>
       <c r="C103">
-        <v>0.9995739725309701</v>
+        <v>0.9895857464729308</v>
       </c>
       <c r="D103">
-        <v>0.9971067054131048</v>
+        <v>0.9983404446489402</v>
       </c>
       <c r="E103">
-        <v>0.9997797413326414</v>
+        <v>1.001787108116251</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>41576</v>
+        <v>41215</v>
       </c>
       <c r="B104">
-        <v>0.9983811224785289</v>
+        <v>1.018973384236796</v>
       </c>
       <c r="C104">
-        <v>0.9990031413710674</v>
+        <v>0.9910658739428559</v>
       </c>
       <c r="D104">
-        <v>0.9971275854630807</v>
+        <v>0.9982665722141317</v>
       </c>
       <c r="E104">
-        <v>0.9998624993871689</v>
+        <v>1.001636628760237</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>41577</v>
+        <v>41218</v>
       </c>
       <c r="B105">
-        <v>0.9977004924668925</v>
+        <v>1.018914126705563</v>
       </c>
       <c r="C105">
-        <v>0.9993106644328794</v>
+        <v>0.9912666256066468</v>
       </c>
       <c r="D105">
-        <v>0.9970520043633686</v>
+        <v>0.9980025987298987</v>
       </c>
       <c r="E105">
-        <v>0.9998601560922359</v>
+        <v>1.001372639537025</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>41578</v>
+        <v>41219</v>
       </c>
       <c r="B106">
-        <v>0.9991339019712284</v>
+        <v>1.018824593912364</v>
       </c>
       <c r="C106">
-        <v>1.000065875765562</v>
+        <v>0.9907916460084915</v>
       </c>
       <c r="D106">
-        <v>0.9966809103694696</v>
+        <v>0.9976900592596586</v>
       </c>
       <c r="E106">
-        <v>0.999952715229484</v>
+        <v>1.001169532932767</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>41579</v>
+        <v>41220</v>
       </c>
       <c r="B107">
-        <v>1.000297335311622</v>
+        <v>1.018102323567603</v>
       </c>
       <c r="C107">
-        <v>0.9998425117656343</v>
+        <v>0.9908578401403162</v>
       </c>
       <c r="D107">
-        <v>0.996443703798186</v>
+        <v>0.9960158352531939</v>
       </c>
       <c r="E107">
-        <v>1.000035654805602</v>
+        <v>1.001450190999468</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>41582</v>
+        <v>41221</v>
       </c>
       <c r="B108">
-        <v>0.9993712735367464</v>
+        <v>1.018036772571982</v>
       </c>
       <c r="C108">
-        <v>1.000333802180423</v>
+        <v>0.9903883137799778</v>
       </c>
       <c r="D108">
-        <v>0.9950388988207349</v>
+        <v>0.9951542522613663</v>
       </c>
       <c r="E108">
-        <v>0.9997099351174458</v>
+        <v>1.00117880750919</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>41583</v>
+        <v>41222</v>
       </c>
       <c r="B109">
-        <v>0.9997147107432721</v>
+        <v>1.018048947247897</v>
       </c>
       <c r="C109">
-        <v>0.9999266277777694</v>
+        <v>0.9906815577588187</v>
       </c>
       <c r="D109">
-        <v>0.9953504336268655</v>
+        <v>0.9953653433847798</v>
       </c>
       <c r="E109">
-        <v>0.9999925264599221</v>
+        <v>1.000773894611459</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>41584</v>
+        <v>41225</v>
       </c>
       <c r="B110">
-        <v>0.9995016031586746</v>
+        <v>1.017313787694148</v>
       </c>
       <c r="C110">
-        <v>1.000357427355404</v>
+        <v>0.9910706088024892</v>
       </c>
       <c r="D110">
-        <v>0.9954244367499991</v>
+        <v>0.9955858725363729</v>
       </c>
       <c r="E110">
-        <v>0.9998166710967454</v>
+        <v>1.000497318512491</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>41585</v>
+        <v>41226</v>
       </c>
       <c r="B111">
-        <v>1.000603736672139</v>
+        <v>1.017296327950576</v>
       </c>
       <c r="C111">
-        <v>1.000931319444476</v>
+        <v>0.9914532015728467</v>
       </c>
       <c r="D111">
-        <v>0.9954132021454216</v>
+        <v>0.9951563857819102</v>
       </c>
       <c r="E111">
-        <v>0.9997503727092082</v>
+        <v>1.000813292227317</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41586</v>
+        <v>41227</v>
       </c>
       <c r="B112">
-        <v>1.000355370279089</v>
+        <v>1.017370853087077</v>
       </c>
       <c r="C112">
-        <v>1.000442675702972</v>
+        <v>0.993403469422991</v>
       </c>
       <c r="D112">
-        <v>0.9953388163769729</v>
+        <v>0.9946769091722986</v>
       </c>
       <c r="E112">
-        <v>0.9995248303397848</v>
+        <v>1.000391609192478</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41589</v>
+        <v>41228</v>
       </c>
       <c r="B113">
-        <v>1.000256966199198</v>
+        <v>1.016642685261982</v>
       </c>
       <c r="C113">
-        <v>1.000538173190831</v>
+        <v>0.9943967725894527</v>
       </c>
       <c r="D113">
-        <v>0.9952924756579653</v>
+        <v>0.9946309170910534</v>
       </c>
       <c r="E113">
-        <v>0.9994796431359427</v>
+        <v>0.9999258134528159</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41590</v>
+        <v>41229</v>
       </c>
       <c r="B114">
-        <v>1.000723710512599</v>
+        <v>1.016618599852616</v>
       </c>
       <c r="C114">
-        <v>1.000634163424589</v>
+        <v>0.9940352721704675</v>
       </c>
       <c r="D114">
-        <v>0.9954030903543684</v>
+        <v>0.9950404353165923</v>
       </c>
       <c r="E114">
-        <v>0.999404085858659</v>
+        <v>0.9996042415976715</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41591</v>
+        <v>41232</v>
       </c>
       <c r="B115">
-        <v>1.000747452050376</v>
+        <v>1.01648878005065</v>
       </c>
       <c r="C115">
-        <v>1.000754680433747</v>
+        <v>0.9929678238497271</v>
       </c>
       <c r="D115">
-        <v>0.99559278249009</v>
+        <v>0.995803890210102</v>
       </c>
       <c r="E115">
-        <v>0.9995487971474523</v>
+        <v>0.9994815227788918</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41592</v>
+        <v>41233</v>
       </c>
       <c r="B116">
-        <v>0.9999730107447207</v>
+        <v>1.018082848023673</v>
       </c>
       <c r="C116">
-        <v>1.000816263797777</v>
+        <v>0.9930722290141374</v>
       </c>
       <c r="D116">
-        <v>0.9956120523879934</v>
+        <v>0.9958672762440478</v>
       </c>
       <c r="E116">
-        <v>0.9991016901369306</v>
+        <v>0.9993816361023696</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41593</v>
+        <v>41234</v>
       </c>
       <c r="B117">
-        <v>1.000313805453844</v>
+        <v>1.017313121312075</v>
       </c>
       <c r="C117">
-        <v>1.000567483290617</v>
+        <v>0.9926379535344138</v>
       </c>
       <c r="D117">
-        <v>0.9953958285063095</v>
+        <v>0.9958514642355089</v>
       </c>
       <c r="E117">
-        <v>0.9995513598508688</v>
+        <v>0.9988499363586574</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41596</v>
+        <v>41235</v>
       </c>
       <c r="B118">
-        <v>1.001088412924938</v>
+        <v>1.017262758289449</v>
       </c>
       <c r="C118">
-        <v>1.000834248704088</v>
+        <v>0.9923815002601633</v>
       </c>
       <c r="D118">
-        <v>0.9949821767636736</v>
+        <v>0.996733669916773</v>
       </c>
       <c r="E118">
-        <v>0.9993585176169213</v>
+        <v>0.9973425309870461</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41597</v>
+        <v>41236</v>
       </c>
       <c r="B119">
-        <v>1.000957011016088</v>
+        <v>1.017968794535695</v>
       </c>
       <c r="C119">
-        <v>1.001168568946639</v>
+        <v>0.9919240364803567</v>
       </c>
       <c r="D119">
-        <v>0.9949442083182936</v>
+        <v>0.9968052244143517</v>
       </c>
       <c r="E119">
-        <v>0.999402502771419</v>
+        <v>0.9977191773621388</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41598</v>
+        <v>41239</v>
       </c>
       <c r="B120">
-        <v>1.001943346628606</v>
+        <v>1.017911331606936</v>
       </c>
       <c r="C120">
-        <v>1.001055132348279</v>
+        <v>0.9919587001594296</v>
       </c>
       <c r="D120">
-        <v>0.9949726501629358</v>
+        <v>0.9963606827470993</v>
       </c>
       <c r="E120">
-        <v>0.9994399848146803</v>
+        <v>0.9973174679132049</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41599</v>
+        <v>41240</v>
       </c>
       <c r="B121">
-        <v>1.002065908064022</v>
+        <v>1.017117472119645</v>
       </c>
       <c r="C121">
-        <v>1.000651933335898</v>
+        <v>0.9926634789246989</v>
       </c>
       <c r="D121">
-        <v>0.9947751489192285</v>
+        <v>0.9961223612710826</v>
       </c>
       <c r="E121">
-        <v>0.9994236145541082</v>
+        <v>0.9982593447050183</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41600</v>
+        <v>41241</v>
       </c>
       <c r="B122">
-        <v>1.002395033282005</v>
+        <v>1.017029132619644</v>
       </c>
       <c r="C122">
-        <v>1.000539365476924</v>
+        <v>0.9923588153229149</v>
       </c>
       <c r="D122">
-        <v>0.9949894216964466</v>
+        <v>0.9963766550750522</v>
       </c>
       <c r="E122">
-        <v>0.9995311925115488</v>
+        <v>0.9981241165662061</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>41603</v>
+        <v>41242</v>
       </c>
       <c r="B123">
-        <v>1.002192375300038</v>
+        <v>1.016922572696337</v>
       </c>
       <c r="C123">
-        <v>1.000662659954615</v>
+        <v>0.9923136488672939</v>
       </c>
       <c r="D123">
-        <v>0.9951798865691269</v>
+        <v>0.9971434721235081</v>
       </c>
       <c r="E123">
-        <v>0.9996524926060577</v>
+        <v>0.9979311091133356</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>41604</v>
+        <v>41243</v>
       </c>
       <c r="B124">
-        <v>1.002963062612808</v>
+        <v>1.016177962470573</v>
       </c>
       <c r="C124">
-        <v>1.001083790669604</v>
+        <v>0.9924316680794293</v>
       </c>
       <c r="D124">
-        <v>0.9960960327475463</v>
+        <v>0.9974412567570348</v>
       </c>
       <c r="E124">
-        <v>0.9970922088375973</v>
+        <v>0.9979253411830207</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>41605</v>
+        <v>41246</v>
       </c>
       <c r="B125">
-        <v>1.002562577216145</v>
+        <v>1.017013305949611</v>
       </c>
       <c r="C125">
-        <v>1.001197271435446</v>
+        <v>0.993098088953742</v>
       </c>
       <c r="D125">
-        <v>0.9961826792094204</v>
+        <v>0.9973172490889798</v>
       </c>
       <c r="E125">
-        <v>0.9969871689931684</v>
+        <v>0.9978927656256101</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>41606</v>
+        <v>41247</v>
       </c>
       <c r="B126">
-        <v>1.00222042525688</v>
+        <v>1.016167486735552</v>
       </c>
       <c r="C126">
-        <v>1.001119862718207</v>
+        <v>0.9933459874736267</v>
       </c>
       <c r="D126">
-        <v>0.9961597316026756</v>
+        <v>0.9970295088016415</v>
       </c>
       <c r="E126">
-        <v>0.9967074128929806</v>
+        <v>0.997790574037186</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>41607</v>
+        <v>41248</v>
       </c>
       <c r="B127">
-        <v>1.001885753679241</v>
+        <v>1.01615755764391</v>
       </c>
       <c r="C127">
-        <v>1.001284551872299</v>
+        <v>0.9940030453436252</v>
       </c>
       <c r="D127">
-        <v>0.9962922171216803</v>
+        <v>0.9979428822060183</v>
       </c>
       <c r="E127">
-        <v>0.9963255417348795</v>
+        <v>0.9977660843326824</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>41610</v>
+        <v>41249</v>
       </c>
       <c r="B128">
-        <v>1.003386539857562</v>
+        <v>1.016138146465207</v>
       </c>
       <c r="C128">
-        <v>1.000557625134435</v>
+        <v>0.9938781436564051</v>
       </c>
       <c r="D128">
-        <v>0.9960632021855186</v>
+        <v>0.998105280405336</v>
       </c>
       <c r="E128">
-        <v>0.9963317284636848</v>
+        <v>0.9978237748153149</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>41611</v>
+        <v>41250</v>
       </c>
       <c r="B129">
-        <v>1.00378028115169</v>
+        <v>1.015971756970792</v>
       </c>
       <c r="C129">
-        <v>1.000952563558111</v>
+        <v>0.9938015582937122</v>
       </c>
       <c r="D129">
-        <v>0.996063989344234</v>
+        <v>0.9978910806758445</v>
       </c>
       <c r="E129">
-        <v>0.9966618180091464</v>
+        <v>0.9976892505703134</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>41612</v>
+        <v>41253</v>
       </c>
       <c r="B130">
-        <v>1.002916006555961</v>
+        <v>1.015315737880694</v>
       </c>
       <c r="C130">
-        <v>1.001267621033831</v>
+        <v>0.9934549432030078</v>
       </c>
       <c r="D130">
-        <v>0.9959601929109739</v>
+        <v>0.9981291238134034</v>
       </c>
       <c r="E130">
-        <v>0.9963181613879056</v>
+        <v>0.9978859961513061</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>41613</v>
+        <v>41254</v>
       </c>
       <c r="B131">
-        <v>1.003846306230644</v>
+        <v>1.017068707588677</v>
       </c>
       <c r="C131">
-        <v>1.001777133028864</v>
+        <v>0.9932393100590321</v>
       </c>
       <c r="D131">
-        <v>0.9956528454353191</v>
+        <v>0.9987663196843075</v>
       </c>
       <c r="E131">
-        <v>0.9963875123400699</v>
+        <v>0.9975052322955182</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>41614</v>
+        <v>41255</v>
       </c>
       <c r="B132">
-        <v>1.003810377383308</v>
+        <v>1.016992767689775</v>
       </c>
       <c r="C132">
-        <v>1.001478991384196</v>
+        <v>0.9923998294647877</v>
       </c>
       <c r="D132">
-        <v>0.9955572798042781</v>
+        <v>0.9987143567401916</v>
       </c>
       <c r="E132">
-        <v>0.9965773839723456</v>
+        <v>0.9969178225776869</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>41617</v>
+        <v>41256</v>
       </c>
       <c r="B133">
-        <v>1.003183612596424</v>
+        <v>1.016205914446076</v>
       </c>
       <c r="C133">
-        <v>1.001761421648084</v>
+        <v>0.9932499893766087</v>
       </c>
       <c r="D133">
-        <v>0.9953916144400214</v>
+        <v>0.998731695243982</v>
       </c>
       <c r="E133">
-        <v>0.9965788649363837</v>
+        <v>0.9964694044734375</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>41618</v>
+        <v>41257</v>
       </c>
       <c r="B134">
-        <v>1.002035561970618</v>
+        <v>1.016112926665383</v>
       </c>
       <c r="C134">
-        <v>1.002009509301286</v>
+        <v>0.9928786059945478</v>
       </c>
       <c r="D134">
-        <v>0.9960002012875476</v>
+        <v>0.9987402279640046</v>
       </c>
       <c r="E134">
-        <v>0.995946646862784</v>
+        <v>0.996259979751005</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>41619</v>
+        <v>41260</v>
       </c>
       <c r="B135">
-        <v>1.00339395301279</v>
+        <v>1.016064182730625</v>
       </c>
       <c r="C135">
-        <v>1.00295223196069</v>
+        <v>0.9930835658931541</v>
       </c>
       <c r="D135">
-        <v>0.9964050919794498</v>
+        <v>0.9987121501685596</v>
       </c>
       <c r="E135">
-        <v>0.9959955624153005</v>
+        <v>0.9963966816520723</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>41620</v>
+        <v>41261</v>
       </c>
       <c r="B136">
-        <v>1.003792205476431</v>
+        <v>1.0160312623711</v>
       </c>
       <c r="C136">
-        <v>1.002987240260193</v>
+        <v>0.993345692712316</v>
       </c>
       <c r="D136">
-        <v>0.9964175555564162</v>
+        <v>0.9993602587350038</v>
       </c>
       <c r="E136">
-        <v>0.996118631628527</v>
+        <v>0.9967833768062468</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>41621</v>
+        <v>41262</v>
       </c>
       <c r="B137">
-        <v>1.003739968075096</v>
+        <v>1.015977179331371</v>
       </c>
       <c r="C137">
-        <v>1.002813919007247</v>
+        <v>0.9931989927525295</v>
       </c>
       <c r="D137">
-        <v>0.9966938299940312</v>
+        <v>0.9999713007441428</v>
       </c>
       <c r="E137">
-        <v>0.9960563655344215</v>
+        <v>0.9970010912357717</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>41624</v>
+        <v>41263</v>
       </c>
       <c r="B138">
-        <v>1.003483060677753</v>
+        <v>1.015932541376666</v>
       </c>
       <c r="C138">
-        <v>1.002414083197668</v>
+        <v>0.9936048846024438</v>
       </c>
       <c r="D138">
-        <v>0.9968433106825046</v>
+        <v>1.000244738102842</v>
       </c>
       <c r="E138">
-        <v>0.9956167784334415</v>
+        <v>0.9966882524788201</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>41625</v>
+        <v>41264</v>
       </c>
       <c r="B139">
-        <v>1.003543115697986</v>
+        <v>1.015902666604168</v>
       </c>
       <c r="C139">
-        <v>1.002434409640657</v>
+        <v>0.9933670372512848</v>
       </c>
       <c r="D139">
-        <v>0.9967392152741585</v>
+        <v>0.9992312705458426</v>
       </c>
       <c r="E139">
-        <v>0.9952949380819013</v>
+        <v>0.9987363401561654</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>41626</v>
+        <v>41267</v>
       </c>
       <c r="B140">
-        <v>1.003652842001137</v>
+        <v>1.015845948757661</v>
       </c>
       <c r="C140">
-        <v>1.001567012632884</v>
+        <v>0.9935552743457288</v>
       </c>
       <c r="D140">
-        <v>0.9963885033030396</v>
+        <v>0.9989851053783154</v>
       </c>
       <c r="E140">
-        <v>0.9954275332835761</v>
+        <v>0.9989806490045217</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>41627</v>
+        <v>41269</v>
       </c>
       <c r="B141">
-        <v>1.004037117400698</v>
+        <v>1.015800895116386</v>
       </c>
       <c r="C141">
-        <v>1.001022221806489</v>
+        <v>0.9935561271728457</v>
       </c>
       <c r="D141">
-        <v>0.9964682381426909</v>
+        <v>0.9989200715003151</v>
       </c>
       <c r="E141">
-        <v>0.9957259089140734</v>
+        <v>0.9989604192329343</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>41628</v>
+        <v>41270</v>
       </c>
       <c r="B142">
-        <v>1.004001328389347</v>
+        <v>1.015774806141547</v>
       </c>
       <c r="C142">
-        <v>1.000377460004569</v>
+        <v>0.9932955001466659</v>
       </c>
       <c r="D142">
-        <v>0.9979008872095145</v>
+        <v>0.9988282228801847</v>
       </c>
       <c r="E142">
-        <v>0.996059166843674</v>
+        <v>0.9977540905658592</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>41631</v>
+        <v>41271</v>
       </c>
       <c r="B143">
-        <v>1.004091799879997</v>
+        <v>1.015756044863244</v>
       </c>
       <c r="C143">
-        <v>1.000013082388576</v>
+        <v>0.9937153555208629</v>
       </c>
       <c r="D143">
-        <v>0.9980564779732073</v>
+        <v>0.9985882283874691</v>
       </c>
       <c r="E143">
-        <v>0.9961605201494075</v>
+        <v>0.997635588710453</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>41632</v>
+        <v>41274</v>
       </c>
       <c r="B144">
-        <v>1.003058357325438</v>
+        <v>1.015657574870448</v>
       </c>
       <c r="C144">
-        <v>0.999852119674412</v>
+        <v>0.9925700090486784</v>
       </c>
       <c r="D144">
-        <v>0.9983387884566326</v>
+        <v>0.9989232477038353</v>
       </c>
       <c r="E144">
-        <v>0.9962814281577701</v>
+        <v>0.9977650334817666</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>41634</v>
+        <v>41276</v>
       </c>
       <c r="B145">
-        <v>1.003048755139414</v>
+        <v>1.015567815424037</v>
       </c>
       <c r="C145">
-        <v>0.999902578790523</v>
+        <v>0.9919062085829338</v>
       </c>
       <c r="D145">
-        <v>0.9983704772437014</v>
+        <v>0.9993514040549153</v>
       </c>
       <c r="E145">
-        <v>0.9963171447022102</v>
+        <v>0.9981052092874315</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>41635</v>
+        <v>41277</v>
       </c>
       <c r="B146">
-        <v>1.002316519122135</v>
+        <v>1.015569886859877</v>
       </c>
       <c r="C146">
-        <v>0.9998455658424824</v>
+        <v>0.9930397712850193</v>
       </c>
       <c r="D146">
-        <v>0.9978146337268835</v>
+        <v>0.999723645494761</v>
       </c>
       <c r="E146">
-        <v>0.9963656576091328</v>
+        <v>0.9983859179024083</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>41638</v>
+        <v>41278</v>
       </c>
       <c r="B147">
-        <v>1.0033361479254</v>
+        <v>1.015522316107373</v>
       </c>
       <c r="C147">
-        <v>0.9997267719602346</v>
+        <v>0.9928603340193538</v>
       </c>
       <c r="D147">
-        <v>0.9976056088623033</v>
+        <v>1.00026651612966</v>
       </c>
       <c r="E147">
-        <v>0.9963116830724207</v>
+        <v>0.9981281097538023</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>41639</v>
+        <v>41281</v>
       </c>
       <c r="B148">
-        <v>1.002737681391281</v>
+        <v>1.015468170297676</v>
       </c>
       <c r="C148">
-        <v>0.9998267490110991</v>
+        <v>0.9934857214464148</v>
       </c>
       <c r="D148">
-        <v>0.9978663452522386</v>
+        <v>1.000302242077564</v>
       </c>
       <c r="E148">
-        <v>0.9964929375498435</v>
+        <v>0.9981458302806858</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>41641</v>
+        <v>41282</v>
       </c>
       <c r="B149">
-        <v>1.001359975974109</v>
+        <v>1.015424715574828</v>
       </c>
       <c r="C149">
-        <v>1.000148914170319</v>
+        <v>0.9932834825502138</v>
       </c>
       <c r="D149">
-        <v>0.9985107537056076</v>
+        <v>1.000156235339206</v>
       </c>
       <c r="E149">
-        <v>0.9964844840409989</v>
+        <v>0.9980971660369847</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>41642</v>
+        <v>41283</v>
       </c>
       <c r="B150">
-        <v>1.001808852212791</v>
+        <v>1.01538298661718</v>
       </c>
       <c r="C150">
-        <v>1.000480850201427</v>
+        <v>0.9934467800648874</v>
       </c>
       <c r="D150">
-        <v>0.9985111269378355</v>
+        <v>1.000137428296962</v>
       </c>
       <c r="E150">
-        <v>0.9965386908458453</v>
+        <v>0.9983867198301414</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>41645</v>
+        <v>41284</v>
       </c>
       <c r="B151">
-        <v>1.001569077162464</v>
+        <v>1.015277973363248</v>
       </c>
       <c r="C151">
-        <v>1.000729589396092</v>
+        <v>0.9925639715691016</v>
       </c>
       <c r="D151">
-        <v>0.9990705469094662</v>
+        <v>1.000207141381613</v>
       </c>
       <c r="E151">
-        <v>0.9967162248618672</v>
+        <v>0.9980666939978713</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>41646</v>
+        <v>41285</v>
       </c>
       <c r="B152">
-        <v>1.001283382804449</v>
+        <v>1.015260264276239</v>
       </c>
       <c r="C152">
-        <v>0.9997426879389157</v>
+        <v>0.9924798534542701</v>
       </c>
       <c r="D152">
-        <v>0.999675661182641</v>
+        <v>1.000538649132253</v>
       </c>
       <c r="E152">
-        <v>0.9965719493175429</v>
+        <v>0.9968461445208907</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>41647</v>
+        <v>41288</v>
       </c>
       <c r="B153">
-        <v>1.001337059495635</v>
+        <v>1.015187851125984</v>
       </c>
       <c r="C153">
-        <v>0.9994075099774842</v>
+        <v>0.99247333024936</v>
       </c>
       <c r="D153">
-        <v>0.9996176701637943</v>
+        <v>1.000909119569953</v>
       </c>
       <c r="E153">
-        <v>0.9968024870126312</v>
+        <v>0.9958505255065843</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>41648</v>
+        <v>41289</v>
       </c>
       <c r="B154">
-        <v>1.001748797154168</v>
+        <v>1.015138400357469</v>
       </c>
       <c r="C154">
-        <v>0.9990498867036038</v>
+        <v>0.9921528067839542</v>
       </c>
       <c r="D154">
-        <v>0.9999396412650812</v>
+        <v>1.000813476038853</v>
       </c>
       <c r="E154">
-        <v>0.9966537645480699</v>
+        <v>0.9961677115950152</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>41649</v>
+        <v>41290</v>
       </c>
       <c r="B155">
-        <v>1.000592803716914</v>
+        <v>1.015117062913696</v>
       </c>
       <c r="C155">
-        <v>0.9986080574496654</v>
+        <v>0.9924311245917562</v>
       </c>
       <c r="D155">
-        <v>0.9999157528678556</v>
+        <v>1.000629416076672</v>
       </c>
       <c r="E155">
-        <v>0.9966127942345124</v>
+        <v>0.995887150579628</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>41652</v>
+        <v>41291</v>
       </c>
       <c r="B156">
-        <v>0.9998272760991935</v>
+        <v>1.015047032078303</v>
       </c>
       <c r="C156">
-        <v>0.9994478462765268</v>
+        <v>0.9923234238058619</v>
       </c>
       <c r="D156">
-        <v>0.9997797434986168</v>
+        <v>1.00116417325845</v>
       </c>
       <c r="E156">
-        <v>0.9967326812923463</v>
+        <v>0.9959653094788323</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>41653</v>
+        <v>41292</v>
       </c>
       <c r="B157">
-        <v>1.000152710426508</v>
+        <v>1.015002942227544</v>
       </c>
       <c r="C157">
-        <v>0.9991563350109542</v>
+        <v>0.992043374614597</v>
       </c>
       <c r="D157">
-        <v>0.9996995889880667</v>
+        <v>1.00158012246282</v>
       </c>
       <c r="E157">
-        <v>0.996683345497003</v>
+        <v>0.9953988887103468</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>41654</v>
+        <v>41295</v>
       </c>
       <c r="B158">
-        <v>0.9995963973892501</v>
+        <v>1.014938430290108</v>
       </c>
       <c r="C158">
-        <v>0.9985298723818697</v>
+        <v>0.9915769872578966</v>
       </c>
       <c r="D158">
-        <v>0.9997114061894438</v>
+        <v>1.002119743984276</v>
       </c>
       <c r="E158">
-        <v>0.9968506540196681</v>
+        <v>0.9945104048040082</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>41655</v>
+        <v>41296</v>
       </c>
       <c r="B159">
-        <v>0.999133379193493</v>
+        <v>1.014883428730052</v>
       </c>
       <c r="C159">
-        <v>0.9982063388222123</v>
+        <v>0.9912795406663581</v>
       </c>
       <c r="D159">
-        <v>0.9996535998047413</v>
+        <v>1.00207448858865</v>
       </c>
       <c r="E159">
-        <v>0.9970719883240085</v>
+        <v>0.9943047188911263</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>41656</v>
+        <v>41297</v>
       </c>
       <c r="B160">
-        <v>0.9979541275084914</v>
+        <v>1.014889141405565</v>
       </c>
       <c r="C160">
-        <v>0.998162635378771</v>
+        <v>0.9923106650496849</v>
       </c>
       <c r="D160">
-        <v>1.000325305095779</v>
+        <v>1.002276650628504</v>
       </c>
       <c r="E160">
-        <v>0.9969650606800202</v>
+        <v>0.9946079861538912</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>41659</v>
+        <v>41298</v>
       </c>
       <c r="B161">
-        <v>0.997169967291564</v>
+        <v>1.014872645103978</v>
       </c>
       <c r="C161">
-        <v>0.9976193609691825</v>
+        <v>0.9930327170153604</v>
       </c>
       <c r="D161">
-        <v>1.000979360320496</v>
+        <v>1.003230636457331</v>
       </c>
       <c r="E161">
-        <v>0.9972213980642987</v>
+        <v>0.9945859967358434</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>41660</v>
+        <v>41299</v>
       </c>
       <c r="B162">
-        <v>0.9975177278154048</v>
+        <v>1.014852734616894</v>
       </c>
       <c r="C162">
-        <v>0.9979260466700017</v>
+        <v>0.9938378270013379</v>
       </c>
       <c r="D162">
-        <v>1.001089521289465</v>
+        <v>1.003610052288913</v>
       </c>
       <c r="E162">
-        <v>0.9973411555096376</v>
+        <v>0.9947727462325527</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>41661</v>
+        <v>41302</v>
       </c>
       <c r="B163">
-        <v>0.9983693597765813</v>
+        <v>1.014803062967963</v>
       </c>
       <c r="C163">
-        <v>0.9973408655595059</v>
+        <v>0.9939915773314681</v>
       </c>
       <c r="D163">
-        <v>1.001963070548417</v>
+        <v>1.003307580123832</v>
       </c>
       <c r="E163">
-        <v>0.9973603793458289</v>
+        <v>0.9955244298811358</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>41662</v>
+        <v>41303</v>
       </c>
       <c r="B164">
-        <v>0.9976500422134714</v>
+        <v>1.014762610944471</v>
       </c>
       <c r="C164">
-        <v>0.9980433928279752</v>
+        <v>0.9937970386845509</v>
       </c>
       <c r="D164">
-        <v>1.002033300987415</v>
+        <v>1.002986774006509</v>
       </c>
       <c r="E164">
-        <v>0.9972801730904461</v>
+        <v>0.9958096317446593</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>41663</v>
+        <v>41304</v>
       </c>
       <c r="B165">
-        <v>0.9980041002084368</v>
+        <v>1.014713696770122</v>
       </c>
       <c r="C165">
-        <v>0.9993490042234313</v>
+        <v>0.9940055996103659</v>
       </c>
       <c r="D165">
-        <v>1.002008164853617</v>
+        <v>1.002616096151252</v>
       </c>
       <c r="E165">
-        <v>0.9974669179074586</v>
+        <v>0.9969168197804663</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>41666</v>
+        <v>41305</v>
       </c>
       <c r="B166">
-        <v>0.9988162629338116</v>
+        <v>1.014710014158903</v>
       </c>
       <c r="C166">
-        <v>0.9995283743911034</v>
+        <v>0.9948529379821459</v>
       </c>
       <c r="D166">
-        <v>1.001997326077843</v>
+        <v>1.0018633843298</v>
       </c>
       <c r="E166">
-        <v>0.9975813265543678</v>
+        <v>0.9973248812929445</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>41667</v>
+        <v>41306</v>
       </c>
       <c r="B167">
-        <v>0.9980749808375096</v>
+        <v>1.014627413276173</v>
       </c>
       <c r="C167">
-        <v>0.9989369904382536</v>
+        <v>0.9942497482715925</v>
       </c>
       <c r="D167">
-        <v>1.00207774654558</v>
+        <v>1.00207173608109</v>
       </c>
       <c r="E167">
-        <v>0.9977060148916679</v>
+        <v>0.9973164578838362</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>41668</v>
+        <v>41309</v>
       </c>
       <c r="B168">
-        <v>0.9971529832701366</v>
+        <v>1.014599363692367</v>
       </c>
       <c r="C168">
-        <v>0.9996333599951541</v>
+        <v>0.9942405570055124</v>
       </c>
       <c r="D168">
-        <v>1.002272855832992</v>
+        <v>1.002111489647866</v>
       </c>
       <c r="E168">
-        <v>0.9980874630593475</v>
+        <v>0.9957407232641022</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>41669</v>
+        <v>41310</v>
       </c>
       <c r="B169">
-        <v>0.997734846913529</v>
+        <v>1.014535026908531</v>
       </c>
       <c r="C169">
-        <v>0.9989212140147078</v>
+        <v>0.9940585885803507</v>
       </c>
       <c r="D169">
-        <v>1.001812435792107</v>
+        <v>1.002668335985039</v>
       </c>
       <c r="E169">
-        <v>0.9979208473257528</v>
+        <v>0.9952707568923205</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>41670</v>
+        <v>41311</v>
       </c>
       <c r="B170">
-        <v>0.9977340538732182</v>
+        <v>1.014490106818073</v>
       </c>
       <c r="C170">
-        <v>0.9993457935113715</v>
+        <v>0.9939845737936227</v>
       </c>
       <c r="D170">
-        <v>1.001455719132421</v>
+        <v>1.002730407005048</v>
       </c>
       <c r="E170">
-        <v>0.997655188420708</v>
+        <v>0.9952776426506511</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>41673</v>
+        <v>41312</v>
       </c>
       <c r="B171">
-        <v>0.9982594053389026</v>
+        <v>1.01445676075458</v>
       </c>
       <c r="C171">
-        <v>1.000932317838522</v>
+        <v>0.9938508925379603</v>
       </c>
       <c r="D171">
-        <v>1.001652337989326</v>
+        <v>1.002636360220795</v>
       </c>
       <c r="E171">
-        <v>0.9979703789204176</v>
+        <v>0.9946687016001627</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>41674</v>
+        <v>41313</v>
       </c>
       <c r="B172">
-        <v>0.9979742346218211</v>
+        <v>1.014440413870381</v>
       </c>
       <c r="C172">
-        <v>1.000517872094805</v>
+        <v>0.9938946666886675</v>
       </c>
       <c r="D172">
-        <v>1.002160617117818</v>
+        <v>1.002717260211001</v>
       </c>
       <c r="E172">
-        <v>0.997995086137982</v>
+        <v>0.994937880684208</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>41675</v>
+        <v>41316</v>
       </c>
       <c r="B173">
-        <v>0.9984488288259327</v>
+        <v>1.014404999191085</v>
       </c>
       <c r="C173">
-        <v>1.00008951438887</v>
+        <v>0.994648885789002</v>
       </c>
       <c r="D173">
-        <v>1.002072942068778</v>
+        <v>1.002584162009344</v>
       </c>
       <c r="E173">
-        <v>0.9981093718780928</v>
+        <v>0.9953306403889765</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>41676</v>
+        <v>41317</v>
       </c>
       <c r="B174">
-        <v>0.9984270902991108</v>
+        <v>1.014389036146173</v>
       </c>
       <c r="C174">
-        <v>0.9992518380665767</v>
+        <v>0.9944198995893496</v>
       </c>
       <c r="D174">
-        <v>1.001859775690607</v>
+        <v>1.00269506716465</v>
       </c>
       <c r="E174">
-        <v>0.9984185969818239</v>
+        <v>0.9957120183031593</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>41677</v>
+        <v>41318</v>
       </c>
       <c r="B175">
-        <v>0.9973042122790173</v>
+        <v>1.014352784201187</v>
       </c>
       <c r="C175">
-        <v>0.9992796361690536</v>
+        <v>0.9948388878262308</v>
       </c>
       <c r="D175">
-        <v>1.001782353113609</v>
+        <v>1.002668741054806</v>
       </c>
       <c r="E175">
-        <v>0.9983814197386273</v>
+        <v>0.9965824576939645</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>41680</v>
+        <v>41319</v>
       </c>
       <c r="B176">
-        <v>0.9960602497741751</v>
+        <v>1.01429877274521</v>
       </c>
       <c r="C176">
-        <v>0.999655109281651</v>
+        <v>0.9948842290785632</v>
       </c>
       <c r="D176">
-        <v>1.002083325901272</v>
+        <v>1.002356627389656</v>
       </c>
       <c r="E176">
-        <v>0.998174283133524</v>
+        <v>0.9956671997480315</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>41681</v>
+        <v>41320</v>
       </c>
       <c r="B177">
-        <v>0.9951520740029157</v>
+        <v>1.014286810104728</v>
       </c>
       <c r="C177">
-        <v>0.999415582477383</v>
+        <v>0.9959418053319545</v>
       </c>
       <c r="D177">
-        <v>1.001918816273302</v>
+        <v>1.002554732410221</v>
       </c>
       <c r="E177">
-        <v>0.9979040481975824</v>
+        <v>0.9962708989445674</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>41682</v>
+        <v>41324</v>
       </c>
       <c r="B178">
-        <v>0.9960684445648321</v>
+        <v>1.014238801723881</v>
       </c>
       <c r="C178">
-        <v>0.9989121330030908</v>
+        <v>0.9956717628498523</v>
       </c>
       <c r="D178">
-        <v>1.001724495425457</v>
+        <v>1.003274950372406</v>
       </c>
       <c r="E178">
-        <v>0.9981968983973643</v>
+        <v>0.996318999017711</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>41683</v>
+        <v>41325</v>
       </c>
       <c r="B179">
-        <v>0.9951364468208472</v>
+        <v>1.014239571076774</v>
       </c>
       <c r="C179">
-        <v>0.9990867511069272</v>
+        <v>0.9971961669533569</v>
       </c>
       <c r="D179">
-        <v>1.001381518387091</v>
+        <v>1.003212302250773</v>
       </c>
       <c r="E179">
-        <v>0.9981989109647715</v>
+        <v>0.9966301091212849</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>41684</v>
+        <v>41326</v>
       </c>
       <c r="B180">
-        <v>0.9946140548987267</v>
+        <v>1.014211754658899</v>
       </c>
       <c r="C180">
-        <v>0.9991454286249155</v>
+        <v>0.9969481930843115</v>
       </c>
       <c r="D180">
-        <v>1.001077494383309</v>
+        <v>1.002149300212124</v>
       </c>
       <c r="E180">
-        <v>0.9978724551829568</v>
+        <v>0.9961393505255139</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>41688</v>
+        <v>41327</v>
       </c>
       <c r="B181">
-        <v>0.9945733156199118</v>
+        <v>1.014168729787041</v>
       </c>
       <c r="C181">
-        <v>0.999018209211664</v>
+        <v>0.996849495770423</v>
       </c>
       <c r="D181">
-        <v>1.00160829039255</v>
+        <v>1.002658351526209</v>
       </c>
       <c r="E181">
-        <v>0.998084707030358</v>
+        <v>0.9968823699191951</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>41689</v>
+        <v>41330</v>
       </c>
       <c r="B182">
-        <v>0.9951666889562271</v>
+        <v>1.014121310700135</v>
       </c>
       <c r="C182">
-        <v>0.9988411866214632</v>
+        <v>0.9964470738920582</v>
       </c>
       <c r="D182">
-        <v>1.001197797438199</v>
+        <v>1.001802281789786</v>
       </c>
       <c r="E182">
-        <v>0.9978956617013222</v>
+        <v>0.9965592621849508</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>41690</v>
+        <v>41331</v>
       </c>
       <c r="B183">
-        <v>0.9939339026292481</v>
+        <v>1.014067064091472</v>
       </c>
       <c r="C183">
-        <v>0.9985460540944768</v>
+        <v>0.9960808570757651</v>
       </c>
       <c r="D183">
-        <v>1.001647264584723</v>
+        <v>1.001526371693359</v>
       </c>
       <c r="E183">
-        <v>0.9972053638601048</v>
+        <v>0.9965112302715108</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>41691</v>
+        <v>41332</v>
       </c>
       <c r="B184">
-        <v>0.9941619135504711</v>
+        <v>1.014019559473022</v>
       </c>
       <c r="C184">
-        <v>0.9987334341002234</v>
+        <v>0.9964058123497646</v>
       </c>
       <c r="D184">
-        <v>1.001457126221182</v>
+        <v>1.002423620010191</v>
       </c>
       <c r="E184">
-        <v>0.9970538933547223</v>
+        <v>0.9967012413433092</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>41694</v>
+        <v>41333</v>
       </c>
       <c r="B185">
-        <v>0.9943144061896796</v>
+        <v>1.014003688860152</v>
       </c>
       <c r="C185">
-        <v>0.9984149215638443</v>
+        <v>0.9966410831383161</v>
       </c>
       <c r="D185">
-        <v>1.001975838441802</v>
+        <v>1.003220301225493</v>
       </c>
       <c r="E185">
-        <v>0.9974190850757154</v>
+        <v>0.9967030314077638</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>41695</v>
+        <v>41334</v>
       </c>
       <c r="B186">
-        <v>0.9946795793218582</v>
+        <v>1.013958758070568</v>
       </c>
       <c r="C186">
-        <v>0.9982202105903281</v>
+        <v>0.9971115198747121</v>
       </c>
       <c r="D186">
-        <v>1.00281011714485</v>
+        <v>1.00305331231419</v>
       </c>
       <c r="E186">
-        <v>0.9977764073780911</v>
+        <v>0.9968765356784047</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>41696</v>
+        <v>41337</v>
       </c>
       <c r="B187">
-        <v>0.9949296709875435</v>
+        <v>1.013934215625172</v>
       </c>
       <c r="C187">
-        <v>0.9979868451094472</v>
+        <v>0.9983931400747578</v>
       </c>
       <c r="D187">
-        <v>1.002485719268105</v>
+        <v>1.003066640825168</v>
       </c>
       <c r="E187">
-        <v>0.9974477993310014</v>
+        <v>0.9971742604329086</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>41697</v>
+        <v>41338</v>
       </c>
       <c r="B188">
-        <v>0.9950178799517001</v>
+        <v>1.013883616836868</v>
       </c>
       <c r="C188">
-        <v>0.9983359861166747</v>
+        <v>0.9983358098896277</v>
       </c>
       <c r="D188">
-        <v>1.002444211158363</v>
+        <v>1.003216023324606</v>
       </c>
       <c r="E188">
-        <v>0.9977184800500478</v>
+        <v>0.9974274738786461</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>41698</v>
+        <v>41339</v>
       </c>
       <c r="B189">
-        <v>0.9953597448442882</v>
+        <v>1.013806795083665</v>
       </c>
       <c r="C189">
-        <v>0.9985632869198924</v>
+        <v>0.9969303482499556</v>
       </c>
       <c r="D189">
-        <v>1.001813243499406</v>
+        <v>1.003401425216302</v>
       </c>
       <c r="E189">
-        <v>0.9976443805514357</v>
+        <v>0.996813520809541</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>41701</v>
+        <v>41340</v>
       </c>
       <c r="B190">
-        <v>0.9949771127086103</v>
+        <v>1.013778427661576</v>
       </c>
       <c r="C190">
-        <v>0.9987023333587641</v>
+        <v>0.9971884391480809</v>
       </c>
       <c r="D190">
-        <v>1.002317590108309</v>
+        <v>1.003796901174665</v>
       </c>
       <c r="E190">
-        <v>0.9979078189654095</v>
+        <v>0.9971763769865797</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>41702</v>
+        <v>41341</v>
       </c>
       <c r="B191">
-        <v>0.9950838689674486</v>
+        <v>1.013721214332995</v>
       </c>
       <c r="C191">
-        <v>0.9981609011920661</v>
+        <v>0.9968007076280273</v>
       </c>
       <c r="D191">
-        <v>1.002072073643459</v>
+        <v>1.003902471287609</v>
       </c>
       <c r="E191">
-        <v>0.997876052403308</v>
+        <v>0.9973546138776563</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>41703</v>
+        <v>41344</v>
       </c>
       <c r="B192">
-        <v>0.9949082315955969</v>
+        <v>1.01368172803074</v>
       </c>
       <c r="C192">
-        <v>0.9986157628302061</v>
+        <v>0.9968831816713571</v>
       </c>
       <c r="D192">
-        <v>1.001975889695403</v>
+        <v>1.004497450132507</v>
       </c>
       <c r="E192">
-        <v>0.9978115251764261</v>
+        <v>0.9961052773436431</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>41704</v>
+        <v>41345</v>
       </c>
       <c r="B193">
-        <v>0.9948468012671398</v>
+        <v>1.013601407269848</v>
       </c>
       <c r="C193">
-        <v>0.9990132784990374</v>
+        <v>0.9959818198922596</v>
       </c>
       <c r="D193">
-        <v>1.00199045731699</v>
+        <v>1.003785220833413</v>
       </c>
       <c r="E193">
-        <v>0.9978171752699747</v>
+        <v>0.9962034981760838</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>41705</v>
+        <v>41346</v>
       </c>
       <c r="B194">
-        <v>0.9953380296564927</v>
+        <v>1.013601375030134</v>
       </c>
       <c r="C194">
-        <v>0.9985198202661262</v>
+        <v>0.9970410500942198</v>
       </c>
       <c r="D194">
-        <v>1.001753073828807</v>
+        <v>1.003853642742498</v>
       </c>
       <c r="E194">
-        <v>0.9974183479049982</v>
+        <v>0.9953312241677683</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>41708</v>
+        <v>41347</v>
       </c>
       <c r="B195">
-        <v>0.9955842069230557</v>
+        <v>1.013559383353509</v>
       </c>
       <c r="C195">
-        <v>0.9984671923217427</v>
+        <v>0.996690211063696</v>
       </c>
       <c r="D195">
-        <v>1.00159580096426</v>
+        <v>1.003966813323336</v>
       </c>
       <c r="E195">
-        <v>0.9975174253676158</v>
+        <v>0.9958056939724397</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>41709</v>
+        <v>41348</v>
       </c>
       <c r="B196">
-        <v>0.9957698116803554</v>
+        <v>1.013514856846217</v>
       </c>
       <c r="C196">
-        <v>0.9991945355213189</v>
+        <v>0.9966263341638542</v>
       </c>
       <c r="D196">
-        <v>1.001631394032471</v>
+        <v>1.00405833378774</v>
       </c>
       <c r="E196">
-        <v>0.9974471828309402</v>
+        <v>0.9959248542645129</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>41710</v>
+        <v>41351</v>
       </c>
       <c r="B197">
-        <v>0.9946274006940781</v>
+        <v>1.01346732849795</v>
       </c>
       <c r="C197">
-        <v>0.9992248491093098</v>
+        <v>0.9965558809778368</v>
       </c>
       <c r="D197">
-        <v>1.001667737123315</v>
+        <v>1.00347044411574</v>
       </c>
       <c r="E197">
-        <v>0.997467997515645</v>
+        <v>0.9956802273749846</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>41711</v>
+        <v>41352</v>
       </c>
       <c r="B198">
-        <v>0.9939595247119791</v>
+        <v>1.013431172848041</v>
       </c>
       <c r="C198">
-        <v>1.000142772128059</v>
+        <v>0.9965403493296552</v>
       </c>
       <c r="D198">
-        <v>1.001778436610405</v>
+        <v>1.003246585762239</v>
       </c>
       <c r="E198">
-        <v>0.9975192782777145</v>
+        <v>0.9956813826030539</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>41712</v>
+        <v>41353</v>
       </c>
       <c r="B199">
-        <v>0.993846829033145</v>
+        <v>1.013360974678271</v>
       </c>
       <c r="C199">
-        <v>1.000101166783498</v>
+        <v>0.9964607351961126</v>
       </c>
       <c r="D199">
-        <v>1.002096055012855</v>
+        <v>1.003973620207646</v>
       </c>
       <c r="E199">
-        <v>0.997658861032693</v>
+        <v>0.995148160373205</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>41715</v>
+        <v>41354</v>
       </c>
       <c r="B200">
-        <v>0.9949016743391007</v>
+        <v>1.013317802611488</v>
       </c>
       <c r="C200">
-        <v>0.9997285398837471</v>
+        <v>0.996200971745964</v>
       </c>
       <c r="D200">
-        <v>1.001709473797753</v>
+        <v>1.002959635650478</v>
       </c>
       <c r="E200">
-        <v>0.9975628740156524</v>
+        <v>0.9948116247419766</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>41716</v>
+        <v>41355</v>
       </c>
       <c r="B201">
-        <v>0.9948194351595445</v>
+        <v>1.013271037811263</v>
       </c>
       <c r="C201">
-        <v>0.9987521176179848</v>
+        <v>0.9962043864296589</v>
       </c>
       <c r="D201">
-        <v>1.001438132125207</v>
+        <v>1.002572495091882</v>
       </c>
       <c r="E201">
-        <v>0.9976053308504835</v>
+        <v>0.995505106440989</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>41717</v>
+        <v>41358</v>
       </c>
       <c r="B202">
-        <v>0.9957704948586824</v>
+        <v>1.013248307757773</v>
       </c>
       <c r="C202">
-        <v>0.998514931434188</v>
+        <v>0.9968485217453257</v>
       </c>
       <c r="D202">
-        <v>1.001846077559961</v>
+        <v>1.002074811229334</v>
       </c>
       <c r="E202">
-        <v>0.997559171682979</v>
+        <v>0.9957665166545567</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>41718</v>
+        <v>41359</v>
       </c>
       <c r="B203">
-        <v>0.9957920643929369</v>
+        <v>1.013213425286421</v>
       </c>
       <c r="C203">
-        <v>0.9984858835976631</v>
+        <v>0.9971216070461236</v>
       </c>
       <c r="D203">
-        <v>1.001707224800662</v>
+        <v>1.002423560700624</v>
       </c>
       <c r="E203">
-        <v>0.9975525153899147</v>
+        <v>0.9957730148147357</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>41719</v>
+        <v>41360</v>
       </c>
       <c r="B204">
-        <v>0.9957483890269418</v>
+        <v>1.013163727366917</v>
       </c>
       <c r="C204">
-        <v>0.9986141932237071</v>
+        <v>0.9967236950763633</v>
       </c>
       <c r="D204">
-        <v>1.001292567530751</v>
+        <v>1.00205741959457</v>
       </c>
       <c r="E204">
-        <v>0.997754256561625</v>
+        <v>0.9955780628498031</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
-        <v>41722</v>
+        <v>41361</v>
       </c>
       <c r="B205">
-        <v>0.9971887891883993</v>
+        <v>1.013108505131082</v>
       </c>
       <c r="C205">
-        <v>0.998605286951319</v>
+        <v>0.9967210148220439</v>
       </c>
       <c r="D205">
-        <v>1.001482826905662</v>
+        <v>1.002429592910829</v>
       </c>
       <c r="E205">
-        <v>0.9979784852688879</v>
+        <v>0.9955192558897891</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2">
-        <v>41723</v>
+        <v>41365</v>
       </c>
       <c r="B206">
-        <v>0.9970975038549551</v>
+        <v>1.013096027227623</v>
       </c>
       <c r="C206">
-        <v>0.9984960503154116</v>
+        <v>0.9972921743236146</v>
       </c>
       <c r="D206">
-        <v>1.001351629762958</v>
+        <v>1.00214962103567</v>
       </c>
       <c r="E206">
-        <v>0.9979294624158791</v>
+        <v>0.9951983577002194</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2">
-        <v>41724</v>
+        <v>41366</v>
       </c>
       <c r="B207">
-        <v>0.998520057311476</v>
+        <v>1.013072915443466</v>
       </c>
       <c r="C207">
-        <v>0.9990118983206262</v>
+        <v>0.9985294727680153</v>
       </c>
       <c r="D207">
-        <v>1.001160479067313</v>
+        <v>1.002840526332636</v>
       </c>
       <c r="E207">
-        <v>0.9980762615727274</v>
+        <v>0.9953993555926292</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2">
-        <v>41725</v>
+        <v>41367</v>
       </c>
       <c r="B208">
-        <v>0.9984568276755403</v>
+        <v>1.013103668137078</v>
       </c>
       <c r="C208">
-        <v>0.9992143292244181</v>
+        <v>1.000441413518219</v>
       </c>
       <c r="D208">
-        <v>1.000937905100652</v>
+        <v>1.00192819543883</v>
       </c>
       <c r="E208">
-        <v>0.9983908699312748</v>
+        <v>0.9950958419351587</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2">
-        <v>41726</v>
+        <v>41368</v>
       </c>
       <c r="B209">
-        <v>0.9977393652757712</v>
+        <v>1.013043992569952</v>
       </c>
       <c r="C209">
-        <v>0.9991897438162628</v>
+        <v>0.999978729265031</v>
       </c>
       <c r="D209">
-        <v>1.000149986480138</v>
+        <v>1.001317467713129</v>
       </c>
       <c r="E209">
-        <v>0.9985151631661962</v>
+        <v>0.9949026233611937</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2">
-        <v>41729</v>
+        <v>41369</v>
       </c>
       <c r="B210">
-        <v>0.9984197465139989</v>
+        <v>1.013007076675684</v>
       </c>
       <c r="C210">
-        <v>0.9986752615117893</v>
+        <v>0.999874889321216</v>
       </c>
       <c r="D210">
-        <v>0.999616480594305</v>
+        <v>1.001256548325602</v>
       </c>
       <c r="E210">
-        <v>0.9983795621233871</v>
+        <v>0.9950817176941398</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2">
-        <v>41730</v>
+        <v>41372</v>
       </c>
       <c r="B211">
-        <v>0.998440120235873</v>
+        <v>1.012961428631351</v>
       </c>
       <c r="C211">
-        <v>0.9984312650386165</v>
+        <v>1.000086965146992</v>
       </c>
       <c r="D211">
-        <v>0.9995799669485582</v>
+        <v>1.0015864643705</v>
       </c>
       <c r="E211">
-        <v>0.9983695671215455</v>
+        <v>0.9952084170108911</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2">
-        <v>41731</v>
+        <v>41373</v>
       </c>
       <c r="B212">
-        <v>0.9978486718518703</v>
+        <v>1.012876164598374</v>
       </c>
       <c r="C212">
-        <v>0.9981997614131831</v>
+        <v>0.9985412236281443</v>
       </c>
       <c r="D212">
-        <v>0.9996569363338517</v>
+        <v>1.001937532967043</v>
       </c>
       <c r="E212">
-        <v>0.9982336667727337</v>
+        <v>0.9952827207522056</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2">
-        <v>41732</v>
+        <v>41374</v>
       </c>
       <c r="B213">
-        <v>0.9981402386118695</v>
+        <v>1.012847966040377</v>
       </c>
       <c r="C213">
-        <v>0.9985958634574212</v>
+        <v>0.9996732213487801</v>
       </c>
       <c r="D213">
-        <v>0.9997861845524392</v>
+        <v>1.002905088106028</v>
       </c>
       <c r="E213">
-        <v>0.9983435553178595</v>
+        <v>0.9956872675932213</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2">
-        <v>41733</v>
+        <v>41375</v>
       </c>
       <c r="B214">
-        <v>0.9979192809520566</v>
+        <v>1.012815781587351</v>
       </c>
       <c r="C214">
-        <v>0.9991479381708349</v>
+        <v>1.000341901459425</v>
       </c>
       <c r="D214">
-        <v>0.9995386852133025</v>
+        <v>1.002537552707254</v>
       </c>
       <c r="E214">
-        <v>0.9984446054939338</v>
+        <v>0.9962714171492358</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2">
-        <v>41736</v>
+        <v>41376</v>
       </c>
       <c r="B215">
-        <v>0.9981959730201428</v>
+        <v>1.012843526363862</v>
       </c>
       <c r="C215">
-        <v>1.000060792342018</v>
+        <v>1.002275903884498</v>
       </c>
       <c r="D215">
-        <v>0.999640891123171</v>
+        <v>1.002530694338482</v>
       </c>
       <c r="E215">
-        <v>0.9988711690719495</v>
+        <v>0.9961857730574961</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2">
-        <v>41737</v>
+        <v>41379</v>
       </c>
       <c r="B216">
-        <v>0.9977044206841748</v>
+        <v>1.012915585831336</v>
       </c>
       <c r="C216">
-        <v>0.9998667528301373</v>
+        <v>1.005782812786067</v>
       </c>
       <c r="D216">
-        <v>0.9996712195254137</v>
+        <v>1.001829360448712</v>
       </c>
       <c r="E216">
-        <v>0.9991462167073226</v>
+        <v>0.9956217448275367</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2">
-        <v>41738</v>
+        <v>41380</v>
       </c>
       <c r="B217">
-        <v>0.9975971303555388</v>
+        <v>1.012853187946058</v>
       </c>
       <c r="C217">
-        <v>0.9994109523684512</v>
+        <v>1.005769301891552</v>
       </c>
       <c r="D217">
-        <v>0.9995372457922824</v>
+        <v>1.002884899527865</v>
       </c>
       <c r="E217">
-        <v>0.9989187578751928</v>
+        <v>0.9958464131276734</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2">
-        <v>41739</v>
+        <v>41381</v>
       </c>
       <c r="B218">
-        <v>0.9979344893650218</v>
+        <v>1.012880519172239</v>
       </c>
       <c r="C218">
-        <v>1.000422933159504</v>
+        <v>1.007718921998803</v>
       </c>
       <c r="D218">
-        <v>0.999417445344963</v>
+        <v>1.002185504670362</v>
       </c>
       <c r="E218">
-        <v>0.9993000544848205</v>
+        <v>0.9954395247126502</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2">
-        <v>41740</v>
+        <v>41382</v>
       </c>
       <c r="B219">
-        <v>0.9982207033264102</v>
+        <v>1.012810263898908</v>
       </c>
       <c r="C219">
-        <v>1.000952562070325</v>
+        <v>1.006410302922627</v>
       </c>
       <c r="D219">
-        <v>0.9991364344439269</v>
+        <v>1.001808406491809</v>
       </c>
       <c r="E219">
-        <v>0.9994967082689731</v>
+        <v>0.9957635759014398</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2">
-        <v>41743</v>
+        <v>41383</v>
       </c>
       <c r="B220">
-        <v>0.9977557357190813</v>
+        <v>1.01273481827859</v>
       </c>
       <c r="C220">
-        <v>1.00090605603476</v>
+        <v>1.00616412724759</v>
       </c>
       <c r="D220">
-        <v>0.998926860061054</v>
+        <v>1.002165361578077</v>
       </c>
       <c r="E220">
-        <v>0.999660214225512</v>
+        <v>0.9955742051730293</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2">
-        <v>41744</v>
+        <v>41386</v>
       </c>
       <c r="B221">
-        <v>0.9984217392923906</v>
+        <v>1.012696158008283</v>
       </c>
       <c r="C221">
-        <v>1.000476238463173</v>
+        <v>1.005409958602645</v>
       </c>
       <c r="D221">
-        <v>0.9989973051089736</v>
+        <v>1.001870241359324</v>
       </c>
       <c r="E221">
-        <v>0.9996604573296666</v>
+        <v>0.9954123640556627</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2">
-        <v>41745</v>
+        <v>41387</v>
       </c>
       <c r="B222">
-        <v>0.9986761157422147</v>
+        <v>1.012652892009977</v>
       </c>
       <c r="C222">
-        <v>0.999746030902481</v>
+        <v>1.00592037203289</v>
       </c>
       <c r="D222">
-        <v>0.9984869251735119</v>
+        <v>1.002400783794638</v>
       </c>
       <c r="E222">
-        <v>0.9996103325092283</v>
+        <v>0.9952692793830584</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2">
-        <v>41746</v>
+        <v>41388</v>
       </c>
       <c r="B223">
-        <v>0.9988014458205854</v>
+        <v>1.012526657206974</v>
       </c>
       <c r="C223">
-        <v>0.9996462643606409</v>
+        <v>1.003711654313559</v>
       </c>
       <c r="D223">
-        <v>0.9984060559115681</v>
+        <v>1.002682383703653</v>
       </c>
       <c r="E223">
-        <v>0.9996692504446368</v>
+        <v>0.9950835748582803</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2">
-        <v>41750</v>
+        <v>41389</v>
       </c>
       <c r="B224">
-        <v>0.9992059681662139</v>
+        <v>1.012453545136947</v>
       </c>
       <c r="C224">
-        <v>0.9995848486812566</v>
+        <v>1.003298444630064</v>
       </c>
       <c r="D224">
-        <v>0.9984609982534381</v>
+        <v>1.003074098816704</v>
       </c>
       <c r="E224">
-        <v>0.9994708554767537</v>
+        <v>0.9953096998154136</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2">
-        <v>41751</v>
+        <v>41390</v>
       </c>
       <c r="B225">
-        <v>0.998619760817493</v>
+        <v>1.012462063698546</v>
       </c>
       <c r="C225">
-        <v>0.9991159640564853</v>
+        <v>1.004759667381882</v>
       </c>
       <c r="D225">
-        <v>0.9987016467792245</v>
+        <v>1.002849685394554</v>
       </c>
       <c r="E225">
-        <v>0.9993841934094899</v>
+        <v>0.9951109213224389</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2">
-        <v>41752</v>
+        <v>41393</v>
       </c>
       <c r="B226">
-        <v>0.9981469167387168</v>
+        <v>1.012397228840233</v>
       </c>
       <c r="C226">
-        <v>0.9993599210188523</v>
+        <v>1.004435841184544</v>
       </c>
       <c r="D226">
-        <v>0.9988195714888787</v>
+        <v>1.003288305504053</v>
       </c>
       <c r="E226">
-        <v>0.9994574770606195</v>
+        <v>0.9948943635876064</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2">
-        <v>41753</v>
+        <v>41394</v>
       </c>
       <c r="B227">
-        <v>0.9985463221463872</v>
+        <v>1.012302687154752</v>
       </c>
       <c r="C227">
-        <v>0.9990773479667286</v>
+        <v>1.003393318721384</v>
       </c>
       <c r="D227">
-        <v>0.9986875446348229</v>
+        <v>1.003969869561343</v>
       </c>
       <c r="E227">
-        <v>0.9995226135912842</v>
+        <v>0.9946742007981043</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2">
-        <v>41754</v>
+        <v>41395</v>
       </c>
       <c r="B228">
-        <v>0.998031940431389</v>
+        <v>1.012282108185204</v>
       </c>
       <c r="C228">
-        <v>0.9995373076458364</v>
+        <v>1.00432251288914</v>
       </c>
       <c r="D228">
-        <v>0.9988970214523019</v>
+        <v>1.003448104515115</v>
       </c>
       <c r="E228">
-        <v>0.9996777865995836</v>
+        <v>0.9948610860074308</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2">
-        <v>41757</v>
+        <v>41396</v>
       </c>
       <c r="B229">
-        <v>0.9985571542585392</v>
+        <v>1.012239423425245</v>
       </c>
       <c r="C229">
-        <v>0.9995560169469381</v>
+        <v>1.003982444443972</v>
       </c>
       <c r="D229">
-        <v>0.9991777828926284</v>
+        <v>1.003417565833636</v>
       </c>
       <c r="E229">
-        <v>0.9999458215124265</v>
+        <v>0.9949781356614578</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2">
-        <v>41758</v>
+        <v>41397</v>
       </c>
       <c r="B230">
-        <v>0.9980437494520668</v>
+        <v>1.012172514450433</v>
       </c>
       <c r="C230">
-        <v>0.9996280344754078</v>
+        <v>1.003541065505601</v>
       </c>
       <c r="D230">
-        <v>0.9992578815033343</v>
+        <v>1.003699210609588</v>
       </c>
       <c r="E230">
-        <v>1.000287268974838</v>
+        <v>0.9951268320178391</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2">
-        <v>41759</v>
+        <v>41400</v>
       </c>
       <c r="B231">
-        <v>0.9982253717935087</v>
+        <v>1.012139421473451</v>
       </c>
       <c r="C231">
-        <v>0.9991739786673112</v>
+        <v>1.003679989422225</v>
       </c>
       <c r="D231">
-        <v>0.9988574240599486</v>
+        <v>1.003894543448187</v>
       </c>
       <c r="E231">
-        <v>1.000904303191898</v>
+        <v>0.9952176826745114</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2">
-        <v>41760</v>
+        <v>41401</v>
       </c>
       <c r="B232">
-        <v>0.9984382523148617</v>
+        <v>1.012105765264872</v>
       </c>
       <c r="C232">
-        <v>0.9983455733796169</v>
+        <v>1.004281183236338</v>
       </c>
       <c r="D232">
-        <v>0.9995467843662034</v>
+        <v>1.004079367331973</v>
       </c>
       <c r="E232">
-        <v>0.9998388899510015</v>
+        <v>0.995788403880833</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2">
-        <v>41761</v>
+        <v>41402</v>
       </c>
       <c r="B233">
-        <v>0.9974834791539338</v>
+        <v>1.011975165466376</v>
       </c>
       <c r="C233">
-        <v>0.9979658085610751</v>
+        <v>1.002162464587719</v>
       </c>
       <c r="D233">
-        <v>0.9995658509406394</v>
+        <v>1.003741701512971</v>
       </c>
       <c r="E233">
-        <v>0.9999851984713224</v>
+        <v>0.9957705248232712</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2">
-        <v>41764</v>
+        <v>41403</v>
       </c>
       <c r="B234">
-        <v>0.9977875452620748</v>
+        <v>1.011958982286532</v>
       </c>
       <c r="C234">
-        <v>0.9986372147630237</v>
+        <v>1.002460586564119</v>
       </c>
       <c r="D234">
-        <v>0.9994761101035731</v>
+        <v>1.003959724678633</v>
       </c>
       <c r="E234">
-        <v>1.000342276458088</v>
+        <v>0.995452244249027</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2">
-        <v>41765</v>
+        <v>41404</v>
       </c>
       <c r="B235">
-        <v>0.998014204914643</v>
+        <v>1.011911780311221</v>
       </c>
       <c r="C235">
-        <v>0.9994975187393855</v>
+        <v>1.002342897881182</v>
       </c>
       <c r="D235">
-        <v>0.9993771315643848</v>
+        <v>1.004643459086817</v>
       </c>
       <c r="E235">
-        <v>1.000457219646626</v>
+        <v>0.9956230499406571</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2">
-        <v>41766</v>
+        <v>41407</v>
       </c>
       <c r="B236">
-        <v>0.9985826273060328</v>
+        <v>1.011895433246048</v>
       </c>
       <c r="C236">
-        <v>0.9994429176137891</v>
+        <v>1.003210799435826</v>
       </c>
       <c r="D236">
-        <v>0.9987922685986479</v>
+        <v>1.004851313391373</v>
       </c>
       <c r="E236">
-        <v>1.000492779372079</v>
+        <v>0.9954766947663027</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2">
-        <v>41767</v>
+        <v>41408</v>
       </c>
       <c r="B237">
-        <v>0.9988010751801776</v>
+        <v>1.011837518716061</v>
       </c>
       <c r="C237">
-        <v>1.00012900709923</v>
+        <v>1.003183709896156</v>
       </c>
       <c r="D237">
-        <v>0.9990104989181957</v>
+        <v>1.005153953296246</v>
       </c>
       <c r="E237">
-        <v>1.000578654604058</v>
+        <v>0.9959209808482608</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2">
-        <v>41768</v>
+        <v>41409</v>
       </c>
       <c r="B238">
-        <v>0.9986170028258688</v>
+        <v>1.011824307735556</v>
       </c>
       <c r="C238">
-        <v>1.000070669816212</v>
+        <v>1.004488028465016</v>
       </c>
       <c r="D238">
-        <v>0.999149648024145</v>
+        <v>1.005359682337165</v>
       </c>
       <c r="E238">
-        <v>1.000291216813477</v>
+        <v>0.9960413399229829</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2">
-        <v>41771</v>
+        <v>41410</v>
       </c>
       <c r="B239">
-        <v>0.9981114616733689</v>
+        <v>1.011772271097475</v>
       </c>
       <c r="C239">
-        <v>0.9991963373749504</v>
+        <v>1.004202231256038</v>
       </c>
       <c r="D239">
-        <v>0.9989806366974791</v>
+        <v>1.005336268355612</v>
       </c>
       <c r="E239">
-        <v>1.000367826236156</v>
+        <v>0.996249067264584</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2">
-        <v>41772</v>
+        <v>41411</v>
       </c>
       <c r="B240">
-        <v>0.998283181865719</v>
+        <v>1.01175024797277</v>
       </c>
       <c r="C240">
-        <v>0.9989914909543328</v>
+        <v>1.004758088057943</v>
       </c>
       <c r="D240">
-        <v>0.9989775349337665</v>
+        <v>1.006578875881095</v>
       </c>
       <c r="E240">
-        <v>1.000274876073541</v>
+        <v>0.9966487527950845</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2">
-        <v>41773</v>
+        <v>41414</v>
       </c>
       <c r="B241">
-        <v>0.9978156014629149</v>
+        <v>1.01170565783665</v>
       </c>
       <c r="C241">
-        <v>0.9993224578939496</v>
+        <v>1.004755147106295</v>
       </c>
       <c r="D241">
-        <v>0.9988520797029352</v>
+        <v>1.006520227488974</v>
       </c>
       <c r="E241">
-        <v>1.000439843697034</v>
+        <v>0.996632888347912</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2">
-        <v>41774</v>
+        <v>41415</v>
       </c>
       <c r="B242">
-        <v>0.9984697107403286</v>
+        <v>1.011628036000162</v>
       </c>
       <c r="C242">
-        <v>0.9999104306230029</v>
+        <v>1.003518866687247</v>
       </c>
       <c r="D242">
-        <v>0.9991833504121604</v>
+        <v>1.006574076545312</v>
       </c>
       <c r="E242">
-        <v>1.000218227726533</v>
+        <v>0.996671120094095</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2">
-        <v>41775</v>
+        <v>41416</v>
       </c>
       <c r="B243">
-        <v>0.998906267782418</v>
+        <v>1.011560374400683</v>
       </c>
       <c r="C243">
-        <v>1.000156834970439</v>
+        <v>1.002521161042066</v>
       </c>
       <c r="D243">
-        <v>0.9991963725828076</v>
+        <v>1.006101952741601</v>
       </c>
       <c r="E243">
-        <v>1.000055035394414</v>
+        <v>0.9966714025749366</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2">
-        <v>41778</v>
+        <v>41417</v>
       </c>
       <c r="B244">
-        <v>0.9988987670017178</v>
+        <v>1.011559136337964</v>
       </c>
       <c r="C244">
-        <v>1.000209826100435</v>
+        <v>1.002785028458622</v>
       </c>
       <c r="D244">
-        <v>0.99923089868713</v>
+        <v>1.005393025549194</v>
       </c>
       <c r="E244">
-        <v>1.000086405607833</v>
+        <v>0.9965775708696735</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2">
-        <v>41779</v>
+        <v>41418</v>
       </c>
       <c r="B245">
-        <v>0.9986936799089476</v>
+        <v>1.011506076398087</v>
       </c>
       <c r="C245">
-        <v>1.000271072791283</v>
+        <v>1.002965224886921</v>
       </c>
       <c r="D245">
-        <v>0.9994027973664708</v>
+        <v>1.005563360908178</v>
       </c>
       <c r="E245">
-        <v>1.00001902122082</v>
+        <v>0.9965638489764492</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2">
-        <v>41780</v>
+        <v>41421</v>
       </c>
       <c r="B246">
-        <v>0.998440433640991</v>
+        <v>1.011435087445371</v>
       </c>
       <c r="C246">
-        <v>0.9996092794660844</v>
+        <v>1.002726251559619</v>
       </c>
       <c r="D246">
-        <v>0.9992577057346744</v>
+        <v>1.005579137594089</v>
       </c>
       <c r="E246">
-        <v>1.000096063311815</v>
+        <v>0.996546988436609</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2">
-        <v>41781</v>
+        <v>41422</v>
       </c>
       <c r="B247">
-        <v>0.998310333678741</v>
+        <v>1.011396326310649</v>
       </c>
       <c r="C247">
-        <v>0.9996648709280248</v>
+        <v>1.002795955350298</v>
       </c>
       <c r="D247">
-        <v>0.9992178948177458</v>
+        <v>1.006144677849348</v>
       </c>
       <c r="E247">
-        <v>0.9999553213643889</v>
+        <v>0.9967814724916475</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2">
-        <v>41782</v>
+        <v>41423</v>
       </c>
       <c r="B248">
-        <v>0.9985562045735387</v>
+        <v>1.011320144592461</v>
       </c>
       <c r="C248">
-        <v>0.9996491705439299</v>
+        <v>1.001731882571014</v>
       </c>
       <c r="D248">
-        <v>0.999175803325843</v>
+        <v>1.005330007444535</v>
       </c>
       <c r="E248">
-        <v>0.9999500421493958</v>
+        <v>0.9966969662286064</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2">
-        <v>41785</v>
+        <v>41424</v>
       </c>
       <c r="B249">
-        <v>0.9986430310727313</v>
+        <v>1.011228728350316</v>
       </c>
       <c r="C249">
-        <v>0.9995452846698688</v>
+        <v>1.000367057557359</v>
       </c>
       <c r="D249">
-        <v>0.9992505167564181</v>
+        <v>1.004715938073633</v>
       </c>
       <c r="E249">
-        <v>1.000056177127807</v>
+        <v>0.9963790559916952</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2">
-        <v>41786</v>
+        <v>41425</v>
       </c>
       <c r="B250">
-        <v>0.9997669412576677</v>
+        <v>1.011202124851873</v>
       </c>
       <c r="C250">
-        <v>0.9995717477163839</v>
+        <v>1.000768319767632</v>
       </c>
       <c r="D250">
-        <v>0.9991678617266591</v>
+        <v>1.004040154392228</v>
       </c>
       <c r="E250">
-        <v>0.9999755395058306</v>
+        <v>0.9964060848665923</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2">
-        <v>41787</v>
+        <v>41428</v>
       </c>
       <c r="B251">
-        <v>1.000380949433748</v>
+        <v>1.011152204140941</v>
       </c>
       <c r="C251">
-        <v>0.9999168307202484</v>
+        <v>1.000579443101474</v>
       </c>
       <c r="D251">
-        <v>0.9993100604555838</v>
+        <v>1.003467166005709</v>
       </c>
       <c r="E251">
-        <v>1.000007738206731</v>
+        <v>0.9965725248571801</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2">
-        <v>41788</v>
+        <v>41429</v>
       </c>
       <c r="B252">
-        <v>1.000278663041487</v>
+        <v>1.011118871674629</v>
       </c>
       <c r="C252">
-        <v>0.9997790770601609</v>
+        <v>1.000860650280245</v>
       </c>
       <c r="D252">
-        <v>1.000006692938938</v>
+        <v>1.003473580570281</v>
       </c>
       <c r="E252">
-        <v>0.9999799381808671</v>
+        <v>0.9965709526426701</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2">
+        <v>41430</v>
+      </c>
+      <c r="B253">
+        <v>1.011090964302465</v>
+      </c>
+      <c r="C253">
+        <v>1.00104668404142</v>
+      </c>
+      <c r="D253">
+        <v>1.002361377746719</v>
+      </c>
+      <c r="E253">
+        <v>0.9960548072209144</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>41431</v>
+      </c>
+      <c r="B254">
+        <v>1.011044317929435</v>
+      </c>
+      <c r="C254">
+        <v>1.001014621211833</v>
+      </c>
+      <c r="D254">
+        <v>1.002152321954758</v>
+      </c>
+      <c r="E254">
+        <v>0.9960357425457741</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>41432</v>
+      </c>
+      <c r="B255">
+        <v>1.011027134265632</v>
+      </c>
+      <c r="C255">
+        <v>1.002498220572077</v>
+      </c>
+      <c r="D255">
+        <v>1.002872488352972</v>
+      </c>
+      <c r="E255">
+        <v>0.9961747182383992</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>41435</v>
+      </c>
+      <c r="B256">
+        <v>1.010984905606556</v>
+      </c>
+      <c r="C256">
+        <v>1.002372982504715</v>
+      </c>
+      <c r="D256">
+        <v>1.002808983173576</v>
+      </c>
+      <c r="E256">
+        <v>0.9960990541610294</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>41436</v>
+      </c>
+      <c r="B257">
+        <v>1.010976417433662</v>
+      </c>
+      <c r="C257">
+        <v>1.003855809826675</v>
+      </c>
+      <c r="D257">
+        <v>1.00269736041186</v>
+      </c>
+      <c r="E257">
+        <v>0.9961909975591537</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>41437</v>
+      </c>
+      <c r="B258">
+        <v>1.010940148394284</v>
+      </c>
+      <c r="C258">
+        <v>1.003825836059818</v>
+      </c>
+      <c r="D258">
+        <v>1.001736965807827</v>
+      </c>
+      <c r="E258">
+        <v>0.9958931817147396</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>41438</v>
+      </c>
+      <c r="B259">
+        <v>1.010852146641683</v>
+      </c>
+      <c r="C259">
+        <v>1.003199921695792</v>
+      </c>
+      <c r="D259">
+        <v>1.002863511599619</v>
+      </c>
+      <c r="E259">
+        <v>0.99569770835988</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>41439</v>
+      </c>
+      <c r="B260">
+        <v>1.010845242015265</v>
+      </c>
+      <c r="C260">
+        <v>1.003923319682612</v>
+      </c>
+      <c r="D260">
+        <v>1.002430136120463</v>
+      </c>
+      <c r="E260">
+        <v>0.995567069697782</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>41442</v>
+      </c>
+      <c r="B261">
+        <v>1.010789470932135</v>
+      </c>
+      <c r="C261">
+        <v>1.003447820753255</v>
+      </c>
+      <c r="D261">
+        <v>1.00295103473472</v>
+      </c>
+      <c r="E261">
+        <v>0.9958459258483201</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>41443</v>
+      </c>
+      <c r="B262">
+        <v>1.010769608095621</v>
+      </c>
+      <c r="C262">
+        <v>1.004106203320786</v>
+      </c>
+      <c r="D262">
+        <v>1.003958055497252</v>
+      </c>
+      <c r="E262">
+        <v>0.9958072197980502</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>41444</v>
+      </c>
+      <c r="B263">
+        <v>1.010754707014451</v>
+      </c>
+      <c r="C263">
+        <v>1.005011151605001</v>
+      </c>
+      <c r="D263">
+        <v>1.003793398543995</v>
+      </c>
+      <c r="E263">
+        <v>0.9960709156688748</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>41445</v>
+      </c>
+      <c r="B264">
+        <v>1.010809500285221</v>
+      </c>
+      <c r="C264">
+        <v>1.007938438116539</v>
+      </c>
+      <c r="D264">
+        <v>1.003261057176272</v>
+      </c>
+      <c r="E264">
+        <v>0.9957683391595464</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>41446</v>
+      </c>
+      <c r="B265">
+        <v>1.010751601114497</v>
+      </c>
+      <c r="C265">
+        <v>1.007369813646123</v>
+      </c>
+      <c r="D265">
+        <v>1.002895833822307</v>
+      </c>
+      <c r="E265">
+        <v>0.9957601354929945</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>41449</v>
+      </c>
+      <c r="B266">
+        <v>1.010785895146241</v>
+      </c>
+      <c r="C266">
+        <v>1.009178585523347</v>
+      </c>
+      <c r="D266">
+        <v>1.002321110563094</v>
+      </c>
+      <c r="E266">
+        <v>0.9951898618432854</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>41450</v>
+      </c>
+      <c r="B267">
+        <v>1.010707608661418</v>
+      </c>
+      <c r="C267">
+        <v>1.008513150157381</v>
+      </c>
+      <c r="D267">
+        <v>1.003405711348955</v>
+      </c>
+      <c r="E267">
+        <v>0.9952064491936242</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>41451</v>
+      </c>
+      <c r="B268">
+        <v>1.010708991754423</v>
+      </c>
+      <c r="C268">
+        <v>1.010082900103696</v>
+      </c>
+      <c r="D268">
+        <v>1.004163816699974</v>
+      </c>
+      <c r="E268">
+        <v>0.9951449383408458</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>41452</v>
+      </c>
+      <c r="B269">
+        <v>1.010614096904678</v>
+      </c>
+      <c r="C269">
+        <v>1.009254568161658</v>
+      </c>
+      <c r="D269">
+        <v>1.004150284550186</v>
+      </c>
+      <c r="E269">
+        <v>0.9955748058114201</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B270">
+        <v>1.010492087565216</v>
+      </c>
+      <c r="C270">
+        <v>1.006953186755028</v>
+      </c>
+      <c r="D270">
+        <v>1.002646751482738</v>
+      </c>
+      <c r="E270">
+        <v>0.9979985787345076</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B271">
+        <v>1.010447470808762</v>
+      </c>
+      <c r="C271">
+        <v>1.00695135064024</v>
+      </c>
+      <c r="D271">
+        <v>1.002586334286935</v>
+      </c>
+      <c r="E271">
+        <v>0.9979814321990039</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>41457</v>
+      </c>
+      <c r="B272">
+        <v>1.010436962565755</v>
+      </c>
+      <c r="C272">
+        <v>1.007743284958801</v>
+      </c>
+      <c r="D272">
+        <v>1.003154608547114</v>
+      </c>
+      <c r="E272">
+        <v>0.9990350464909183</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>41458</v>
+      </c>
+      <c r="B273">
+        <v>1.010381074251049</v>
+      </c>
+      <c r="C273">
+        <v>1.007418512529789</v>
+      </c>
+      <c r="D273">
+        <v>1.002613267293537</v>
+      </c>
+      <c r="E273">
+        <v>0.9989034923339596</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>41459</v>
+      </c>
+      <c r="B274">
+        <v>1.010330861666434</v>
+      </c>
+      <c r="C274">
+        <v>1.007404882348774</v>
+      </c>
+      <c r="D274">
+        <v>1.002719386752067</v>
+      </c>
+      <c r="E274">
+        <v>0.9989454441660796</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>41460</v>
+      </c>
+      <c r="B275">
+        <v>1.010320890490651</v>
+      </c>
+      <c r="C275">
+        <v>1.008272602851923</v>
+      </c>
+      <c r="D275">
+        <v>1.002685103282991</v>
+      </c>
+      <c r="E275">
+        <v>0.9989906541368275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>41463</v>
+      </c>
+      <c r="B276">
+        <v>1.010261554339273</v>
+      </c>
+      <c r="C276">
+        <v>1.008305151641124</v>
+      </c>
+      <c r="D276">
+        <v>1.003342164068454</v>
+      </c>
+      <c r="E276">
+        <v>0.9992163934342436</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>41464</v>
+      </c>
+      <c r="B277">
+        <v>1.01019523370831</v>
+      </c>
+      <c r="C277">
+        <v>1.00770279001068</v>
+      </c>
+      <c r="D277">
+        <v>1.003745102070479</v>
+      </c>
+      <c r="E277">
+        <v>0.9993238828140528</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B278">
+        <v>1.010148250102897</v>
+      </c>
+      <c r="C278">
+        <v>1.007604633980717</v>
+      </c>
+      <c r="D278">
+        <v>1.003630771344058</v>
+      </c>
+      <c r="E278">
+        <v>0.9997034383920732</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>41466</v>
+      </c>
+      <c r="B279">
+        <v>1.010003368733182</v>
+      </c>
+      <c r="C279">
+        <v>1.005250688448573</v>
+      </c>
+      <c r="D279">
+        <v>1.003521484480791</v>
+      </c>
+      <c r="E279">
+        <v>0.9998840778171091</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>41467</v>
+      </c>
+      <c r="B280">
+        <v>1.009976529296761</v>
+      </c>
+      <c r="C280">
+        <v>1.006016897592601</v>
+      </c>
+      <c r="D280">
+        <v>1.003480834866671</v>
+      </c>
+      <c r="E280">
+        <v>0.9999461777211256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>41470</v>
+      </c>
+      <c r="B281">
+        <v>1.009915016402468</v>
+      </c>
+      <c r="C281">
+        <v>1.005744766135028</v>
+      </c>
+      <c r="D281">
+        <v>1.003767342268426</v>
+      </c>
+      <c r="E281">
+        <v>0.9998663476541222</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>41471</v>
+      </c>
+      <c r="B282">
+        <v>1.009831142840275</v>
+      </c>
+      <c r="C282">
+        <v>1.004333696886831</v>
+      </c>
+      <c r="D282">
+        <v>1.00259874865466</v>
+      </c>
+      <c r="E282">
+        <v>0.9998598128143086</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>41472</v>
+      </c>
+      <c r="B283">
+        <v>1.009791365277858</v>
+      </c>
+      <c r="C283">
+        <v>1.004917189047134</v>
+      </c>
+      <c r="D283">
+        <v>1.003303395671097</v>
+      </c>
+      <c r="E283">
+        <v>0.9999097222580339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>41473</v>
+      </c>
+      <c r="B284">
+        <v>1.009723307766978</v>
+      </c>
+      <c r="C284">
+        <v>1.004981314568864</v>
+      </c>
+      <c r="D284">
+        <v>1.003746884097707</v>
+      </c>
+      <c r="E284">
+        <v>1.000276095418937</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>41474</v>
+      </c>
+      <c r="B285">
+        <v>1.009658371387894</v>
+      </c>
+      <c r="C285">
+        <v>1.00377567289009</v>
+      </c>
+      <c r="D285">
+        <v>1.003206184744272</v>
+      </c>
+      <c r="E285">
+        <v>1.000314521747612</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>41477</v>
+      </c>
+      <c r="B286">
+        <v>1.009543231909408</v>
+      </c>
+      <c r="C286">
+        <v>1.001641110285128</v>
+      </c>
+      <c r="D286">
+        <v>1.002463483948622</v>
+      </c>
+      <c r="E286">
+        <v>1.000021842962526</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B287">
+        <v>1.009472642344103</v>
+      </c>
+      <c r="C287">
+        <v>1.000794019906947</v>
+      </c>
+      <c r="D287">
+        <v>1.002133066007592</v>
+      </c>
+      <c r="E287">
+        <v>1.000083599194868</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>41479</v>
+      </c>
+      <c r="B288">
+        <v>1.009451269998527</v>
+      </c>
+      <c r="C288">
+        <v>1.002281235460589</v>
+      </c>
+      <c r="D288">
+        <v>1.002497591843989</v>
+      </c>
+      <c r="E288">
+        <v>1.000108005873989</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>41480</v>
+      </c>
+      <c r="B289">
+        <v>1.009397962226585</v>
+      </c>
+      <c r="C289">
+        <v>1.002084714607935</v>
+      </c>
+      <c r="D289">
+        <v>1.002371329692884</v>
+      </c>
+      <c r="E289">
+        <v>1.000076257998733</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>41481</v>
+      </c>
+      <c r="B290">
+        <v>1.009330273190493</v>
+      </c>
+      <c r="C290">
+        <v>1.001692054786614</v>
+      </c>
+      <c r="D290">
+        <v>1.002051252051991</v>
+      </c>
+      <c r="E290">
+        <v>1.000092307748365</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>41484</v>
+      </c>
+      <c r="B291">
+        <v>1.009290700995673</v>
+      </c>
+      <c r="C291">
+        <v>1.001933504704645</v>
+      </c>
+      <c r="D291">
+        <v>1.001960818456723</v>
+      </c>
+      <c r="E291">
+        <v>1.000353208624519</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>41485</v>
+      </c>
+      <c r="B292">
+        <v>1.009264387003001</v>
+      </c>
+      <c r="C292">
+        <v>1.002302585716661</v>
+      </c>
+      <c r="D292">
+        <v>1.001789463978049</v>
+      </c>
+      <c r="E292">
+        <v>1.000271834291089</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B293">
+        <v>1.009239935049652</v>
+      </c>
+      <c r="C293">
+        <v>1.003034644196671</v>
+      </c>
+      <c r="D293">
+        <v>1.001561305729199</v>
+      </c>
+      <c r="E293">
+        <v>1.00004172865284</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B294">
+        <v>1.009164733742729</v>
+      </c>
+      <c r="C294">
+        <v>1.003296917438815</v>
+      </c>
+      <c r="D294">
+        <v>1.002911560039542</v>
+      </c>
+      <c r="E294">
+        <v>1.000394208137138</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>41488</v>
+      </c>
+      <c r="B295">
+        <v>1.009129740567391</v>
+      </c>
+      <c r="C295">
+        <v>1.003626581519182</v>
+      </c>
+      <c r="D295">
+        <v>1.003160931949687</v>
+      </c>
+      <c r="E295">
+        <v>1.000218126469247</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>41491</v>
+      </c>
+      <c r="B296">
+        <v>1.009084988031494</v>
+      </c>
+      <c r="C296">
+        <v>1.003627399263393</v>
+      </c>
+      <c r="D296">
+        <v>1.003095705143535</v>
+      </c>
+      <c r="E296">
+        <v>1.000197921517506</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>41492</v>
+      </c>
+      <c r="B297">
+        <v>1.009103397057713</v>
+      </c>
+      <c r="C297">
+        <v>1.005380015383009</v>
+      </c>
+      <c r="D297">
+        <v>1.003460941058559</v>
+      </c>
+      <c r="E297">
+        <v>0.9995222466171452</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>41493</v>
+      </c>
+      <c r="B298">
+        <v>1.009064147922191</v>
+      </c>
+      <c r="C298">
+        <v>1.005520651459478</v>
+      </c>
+      <c r="D298">
+        <v>1.002903656465105</v>
+      </c>
+      <c r="E298">
+        <v>0.999654001603417</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>41494</v>
+      </c>
+      <c r="B299">
+        <v>1.00890396938413</v>
+      </c>
+      <c r="C299">
+        <v>1.002884058230967</v>
+      </c>
+      <c r="D299">
+        <v>1.002554042577888</v>
+      </c>
+      <c r="E299">
+        <v>0.9996275690802499</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>41495</v>
+      </c>
+      <c r="B300">
+        <v>1.00884764214644</v>
+      </c>
+      <c r="C300">
+        <v>1.002325657327553</v>
+      </c>
+      <c r="D300">
+        <v>1.00259730773502</v>
+      </c>
+      <c r="E300">
+        <v>0.9990570413912034</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>41498</v>
+      </c>
+      <c r="B301">
+        <v>1.008754616381849</v>
+      </c>
+      <c r="C301">
+        <v>1.000565003492796</v>
+      </c>
+      <c r="D301">
+        <v>1.002309388875828</v>
+      </c>
+      <c r="E301">
+        <v>0.9979065732300153</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>41499</v>
+      </c>
+      <c r="B302">
+        <v>1.008688918268142</v>
+      </c>
+      <c r="C302">
+        <v>1.000822134601767</v>
+      </c>
+      <c r="D302">
+        <v>1.002778467269219</v>
+      </c>
+      <c r="E302">
+        <v>0.9978873831029108</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>41500</v>
+      </c>
+      <c r="B303">
+        <v>1.00860822939011</v>
+      </c>
+      <c r="C303">
+        <v>0.9996177032096348</v>
+      </c>
+      <c r="D303">
+        <v>1.001999191621987</v>
+      </c>
+      <c r="E303">
+        <v>0.9975648553585114</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>41501</v>
+      </c>
+      <c r="B304">
+        <v>1.008517624905135</v>
+      </c>
+      <c r="C304">
+        <v>0.9977147628266864</v>
+      </c>
+      <c r="D304">
+        <v>1.000999764430012</v>
+      </c>
+      <c r="E304">
+        <v>0.9974542401722566</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>41502</v>
+      </c>
+      <c r="B305">
+        <v>1.008480398862196</v>
+      </c>
+      <c r="C305">
+        <v>0.9979807170122436</v>
+      </c>
+      <c r="D305">
+        <v>1.001204013734325</v>
+      </c>
+      <c r="E305">
+        <v>0.9979321048092809</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>41505</v>
+      </c>
+      <c r="B306">
+        <v>1.008471195686308</v>
+      </c>
+      <c r="C306">
+        <v>0.9987563889337161</v>
+      </c>
+      <c r="D306">
+        <v>1.00024643912581</v>
+      </c>
+      <c r="E306">
+        <v>0.9977049636303875</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>41506</v>
+      </c>
+      <c r="B307">
+        <v>1.008394568693457</v>
+      </c>
+      <c r="C307">
+        <v>0.9976401504352549</v>
+      </c>
+      <c r="D307">
+        <v>1.000094318948591</v>
+      </c>
+      <c r="E307">
+        <v>0.9975734009504817</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>41507</v>
+      </c>
+      <c r="B308">
+        <v>1.008398297746862</v>
+      </c>
+      <c r="C308">
+        <v>0.9989085502800555</v>
+      </c>
+      <c r="D308">
+        <v>0.9998987208409422</v>
+      </c>
+      <c r="E308">
+        <v>0.9975833939635751</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>41508</v>
+      </c>
+      <c r="B309">
+        <v>1.008306876096933</v>
+      </c>
+      <c r="C309">
+        <v>0.9978021433057187</v>
+      </c>
+      <c r="D309">
+        <v>1.00033789013646</v>
+      </c>
+      <c r="E309">
+        <v>0.9977761083505197</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>41509</v>
+      </c>
+      <c r="B310">
+        <v>1.008223878816431</v>
+      </c>
+      <c r="C310">
+        <v>0.9968356770848367</v>
+      </c>
+      <c r="D310">
+        <v>1.000245302962525</v>
+      </c>
+      <c r="E310">
+        <v>0.9976876727038886</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>41512</v>
+      </c>
+      <c r="B311">
+        <v>1.008174086901603</v>
+      </c>
+      <c r="C311">
+        <v>0.9964739346650479</v>
+      </c>
+      <c r="D311">
+        <v>0.9999118295307977</v>
+      </c>
+      <c r="E311">
+        <v>0.9974990311047806</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>41513</v>
+      </c>
+      <c r="B312">
+        <v>1.008216901468081</v>
+      </c>
+      <c r="C312">
+        <v>0.9981716457491266</v>
+      </c>
+      <c r="D312">
+        <v>0.9992678153749464</v>
+      </c>
+      <c r="E312">
+        <v>0.9976695616743662</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>41514</v>
+      </c>
+      <c r="B313">
+        <v>1.008203194947087</v>
+      </c>
+      <c r="C313">
+        <v>0.9986649915660447</v>
+      </c>
+      <c r="D313">
+        <v>0.9998306761863831</v>
+      </c>
+      <c r="E313">
+        <v>0.9975442458878484</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>41515</v>
+      </c>
+      <c r="B314">
+        <v>1.008126575664142</v>
+      </c>
+      <c r="C314">
+        <v>0.9984321615017926</v>
+      </c>
+      <c r="D314">
+        <v>0.9998698731056017</v>
+      </c>
+      <c r="E314">
+        <v>0.9976070070069303</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B315">
+        <v>1.008098098729832</v>
+      </c>
+      <c r="C315">
+        <v>0.9988573225750211</v>
+      </c>
+      <c r="D315">
+        <v>0.99974236660308</v>
+      </c>
+      <c r="E315">
+        <v>0.9976762493976069</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>41520</v>
+      </c>
+      <c r="B316">
+        <v>1.008019296124421</v>
+      </c>
+      <c r="C316">
+        <v>0.9982800004040115</v>
+      </c>
+      <c r="D316">
+        <v>0.9999924820084667</v>
+      </c>
+      <c r="E316">
+        <v>0.9976987757637624</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>41521</v>
+      </c>
+      <c r="B317">
+        <v>1.007967304666852</v>
+      </c>
+      <c r="C317">
+        <v>0.9981845090105731</v>
+      </c>
+      <c r="D317">
+        <v>1.00030239045394</v>
+      </c>
+      <c r="E317">
+        <v>0.9972805636911631</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>41522</v>
+      </c>
+      <c r="B318">
+        <v>1.007947395964971</v>
+      </c>
+      <c r="C318">
+        <v>0.9987979026239973</v>
+      </c>
+      <c r="D318">
+        <v>1.001557814758489</v>
+      </c>
+      <c r="E318">
+        <v>0.9974166881387694</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>41523</v>
+      </c>
+      <c r="B319">
+        <v>1.007903611735787</v>
+      </c>
+      <c r="C319">
+        <v>0.9986763602460166</v>
+      </c>
+      <c r="D319">
+        <v>1.001020254540356</v>
+      </c>
+      <c r="E319">
+        <v>0.9975127610640366</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>41526</v>
+      </c>
+      <c r="B320">
+        <v>1.007864431818915</v>
+      </c>
+      <c r="C320">
+        <v>0.9988753587674382</v>
+      </c>
+      <c r="D320">
+        <v>1.001697199286259</v>
+      </c>
+      <c r="E320">
+        <v>0.9971051511443056</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>41527</v>
+      </c>
+      <c r="B321">
+        <v>1.007838130506884</v>
+      </c>
+      <c r="C321">
+        <v>1.000086863001659</v>
+      </c>
+      <c r="D321">
+        <v>1.002169815229164</v>
+      </c>
+      <c r="E321">
+        <v>0.9977286294809916</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>41528</v>
+      </c>
+      <c r="B322">
+        <v>1.007791808187272</v>
+      </c>
+      <c r="C322">
+        <v>0.9999943680623896</v>
+      </c>
+      <c r="D322">
+        <v>1.002055260588876</v>
+      </c>
+      <c r="E322">
+        <v>0.9982966793463313</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>41529</v>
+      </c>
+      <c r="B323">
+        <v>1.007823985751977</v>
+      </c>
+      <c r="C323">
+        <v>1.001754345913067</v>
+      </c>
+      <c r="D323">
+        <v>1.002114322146745</v>
+      </c>
+      <c r="E323">
+        <v>0.9982158006109954</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>41530</v>
+      </c>
+      <c r="B324">
+        <v>1.007770659696168</v>
+      </c>
+      <c r="C324">
+        <v>1.00117326201964</v>
+      </c>
+      <c r="D324">
+        <v>1.001720867361882</v>
+      </c>
+      <c r="E324">
+        <v>0.9982918421239899</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>41533</v>
+      </c>
+      <c r="B325">
+        <v>1.00771456133939</v>
+      </c>
+      <c r="C325">
+        <v>1.001121751592597</v>
+      </c>
+      <c r="D325">
+        <v>1.002368797001314</v>
+      </c>
+      <c r="E325">
+        <v>0.9984569289432876</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>41534</v>
+      </c>
+      <c r="B326">
+        <v>1.00765238270685</v>
+      </c>
+      <c r="C326">
+        <v>1.000664834513952</v>
+      </c>
+      <c r="D326">
+        <v>1.00225060486438</v>
+      </c>
+      <c r="E326">
+        <v>0.9982447584144535</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>41535</v>
+      </c>
+      <c r="B327">
+        <v>1.007574292718729</v>
+      </c>
+      <c r="C327">
+        <v>0.9983998339168085</v>
+      </c>
+      <c r="D327">
+        <v>1.000933904121625</v>
+      </c>
+      <c r="E327">
+        <v>0.9982090959586076</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>41536</v>
+      </c>
+      <c r="B328">
+        <v>1.0075455567999</v>
+      </c>
+      <c r="C328">
+        <v>0.9990650920656773</v>
+      </c>
+      <c r="D328">
+        <v>1.001301101399394</v>
+      </c>
+      <c r="E328">
+        <v>0.998123065088085</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>41537</v>
+      </c>
+      <c r="B329">
+        <v>1.00757751203546</v>
+      </c>
+      <c r="C329">
+        <v>1.001131869419283</v>
+      </c>
+      <c r="D329">
+        <v>1.000951903534808</v>
+      </c>
+      <c r="E329">
+        <v>0.9996391898413227</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>41540</v>
+      </c>
+      <c r="B330">
+        <v>1.007562328250094</v>
+      </c>
+      <c r="C330">
+        <v>1.001742205494494</v>
+      </c>
+      <c r="D330">
+        <v>1.001072701795717</v>
+      </c>
+      <c r="E330">
+        <v>0.9996992359409527</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>41541</v>
+      </c>
+      <c r="B331">
+        <v>1.007517229950934</v>
+      </c>
+      <c r="C331">
+        <v>1.001705991378639</v>
+      </c>
+      <c r="D331">
+        <v>1.001095413245017</v>
+      </c>
+      <c r="E331">
+        <v>1.000090746815769</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>41542</v>
+      </c>
+      <c r="B332">
+        <v>1.007467301739059</v>
+      </c>
+      <c r="C332">
+        <v>1.001192804517562</v>
+      </c>
+      <c r="D332">
+        <v>1.000496107745602</v>
+      </c>
+      <c r="E332">
+        <v>1.000517028563398</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>41543</v>
+      </c>
+      <c r="B333">
+        <v>1.007424849660764</v>
+      </c>
+      <c r="C333">
+        <v>1.001628985722296</v>
+      </c>
+      <c r="D333">
+        <v>1.000899260084224</v>
+      </c>
+      <c r="E333">
+        <v>1.000670178523751</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>41544</v>
+      </c>
+      <c r="B334">
+        <v>1.007395549933882</v>
+      </c>
+      <c r="C334">
+        <v>1.001682828284463</v>
+      </c>
+      <c r="D334">
+        <v>1.00072405062669</v>
+      </c>
+      <c r="E334">
+        <v>1.000568743169768</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B335">
+        <v>1.00737337565972</v>
+      </c>
+      <c r="C335">
+        <v>1.001787259590817</v>
+      </c>
+      <c r="D335">
+        <v>0.9999943704804217</v>
+      </c>
+      <c r="E335">
+        <v>1.000572318633911</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B336">
+        <v>1.007348334312361</v>
+      </c>
+      <c r="C336">
+        <v>1.002309351419121</v>
+      </c>
+      <c r="D336">
+        <v>1.00095543553821</v>
+      </c>
+      <c r="E336">
+        <v>1.000762090784567</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>41549</v>
+      </c>
+      <c r="B337">
+        <v>1.007313445236385</v>
+      </c>
+      <c r="C337">
+        <v>1.002219143449658</v>
+      </c>
+      <c r="D337">
+        <v>1.000751415810822</v>
+      </c>
+      <c r="E337">
+        <v>1.000551718945358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>41550</v>
+      </c>
+      <c r="B338">
+        <v>1.007298571736133</v>
+      </c>
+      <c r="C338">
+        <v>1.002958321641537</v>
+      </c>
+      <c r="D338">
+        <v>1.00010760965548</v>
+      </c>
+      <c r="E338">
+        <v>1.000679176653627</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>41551</v>
+      </c>
+      <c r="B339">
+        <v>1.007237216543071</v>
+      </c>
+      <c r="C339">
+        <v>1.003081133078572</v>
+      </c>
+      <c r="D339">
+        <v>1.000508433981683</v>
+      </c>
+      <c r="E339">
+        <v>1.000893880845287</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>41554</v>
+      </c>
+      <c r="B340">
+        <v>1.007201185641959</v>
+      </c>
+      <c r="C340">
+        <v>1.002602078000151</v>
+      </c>
+      <c r="D340">
+        <v>1.000269620915695</v>
+      </c>
+      <c r="E340">
+        <v>1.000426246634601</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>41555</v>
+      </c>
+      <c r="B341">
+        <v>1.007195393670155</v>
+      </c>
+      <c r="C341">
+        <v>1.003725674858094</v>
+      </c>
+      <c r="D341">
+        <v>1.000185724159971</v>
+      </c>
+      <c r="E341">
+        <v>1.000314163271798</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>41556</v>
+      </c>
+      <c r="B342">
+        <v>1.007136029933485</v>
+      </c>
+      <c r="C342">
+        <v>1.003476719935884</v>
+      </c>
+      <c r="D342">
+        <v>1.000288950963145</v>
+      </c>
+      <c r="E342">
+        <v>1.0001221679062</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>41557</v>
+      </c>
+      <c r="B343">
+        <v>1.007053256155951</v>
+      </c>
+      <c r="C343">
+        <v>1.003257371100557</v>
+      </c>
+      <c r="D343">
+        <v>1.001517162092446</v>
+      </c>
+      <c r="E343">
+        <v>1.000495458729167</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>41558</v>
+      </c>
+      <c r="B344">
+        <v>1.007028236269534</v>
+      </c>
+      <c r="C344">
+        <v>1.003956766575071</v>
+      </c>
+      <c r="D344">
+        <v>1.001889026227639</v>
+      </c>
+      <c r="E344">
+        <v>1.000777971812061</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>41561</v>
+      </c>
+      <c r="B345">
+        <v>1.006983595149358</v>
+      </c>
+      <c r="C345">
+        <v>1.003957337785383</v>
+      </c>
+      <c r="D345">
+        <v>1.001824326831042</v>
+      </c>
+      <c r="E345">
+        <v>1.000758037139024</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>41562</v>
+      </c>
+      <c r="B346">
+        <v>1.006906942157513</v>
+      </c>
+      <c r="C346">
+        <v>1.003144238138306</v>
+      </c>
+      <c r="D346">
+        <v>1.001565956590512</v>
+      </c>
+      <c r="E346">
+        <v>1.000493507983517</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>41563</v>
+      </c>
+      <c r="B347">
+        <v>1.006877029809732</v>
+      </c>
+      <c r="C347">
+        <v>1.00375309216672</v>
+      </c>
+      <c r="D347">
+        <v>1.002043168508787</v>
+      </c>
+      <c r="E347">
+        <v>1.000739443827256</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>41564</v>
+      </c>
+      <c r="B348">
+        <v>1.006772100774062</v>
+      </c>
+      <c r="C348">
+        <v>1.002273947573326</v>
+      </c>
+      <c r="D348">
+        <v>1.001618678218059</v>
+      </c>
+      <c r="E348">
+        <v>1.000625580445244</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>41565</v>
+      </c>
+      <c r="B349">
+        <v>1.006708808510417</v>
+      </c>
+      <c r="C349">
+        <v>1.002281551786725</v>
+      </c>
+      <c r="D349">
+        <v>1.002271357734597</v>
+      </c>
+      <c r="E349">
+        <v>1.000585312002117</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>41568</v>
+      </c>
+      <c r="B350">
+        <v>1.006625381934625</v>
+      </c>
+      <c r="C350">
+        <v>1.001407522886344</v>
+      </c>
+      <c r="D350">
+        <v>1.001971978523646</v>
+      </c>
+      <c r="E350">
+        <v>1.000675108716807</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>41569</v>
+      </c>
+      <c r="B351">
+        <v>1.006544096294835</v>
+      </c>
+      <c r="C351">
+        <v>1.000107975483962</v>
+      </c>
+      <c r="D351">
+        <v>1.001586053240952</v>
+      </c>
+      <c r="E351">
+        <v>1.000693596104342</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>41570</v>
+      </c>
+      <c r="B352">
+        <v>1.006503423842456</v>
+      </c>
+      <c r="C352">
+        <v>1.000670592232297</v>
+      </c>
+      <c r="D352">
+        <v>1.001779300380688</v>
+      </c>
+      <c r="E352">
+        <v>1.000710572863127</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>41571</v>
+      </c>
+      <c r="B353">
+        <v>1.006393021293502</v>
+      </c>
+      <c r="C353">
+        <v>0.9987111624541498</v>
+      </c>
+      <c r="D353">
+        <v>1.00150216754009</v>
+      </c>
+      <c r="E353">
+        <v>1.000505957010093</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B354">
+        <v>1.006338363413492</v>
+      </c>
+      <c r="C354">
+        <v>0.9982862540723214</v>
+      </c>
+      <c r="D354">
+        <v>1.00162997196932</v>
+      </c>
+      <c r="E354">
+        <v>1.000605611257434</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>41575</v>
+      </c>
+      <c r="B355">
+        <v>1.006288969380436</v>
+      </c>
+      <c r="C355">
+        <v>0.9982296358449517</v>
+      </c>
+      <c r="D355">
+        <v>1.00115065766597</v>
+      </c>
+      <c r="E355">
+        <v>1.000497046018469</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>41576</v>
+      </c>
+      <c r="B356">
+        <v>1.006272086119333</v>
+      </c>
+      <c r="C356">
+        <v>0.9988548405211594</v>
+      </c>
+      <c r="D356">
+        <v>1.001864766612281</v>
+      </c>
+      <c r="E356">
+        <v>1.000462876384081</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>41577</v>
+      </c>
+      <c r="B357">
+        <v>1.00619781878617</v>
+      </c>
+      <c r="C357">
+        <v>0.9982453751643328</v>
+      </c>
+      <c r="D357">
+        <v>1.001394485860832</v>
+      </c>
+      <c r="E357">
+        <v>1.000543419743222</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B358">
+        <v>1.006222646222231</v>
+      </c>
+      <c r="C358">
+        <v>0.999731792869982</v>
+      </c>
+      <c r="D358">
+        <v>1.001077152526892</v>
+      </c>
+      <c r="E358">
+        <v>1.000856725452067</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B359">
+        <v>1.006197606759291</v>
+      </c>
+      <c r="C359">
+        <v>1.000856571386037</v>
+      </c>
+      <c r="D359">
+        <v>1.001488985044915</v>
+      </c>
+      <c r="E359">
+        <v>1.001087382771442</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>41582</v>
+      </c>
+      <c r="B360">
+        <v>1.006112127161074</v>
+      </c>
+      <c r="C360">
+        <v>1.000007820400555</v>
+      </c>
+      <c r="D360">
+        <v>1.000793008036997</v>
+      </c>
+      <c r="E360">
+        <v>1.002603194717889</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>41583</v>
+      </c>
+      <c r="B361">
+        <v>1.006059489711967</v>
+      </c>
+      <c r="C361">
+        <v>1.000263224463869</v>
+      </c>
+      <c r="D361">
+        <v>1.001246945547786</v>
+      </c>
+      <c r="E361">
+        <v>1.002385441720824</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>41584</v>
+      </c>
+      <c r="B362">
+        <v>1.005999045584839</v>
+      </c>
+      <c r="C362">
+        <v>1.000180191131371</v>
+      </c>
+      <c r="D362">
+        <v>1.000827415488086</v>
+      </c>
+      <c r="E362">
+        <v>1.002309991522907</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>41585</v>
+      </c>
+      <c r="B363">
+        <v>1.005988716135849</v>
+      </c>
+      <c r="C363">
+        <v>1.001390614912317</v>
+      </c>
+      <c r="D363">
+        <v>1.000503546485619</v>
+      </c>
+      <c r="E363">
+        <v>1.002373515228682</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>41586</v>
+      </c>
+      <c r="B364">
+        <v>1.005934461932356</v>
+      </c>
+      <c r="C364">
+        <v>1.001013438989755</v>
+      </c>
+      <c r="D364">
+        <v>1.000941635123467</v>
+      </c>
+      <c r="E364">
+        <v>1.002446966443405</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>41589</v>
+      </c>
+      <c r="B365">
+        <v>1.005885929665945</v>
+      </c>
+      <c r="C365">
+        <v>1.000940040940786</v>
+      </c>
+      <c r="D365">
+        <v>1.000767655945111</v>
+      </c>
+      <c r="E365">
+        <v>1.002521845515432</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>41590</v>
+      </c>
+      <c r="B366">
+        <v>1.00584875203634</v>
+      </c>
+      <c r="C366">
+        <v>1.001443471062794</v>
+      </c>
+      <c r="D366">
+        <v>1.000701495448367</v>
+      </c>
+      <c r="E366">
+        <v>1.002449230560122</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>41591</v>
+      </c>
+      <c r="B367">
+        <v>1.005813656194657</v>
+      </c>
+      <c r="C367">
+        <v>1.001484245535943</v>
+      </c>
+      <c r="D367">
+        <v>1.000620410224114</v>
+      </c>
+      <c r="E367">
+        <v>1.002408865427117</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>41592</v>
+      </c>
+      <c r="B368">
+        <v>1.005754180031586</v>
+      </c>
+      <c r="C368">
+        <v>1.000715065587466</v>
+      </c>
+      <c r="D368">
+        <v>1.000428455922703</v>
+      </c>
+      <c r="E368">
+        <v>1.002449475237713</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>41593</v>
+      </c>
+      <c r="B369">
+        <v>1.00572901766611</v>
+      </c>
+      <c r="C369">
+        <v>1.000975004733005</v>
+      </c>
+      <c r="D369">
+        <v>1.000786818925562</v>
+      </c>
+      <c r="E369">
+        <v>1.002630588309462</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>41596</v>
+      </c>
+      <c r="B370">
+        <v>1.005698374405056</v>
+      </c>
+      <c r="C370">
+        <v>1.001776777530275</v>
+      </c>
+      <c r="D370">
+        <v>1.000725568333576</v>
+      </c>
+      <c r="E370">
+        <v>1.003091574466237</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>41597</v>
+      </c>
+      <c r="B371">
+        <v>1.00565890587327</v>
+      </c>
+      <c r="C371">
+        <v>1.001684413396285</v>
+      </c>
+      <c r="D371">
+        <v>1.000398593421204</v>
+      </c>
+      <c r="E371">
+        <v>1.003180271830639</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>41598</v>
+      </c>
+      <c r="B372">
+        <v>1.005647650191893</v>
+      </c>
+      <c r="C372">
+        <v>1.002607590489276</v>
+      </c>
+      <c r="D372">
+        <v>1.000727854642214</v>
+      </c>
+      <c r="E372">
+        <v>1.003204732834999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>41599</v>
+      </c>
+      <c r="B373">
+        <v>1.005602037189503</v>
+      </c>
+      <c r="C373">
+        <v>1.002616902469058</v>
+      </c>
+      <c r="D373">
+        <v>1.001155652919055</v>
+      </c>
+      <c r="E373">
+        <v>1.003363866640643</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>41600</v>
+      </c>
+      <c r="B374">
+        <v>1.005559501516243</v>
+      </c>
+      <c r="C374">
+        <v>1.002911324256401</v>
+      </c>
+      <c r="D374">
+        <v>1.001323980032325</v>
+      </c>
+      <c r="E374">
+        <v>1.003121278596404</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>41603</v>
+      </c>
+      <c r="B375">
+        <v>1.005509222529225</v>
+      </c>
+      <c r="C375">
+        <v>1.002743991136948</v>
+      </c>
+      <c r="D375">
+        <v>1.001114799595697</v>
+      </c>
+      <c r="E375">
+        <v>1.002923730444873</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>41604</v>
+      </c>
+      <c r="B376">
+        <v>1.005483157654652</v>
+      </c>
+      <c r="C376">
+        <v>1.003592850990126</v>
+      </c>
+      <c r="D376">
+        <v>1.000837709751574</v>
+      </c>
+      <c r="E376">
+        <v>1.002360723503444</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>41605</v>
+      </c>
+      <c r="B377">
+        <v>1.005425728904988</v>
+      </c>
+      <c r="C377">
+        <v>1.003244295814443</v>
+      </c>
+      <c r="D377">
+        <v>1.000575807420422</v>
+      </c>
+      <c r="E377">
+        <v>1.002355441062548</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>41606</v>
+      </c>
+      <c r="B378">
+        <v>1.005354011492248</v>
+      </c>
+      <c r="C378">
+        <v>1.002885970637224</v>
+      </c>
+      <c r="D378">
+        <v>1.00058024991335</v>
+      </c>
+      <c r="E378">
+        <v>1.002382877079543</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B379">
+        <v>1.005301833324416</v>
+      </c>
+      <c r="C379">
+        <v>1.002575013887081</v>
+      </c>
+      <c r="D379">
+        <v>1.000359828335853</v>
+      </c>
+      <c r="E379">
+        <v>1.00230199091311</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>41610</v>
+      </c>
+      <c r="B380">
+        <v>1.005310392713973</v>
+      </c>
+      <c r="C380">
+        <v>1.003869572554567</v>
+      </c>
+      <c r="D380">
+        <v>1.00135910182752</v>
+      </c>
+      <c r="E380">
+        <v>1.002456465072866</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>41611</v>
+      </c>
+      <c r="B381">
+        <v>1.005296136094728</v>
+      </c>
+      <c r="C381">
+        <v>1.004327459361619</v>
+      </c>
+      <c r="D381">
+        <v>1.001075637320694</v>
+      </c>
+      <c r="E381">
+        <v>1.002488727493396</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>41612</v>
+      </c>
+      <c r="B382">
+        <v>1.005237192717533</v>
+      </c>
+      <c r="C382">
+        <v>1.003532014588858</v>
+      </c>
+      <c r="D382">
+        <v>1.000565934128236</v>
+      </c>
+      <c r="E382">
+        <v>1.002613623645365</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>41613</v>
+      </c>
+      <c r="B383">
+        <v>1.005217846728001</v>
+      </c>
+      <c r="C383">
+        <v>1.004494933159553</v>
+      </c>
+      <c r="D383">
+        <v>1.000345397016978</v>
+      </c>
+      <c r="E383">
+        <v>1.002995395085675</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>41614</v>
+      </c>
+      <c r="B384">
+        <v>1.005154675685511</v>
+      </c>
+      <c r="C384">
+        <v>1.004418840785393</v>
+      </c>
+      <c r="D384">
+        <v>1.000582257845179</v>
+      </c>
+      <c r="E384">
+        <v>1.003069527591503</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>41617</v>
+      </c>
+      <c r="B385">
+        <v>1.005092789033263</v>
+      </c>
+      <c r="C385">
+        <v>1.003840129612352</v>
+      </c>
+      <c r="D385">
+        <v>1.0002132044725</v>
+      </c>
+      <c r="E385">
+        <v>1.003260759001334</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>41618</v>
+      </c>
+      <c r="B386">
+        <v>1.005026361934445</v>
+      </c>
+      <c r="C386">
+        <v>1.002791058707605</v>
+      </c>
+      <c r="D386">
+        <v>0.9996618949258061</v>
+      </c>
+      <c r="E386">
+        <v>1.002731904261379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>41619</v>
+      </c>
+      <c r="B387">
+        <v>1.00503086278078</v>
+      </c>
+      <c r="C387">
+        <v>1.004317183046611</v>
+      </c>
+      <c r="D387">
+        <v>0.9990143800423954</v>
+      </c>
+      <c r="E387">
+        <v>1.002470088233305</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>41620</v>
+      </c>
+      <c r="B388">
+        <v>1.005013421753487</v>
+      </c>
+      <c r="C388">
+        <v>1.004702602994121</v>
+      </c>
+      <c r="D388">
+        <v>0.999077790180001</v>
+      </c>
+      <c r="E388">
+        <v>1.002489636856345</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>41621</v>
+      </c>
+      <c r="B389">
+        <v>1.004959905378665</v>
+      </c>
+      <c r="C389">
+        <v>1.004635029610299</v>
+      </c>
+      <c r="D389">
+        <v>0.9991722343227957</v>
+      </c>
+      <c r="E389">
+        <v>1.002278941111695</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>41624</v>
+      </c>
+      <c r="B390">
+        <v>1.004883815007162</v>
+      </c>
+      <c r="C390">
+        <v>1.00435389630202</v>
+      </c>
+      <c r="D390">
+        <v>0.9993748397150625</v>
+      </c>
+      <c r="E390">
+        <v>1.002115319573325</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>41625</v>
+      </c>
+      <c r="B391">
+        <v>1.004835571528321</v>
+      </c>
+      <c r="C391">
+        <v>1.004430248964644</v>
+      </c>
+      <c r="D391">
+        <v>0.9993382344945329</v>
+      </c>
+      <c r="E391">
+        <v>1.002184535729856</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>41626</v>
+      </c>
+      <c r="B392">
+        <v>1.004767657359733</v>
+      </c>
+      <c r="C392">
+        <v>1.004336121918789</v>
+      </c>
+      <c r="D392">
+        <v>1.000231844823977</v>
+      </c>
+      <c r="E392">
+        <v>1.00253523355517</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>41627</v>
+      </c>
+      <c r="B393">
+        <v>1.004732593888437</v>
+      </c>
+      <c r="C393">
+        <v>1.004556547920087</v>
+      </c>
+      <c r="D393">
+        <v>1.00091046306972</v>
+      </c>
+      <c r="E393">
+        <v>1.002438447531669</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>41628</v>
+      </c>
+      <c r="B394">
+        <v>1.004674847104032</v>
+      </c>
+      <c r="C394">
+        <v>1.004451135625484</v>
+      </c>
+      <c r="D394">
+        <v>1.001458766650076</v>
+      </c>
+      <c r="E394">
+        <v>1.000921739503132</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B395">
+        <v>1.004635636251357</v>
+      </c>
+      <c r="C395">
+        <v>1.004464026580479</v>
+      </c>
+      <c r="D395">
+        <v>1.00182205162231</v>
+      </c>
+      <c r="E395">
+        <v>1.000733305224108</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>41632</v>
+      </c>
+      <c r="B396">
+        <v>1.004558091764709</v>
+      </c>
+      <c r="C396">
+        <v>1.003436485017398</v>
+      </c>
+      <c r="D396">
+        <v>1.001762962839619</v>
+      </c>
+      <c r="E396">
+        <v>1.00040869672876</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>41634</v>
+      </c>
+      <c r="B397">
+        <v>1.00451378505698</v>
+      </c>
+      <c r="C397">
+        <v>1.003434003250631</v>
+      </c>
+      <c r="D397">
+        <v>1.001703774300386</v>
+      </c>
+      <c r="E397">
+        <v>1.000392252864173</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>41635</v>
+      </c>
+      <c r="B398">
+        <v>1.004432029174698</v>
+      </c>
+      <c r="C398">
+        <v>1.002694804151756</v>
+      </c>
+      <c r="D398">
+        <v>1.001611042399647</v>
+      </c>
+      <c r="E398">
+        <v>1.000926514002559</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>41638</v>
+      </c>
+      <c r="B399">
+        <v>1.004407845199903</v>
+      </c>
+      <c r="C399">
+        <v>1.003667440607935</v>
+      </c>
+      <c r="D399">
+        <v>1.001914259918578</v>
+      </c>
+      <c r="E399">
+        <v>1.001123292407089</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B400">
+        <v>1.004351199410909</v>
+      </c>
+      <c r="C400">
+        <v>1.003106415096973</v>
+      </c>
+      <c r="D400">
+        <v>1.001689669085833</v>
+      </c>
+      <c r="E400">
+        <v>1.000836102350968</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>41641</v>
+      </c>
+      <c r="B401">
+        <v>1.004270353415777</v>
+      </c>
+      <c r="C401">
+        <v>1.001862302753232</v>
+      </c>
+      <c r="D401">
+        <v>1.000974833569245</v>
+      </c>
+      <c r="E401">
+        <v>1.000216497451689</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>41642</v>
+      </c>
+      <c r="B402">
+        <v>1.004238421215922</v>
+      </c>
+      <c r="C402">
+        <v>1.002363192904333</v>
+      </c>
+      <c r="D402">
+        <v>1.00073145829394</v>
+      </c>
+      <c r="E402">
+        <v>1.000267564500339</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>41645</v>
+      </c>
+      <c r="B403">
+        <v>1.004200325336643</v>
+      </c>
+      <c r="C403">
+        <v>1.002177376629552</v>
+      </c>
+      <c r="D403">
+        <v>1.000432360314735</v>
+      </c>
+      <c r="E403">
+        <v>0.9996460460120051</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>41646</v>
+      </c>
+      <c r="B404">
+        <v>1.004140652789803</v>
+      </c>
+      <c r="C404">
+        <v>1.001763597843903</v>
+      </c>
+      <c r="D404">
+        <v>1.001156402331175</v>
+      </c>
+      <c r="E404">
+        <v>0.9991031994770978</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>41647</v>
+      </c>
+      <c r="B405">
+        <v>1.004077195631066</v>
+      </c>
+      <c r="C405">
+        <v>1.001740913976192</v>
+      </c>
+      <c r="D405">
+        <v>1.001437258039358</v>
+      </c>
+      <c r="E405">
+        <v>0.999121976913338</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>41648</v>
+      </c>
+      <c r="B406">
+        <v>1.004043215261211</v>
+      </c>
+      <c r="C406">
+        <v>1.002110566920536</v>
+      </c>
+      <c r="D406">
+        <v>1.001716029473773</v>
+      </c>
+      <c r="E406">
+        <v>0.9989067739053018</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>41649</v>
+      </c>
+      <c r="B407">
+        <v>1.003959115058104</v>
+      </c>
+      <c r="C407">
+        <v>1.000896593512997</v>
+      </c>
+      <c r="D407">
+        <v>1.001875305447681</v>
+      </c>
+      <c r="E407">
+        <v>0.9989274245416788</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>41652</v>
+      </c>
+      <c r="B408">
+        <v>1.003887187769343</v>
+      </c>
+      <c r="C408">
+        <v>1.000317644395591</v>
+      </c>
+      <c r="D408">
+        <v>1.000883086725606</v>
+      </c>
+      <c r="E408">
+        <v>0.9990964238177835</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>41653</v>
+      </c>
+      <c r="B409">
+        <v>1.003847017811115</v>
+      </c>
+      <c r="C409">
+        <v>1.0005719879471</v>
+      </c>
+      <c r="D409">
+        <v>1.001186996468326</v>
+      </c>
+      <c r="E409">
+        <v>0.9991739066251536</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>41654</v>
+      </c>
+      <c r="B410">
+        <v>1.003768305402483</v>
+      </c>
+      <c r="C410">
+        <v>0.9998762238041662</v>
+      </c>
+      <c r="D410">
+        <v>1.001710635785685</v>
+      </c>
+      <c r="E410">
+        <v>0.9990646516266538</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>41655</v>
+      </c>
+      <c r="B411">
+        <v>1.003691393319099</v>
+      </c>
+      <c r="C411">
+        <v>0.9993415050127739</v>
+      </c>
+      <c r="D411">
+        <v>1.001927973683735</v>
+      </c>
+      <c r="E411">
+        <v>0.9991129514979533</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>41656</v>
+      </c>
+      <c r="B412">
+        <v>1.003624711359844</v>
+      </c>
+      <c r="C412">
+        <v>0.9982124151786288</v>
+      </c>
+      <c r="D412">
+        <v>1.001656275843239</v>
+      </c>
+      <c r="E412">
+        <v>0.9983946668030889</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>41659</v>
+      </c>
+      <c r="B413">
+        <v>1.003547723550142</v>
+      </c>
+      <c r="C413">
+        <v>0.9973525964535318</v>
+      </c>
+      <c r="D413">
+        <v>1.001980753340626</v>
+      </c>
+      <c r="E413">
+        <v>0.9976752568048611</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>41660</v>
+      </c>
+      <c r="B414">
+        <v>1.003526827398878</v>
+      </c>
+      <c r="C414">
+        <v>0.9977257385203345</v>
+      </c>
+      <c r="D414">
+        <v>1.001785258403882</v>
+      </c>
+      <c r="E414">
+        <v>0.997557759587636</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>41661</v>
+      </c>
+      <c r="B415">
+        <v>1.003518164366893</v>
+      </c>
+      <c r="C415">
+        <v>0.9984801036814973</v>
+      </c>
+      <c r="D415">
+        <v>1.00250579504807</v>
+      </c>
+      <c r="E415">
+        <v>0.9967189121305414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>41662</v>
+      </c>
+      <c r="B416">
+        <v>1.003463444376246</v>
+      </c>
+      <c r="C416">
+        <v>0.9979597085126152</v>
+      </c>
+      <c r="D416">
+        <v>1.001608068724631</v>
+      </c>
+      <c r="E416">
+        <v>0.9967605424692145</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>41663</v>
+      </c>
+      <c r="B417">
+        <v>1.003450748136577</v>
+      </c>
+      <c r="C417">
+        <v>0.9985451010919604</v>
+      </c>
+      <c r="D417">
+        <v>1.000484133773401</v>
+      </c>
+      <c r="E417">
+        <v>0.9969678345371034</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>41666</v>
+      </c>
+      <c r="B418">
+        <v>1.003434383790685</v>
+      </c>
+      <c r="C418">
+        <v>0.9993837951980055</v>
+      </c>
+      <c r="D418">
+        <v>1.000404301409715</v>
+      </c>
+      <c r="E418">
+        <v>0.9969856908454667</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>41667</v>
+      </c>
+      <c r="B419">
+        <v>1.003359935103397</v>
+      </c>
+      <c r="C419">
+        <v>0.9985428077696088</v>
+      </c>
+      <c r="D419">
+        <v>1.000836705299971</v>
+      </c>
+      <c r="E419">
+        <v>0.9968649248668464</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>41668</v>
+      </c>
+      <c r="B420">
+        <v>1.003299349158439</v>
+      </c>
+      <c r="C420">
+        <v>0.997813339071018</v>
+      </c>
+      <c r="D420">
+        <v>0.9999068686242771</v>
+      </c>
+      <c r="E420">
+        <v>0.996647568516615</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>41669</v>
+      </c>
+      <c r="B421">
+        <v>1.003253807703993</v>
+      </c>
+      <c r="C421">
+        <v>0.9982428832704813</v>
+      </c>
+      <c r="D421">
+        <v>1.000674272064317</v>
+      </c>
+      <c r="E421">
+        <v>0.9971065158130544</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B422">
+        <v>1.003226324058098</v>
+      </c>
+      <c r="C422">
+        <v>0.9983296711084443</v>
+      </c>
+      <c r="D422">
+        <v>1.000270080891889</v>
+      </c>
+      <c r="E422">
+        <v>0.9973941758453285</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B423">
+        <v>1.003234387246202</v>
+      </c>
+      <c r="C423">
+        <v>0.999174887065349</v>
+      </c>
+      <c r="D423">
+        <v>0.9988462211985103</v>
+      </c>
+      <c r="E423">
+        <v>0.9973486060488653</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B424">
+        <v>1.003185120701616</v>
+      </c>
+      <c r="C424">
+        <v>0.9988017132377738</v>
+      </c>
+      <c r="D424">
+        <v>0.9991618346255635</v>
+      </c>
+      <c r="E424">
+        <v>0.9968988951051183</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B425">
+        <v>1.003150285619536</v>
+      </c>
+      <c r="C425">
+        <v>0.9991146271768491</v>
+      </c>
+      <c r="D425">
+        <v>0.9997483957650541</v>
+      </c>
+      <c r="E425">
+        <v>0.9970143515649079</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B426">
+        <v>1.003085593784198</v>
+      </c>
+      <c r="C426">
+        <v>0.9988702371655175</v>
+      </c>
+      <c r="D426">
+        <v>1.000641053821013</v>
+      </c>
+      <c r="E426">
+        <v>0.9970969288816625</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B427">
+        <v>1.002989460409065</v>
+      </c>
+      <c r="C427">
+        <v>0.9978092043757425</v>
+      </c>
+      <c r="D427">
+        <v>1.000326055563873</v>
+      </c>
+      <c r="E427">
+        <v>0.9971613649837106</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B428">
+        <v>1.002910422416047</v>
+      </c>
+      <c r="C428">
+        <v>0.9967071922213905</v>
+      </c>
+      <c r="D428">
+        <v>0.9996306894712333</v>
+      </c>
+      <c r="E428">
+        <v>0.9969075716927883</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B429">
+        <v>1.002825640497612</v>
+      </c>
+      <c r="C429">
+        <v>0.9957692976876874</v>
+      </c>
+      <c r="D429">
+        <v>0.9995967785612297</v>
+      </c>
+      <c r="E429">
+        <v>0.9970842587437334</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B430">
+        <v>1.002796039552781</v>
+      </c>
+      <c r="C430">
+        <v>0.9964902979703195</v>
+      </c>
+      <c r="D430">
+        <v>1.000351384729719</v>
+      </c>
+      <c r="E430">
+        <v>0.9973770639501577</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B431">
+        <v>1.002715727120554</v>
+      </c>
+      <c r="C431">
+        <v>0.9956437491732281</v>
+      </c>
+      <c r="D431">
+        <v>0.9998536291045673</v>
+      </c>
+      <c r="E431">
+        <v>0.9977267316913577</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B432">
+        <v>1.002635756775371</v>
+      </c>
+      <c r="C432">
+        <v>0.9951432559170831</v>
+      </c>
+      <c r="D432">
+        <v>0.9996438773677258</v>
+      </c>
+      <c r="E432">
+        <v>0.9980320631089544</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B433">
+        <v>1.002592314772598</v>
+      </c>
+      <c r="C433">
+        <v>0.9950848211580084</v>
+      </c>
+      <c r="D433">
+        <v>0.9997417256634336</v>
+      </c>
+      <c r="E433">
+        <v>0.9975378841663104</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B434">
+        <v>1.002568959437811</v>
+      </c>
+      <c r="C434">
+        <v>0.9955935234059283</v>
+      </c>
+      <c r="D434">
+        <v>1.000082197796273</v>
+      </c>
+      <c r="E434">
+        <v>0.9980013068975253</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B435">
+        <v>1.002488074249744</v>
+      </c>
+      <c r="C435">
+        <v>0.9944102357063574</v>
+      </c>
+      <c r="D435">
+        <v>0.999940197051454</v>
+      </c>
+      <c r="E435">
+        <v>0.9975537667013628</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B436">
+        <v>1.002458889170925</v>
+      </c>
+      <c r="C436">
+        <v>0.99465471747295</v>
+      </c>
+      <c r="D436">
+        <v>0.999794135253249</v>
+      </c>
+      <c r="E436">
+        <v>0.9977552425288958</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B437">
+        <v>1.002430727659219</v>
+      </c>
+      <c r="C437">
+        <v>0.9947268971541553</v>
+      </c>
+      <c r="D437">
+        <v>1.000164124299049</v>
+      </c>
+      <c r="E437">
+        <v>0.9972011773527433</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>41695</v>
+      </c>
+      <c r="B438">
+        <v>1.002388554829109</v>
+      </c>
+      <c r="C438">
+        <v>0.9950384194011724</v>
+      </c>
+      <c r="D438">
+        <v>1.000404155161617</v>
+      </c>
+      <c r="E438">
+        <v>0.9964016026988016</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>41696</v>
+      </c>
+      <c r="B439">
+        <v>1.002343694487594</v>
+      </c>
+      <c r="C439">
+        <v>0.9952305786253195</v>
+      </c>
+      <c r="D439">
+        <v>1.000620490574846</v>
+      </c>
+      <c r="E439">
+        <v>0.9966750034376448</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>41697</v>
+      </c>
+      <c r="B440">
+        <v>1.002326106413911</v>
+      </c>
+      <c r="C440">
+        <v>0.9953730095774902</v>
+      </c>
+      <c r="D440">
+        <v>1.000370600727821</v>
+      </c>
+      <c r="E440">
+        <v>0.9964620052311802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B441">
+        <v>1.002310707090825</v>
+      </c>
+      <c r="C441">
+        <v>0.9956957879214553</v>
+      </c>
+      <c r="D441">
+        <v>1.000307430002481</v>
+      </c>
+      <c r="E441">
+        <v>0.9970616622059978</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>41701</v>
+      </c>
+      <c r="B442">
+        <v>1.002266236429499</v>
+      </c>
+      <c r="C442">
+        <v>0.9953719701418476</v>
+      </c>
+      <c r="D442">
+        <v>1.000053902832369</v>
+      </c>
+      <c r="E442">
+        <v>0.9965609937865898</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>41702</v>
+      </c>
+      <c r="B443">
+        <v>1.002203713875775</v>
+      </c>
+      <c r="C443">
+        <v>0.995349311120961</v>
+      </c>
+      <c r="D443">
+        <v>1.000601703768841</v>
+      </c>
+      <c r="E443">
+        <v>0.9967525275599013</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>41703</v>
+      </c>
+      <c r="B444">
+        <v>1.002151437980048</v>
+      </c>
+      <c r="C444">
+        <v>0.9952769610462863</v>
+      </c>
+      <c r="D444">
+        <v>1.000108640111864</v>
+      </c>
+      <c r="E444">
+        <v>0.9968710362831278</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>41704</v>
+      </c>
+      <c r="B445">
+        <v>1.00211480551623</v>
+      </c>
+      <c r="C445">
+        <v>0.995272918579779</v>
+      </c>
+      <c r="D445">
+        <v>0.9997774836911665</v>
+      </c>
+      <c r="E445">
+        <v>0.9968898739788122</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>41705</v>
+      </c>
+      <c r="B446">
+        <v>1.002089639369171</v>
+      </c>
+      <c r="C446">
+        <v>0.9956377053898152</v>
+      </c>
+      <c r="D446">
+        <v>1.000249805882675</v>
+      </c>
+      <c r="E446">
+        <v>0.9971006755383882</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>41708</v>
+      </c>
+      <c r="B447">
+        <v>1.002058324551042</v>
+      </c>
+      <c r="C447">
+        <v>0.9958572759756186</v>
+      </c>
+      <c r="D447">
+        <v>1.000304548346344</v>
+      </c>
+      <c r="E447">
+        <v>0.9973619356701181</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>41709</v>
+      </c>
+      <c r="B448">
+        <v>1.002017255815346</v>
+      </c>
+      <c r="C448">
+        <v>0.9962175101583736</v>
+      </c>
+      <c r="D448">
+        <v>0.9995711558586869</v>
+      </c>
+      <c r="E448">
+        <v>0.9974876893613387</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>41710</v>
+      </c>
+      <c r="B449">
+        <v>1.001924929802682</v>
+      </c>
+      <c r="C449">
+        <v>0.9951333293496302</v>
+      </c>
+      <c r="D449">
+        <v>0.9992582009720068</v>
+      </c>
+      <c r="E449">
+        <v>0.9974661005308585</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>41711</v>
+      </c>
+      <c r="B450">
+        <v>1.001878961529348</v>
+      </c>
+      <c r="C450">
+        <v>0.994662443859274</v>
+      </c>
+      <c r="D450">
+        <v>0.9982019546121993</v>
+      </c>
+      <c r="E450">
+        <v>0.9974129973186366</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>41712</v>
+      </c>
+      <c r="B451">
+        <v>1.00184502344019</v>
+      </c>
+      <c r="C451">
+        <v>0.9945624955792416</v>
+      </c>
+      <c r="D451">
+        <v>0.9981859630920553</v>
+      </c>
+      <c r="E451">
+        <v>0.9970960714622497</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>41715</v>
+      </c>
+      <c r="B452">
+        <v>1.001819425358021</v>
+      </c>
+      <c r="C452">
+        <v>0.9954850905740746</v>
+      </c>
+      <c r="D452">
+        <v>0.9988456443909012</v>
+      </c>
+      <c r="E452">
+        <v>0.9974643633340787</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>41716</v>
+      </c>
+      <c r="B453">
+        <v>1.001755766332302</v>
+      </c>
+      <c r="C453">
+        <v>0.9951939276864767</v>
+      </c>
+      <c r="D453">
+        <v>0.9997637284558786</v>
+      </c>
+      <c r="E453">
+        <v>0.9976697718586129</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B454">
+        <v>1.001745159726241</v>
+      </c>
+      <c r="C454">
+        <v>0.9960865473149277</v>
+      </c>
+      <c r="D454">
+        <v>1.000159918777459</v>
+      </c>
+      <c r="E454">
+        <v>0.9972743756482904</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>41718</v>
+      </c>
+      <c r="B455">
+        <v>1.001700793868998</v>
+      </c>
+      <c r="C455">
+        <v>0.9960541603592611</v>
+      </c>
+      <c r="D455">
+        <v>1.000248318188059</v>
+      </c>
+      <c r="E455">
+        <v>0.9974407318490699</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B456">
+        <v>1.001660650964919</v>
+      </c>
+      <c r="C456">
+        <v>0.9959836205580649</v>
+      </c>
+      <c r="D456">
+        <v>1.00020456813146</v>
+      </c>
+      <c r="E456">
+        <v>0.9978664239788264</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B457">
+        <v>1.001672048564466</v>
+      </c>
+      <c r="C457">
+        <v>0.9973673458285847</v>
+      </c>
+      <c r="D457">
+        <v>1.000582168715214</v>
+      </c>
+      <c r="E457">
+        <v>0.9976304923869983</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B458">
+        <v>1.00161454872102</v>
+      </c>
+      <c r="C458">
+        <v>0.9972376925427322</v>
+      </c>
+      <c r="D458">
+        <v>1.000688500425267</v>
+      </c>
+      <c r="E458">
+        <v>0.997718878344679</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>41724</v>
+      </c>
+      <c r="B459">
+        <v>1.001631417408613</v>
+      </c>
+      <c r="C459">
+        <v>0.9987112794115798</v>
+      </c>
+      <c r="D459">
+        <v>1.00055442048056</v>
+      </c>
+      <c r="E459">
+        <v>0.9979365324514836</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B460">
+        <v>1.001597302042965</v>
+      </c>
+      <c r="C460">
+        <v>0.9986698059888632</v>
+      </c>
+      <c r="D460">
+        <v>1.00040040133291</v>
+      </c>
+      <c r="E460">
+        <v>0.9981150795486501</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B461">
+        <v>1.001529302850485</v>
+      </c>
+      <c r="C461">
+        <v>0.997923660623674</v>
+      </c>
+      <c r="D461">
+        <v>1.000322840259593</v>
+      </c>
+      <c r="E461">
+        <v>0.9988504036510855</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B462">
+        <v>1.001497211799305</v>
+      </c>
+      <c r="C462">
+        <v>0.9984610722366488</v>
+      </c>
+      <c r="D462">
+        <v>1.000926312812945</v>
+      </c>
+      <c r="E462">
+        <v>0.9994687594114534</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B463">
+        <v>1.001437441458126</v>
+      </c>
+      <c r="C463">
+        <v>0.9984361685799437</v>
+      </c>
+      <c r="D463">
+        <v>1.001118706403405</v>
+      </c>
+      <c r="E463">
+        <v>0.9995248765995721</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B464">
+        <v>1.001378852366252</v>
+      </c>
+      <c r="C464">
+        <v>0.9978161883409755</v>
+      </c>
+      <c r="D464">
+        <v>1.001160366185442</v>
+      </c>
+      <c r="E464">
+        <v>0.9994312913646456</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>41732</v>
+      </c>
+      <c r="B465">
+        <v>1.001371513795132</v>
+      </c>
+      <c r="C465">
+        <v>0.9981389575582099</v>
+      </c>
+      <c r="D465">
+        <v>1.000899572173357</v>
+      </c>
+      <c r="E465">
+        <v>0.9993158502108113</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>41733</v>
+      </c>
+      <c r="B466">
+        <v>1.001335048329178</v>
+      </c>
+      <c r="C466">
+        <v>0.9979993223183237</v>
+      </c>
+      <c r="D466">
+        <v>1.00038473009871</v>
+      </c>
+      <c r="E466">
+        <v>0.9995177050252957</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B467">
+        <v>1.001317667760082</v>
+      </c>
+      <c r="C467">
+        <v>0.998434146188468</v>
+      </c>
+      <c r="D467">
+        <v>0.9996333272843588</v>
+      </c>
+      <c r="E467">
+        <v>0.9994619554289778</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B468">
+        <v>1.001270733058371</v>
+      </c>
+      <c r="C468">
+        <v>0.9978822911961721</v>
+      </c>
+      <c r="D468">
+        <v>0.9997936264479027</v>
+      </c>
+      <c r="E468">
+        <v>0.999436083672294</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>41738</v>
+      </c>
+      <c r="B469">
+        <v>1.001202352097335</v>
+      </c>
+      <c r="C469">
+        <v>0.9977075020041508</v>
+      </c>
+      <c r="D469">
+        <v>1.000093839392301</v>
+      </c>
+      <c r="E469">
+        <v>0.9996097056158537</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B470">
+        <v>1.001200622015927</v>
+      </c>
+      <c r="C470">
+        <v>0.9981762012416437</v>
+      </c>
+      <c r="D470">
+        <v>0.9993304431984252</v>
+      </c>
+      <c r="E470">
+        <v>0.9997239639997504</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>41740</v>
+      </c>
+      <c r="B471">
+        <v>1.001178724909662</v>
+      </c>
+      <c r="C471">
+        <v>0.9985214731366626</v>
+      </c>
+      <c r="D471">
+        <v>0.9989632153135402</v>
+      </c>
+      <c r="E471">
+        <v>1.000081509801357</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>41743</v>
+      </c>
+      <c r="B472">
+        <v>1.001111908927606</v>
+      </c>
+      <c r="C472">
+        <v>0.9980337969789509</v>
+      </c>
+      <c r="D472">
+        <v>0.9989243226504904</v>
+      </c>
+      <c r="E472">
+        <v>1.000309361264651</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>41744</v>
+      </c>
+      <c r="B473">
+        <v>1.001081002733607</v>
+      </c>
+      <c r="C473">
+        <v>0.9986036436683061</v>
+      </c>
+      <c r="D473">
+        <v>0.9994398577197663</v>
+      </c>
+      <c r="E473">
+        <v>1.000290117604433</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>41745</v>
+      </c>
+      <c r="B474">
+        <v>1.001043163691203</v>
+      </c>
+      <c r="C474">
+        <v>0.9986733225131592</v>
+      </c>
+      <c r="D474">
+        <v>1.000232492469323</v>
+      </c>
+      <c r="E474">
+        <v>1.000694123449481</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>41746</v>
+      </c>
+      <c r="B475">
+        <v>1.00101238143232</v>
+      </c>
+      <c r="C475">
+        <v>0.998721932296313</v>
+      </c>
+      <c r="D475">
+        <v>1.00043693755729</v>
+      </c>
+      <c r="E475">
+        <v>1.000767888306806</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>41750</v>
+      </c>
+      <c r="B476">
+        <v>1.000969224388334</v>
+      </c>
+      <c r="C476">
+        <v>0.9991065327310128</v>
+      </c>
+      <c r="D476">
+        <v>1.000529445458576</v>
+      </c>
+      <c r="E476">
+        <v>1.000720331979239</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>41751</v>
+      </c>
+      <c r="B477">
+        <v>1.000899027058119</v>
+      </c>
+      <c r="C477">
+        <v>0.9984740173700579</v>
+      </c>
+      <c r="D477">
+        <v>1.000742727188109</v>
+      </c>
+      <c r="E477">
+        <v>1.000536848180509</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>41752</v>
+      </c>
+      <c r="B478">
+        <v>1.000857531189179</v>
+      </c>
+      <c r="C478">
+        <v>0.9980552132238412</v>
+      </c>
+      <c r="D478">
+        <v>1.000425106167351</v>
+      </c>
+      <c r="E478">
+        <v>1.000413134735632</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>41753</v>
+      </c>
+      <c r="B479">
+        <v>1.000804642935194</v>
+      </c>
+      <c r="C479">
+        <v>0.9983757785330296</v>
+      </c>
+      <c r="D479">
+        <v>1.000787257060697</v>
+      </c>
+      <c r="E479">
+        <v>1.000522353034166</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>41754</v>
+      </c>
+      <c r="B480">
+        <v>1.000742711944882</v>
+      </c>
+      <c r="C480">
+        <v>0.9979930708150203</v>
+      </c>
+      <c r="D480">
+        <v>1.000192441775028</v>
+      </c>
+      <c r="E480">
+        <v>1.00039934556548</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>41757</v>
+      </c>
+      <c r="B481">
+        <v>1.00071663268954</v>
+      </c>
+      <c r="C481">
+        <v>0.9985223676528899</v>
+      </c>
+      <c r="D481">
+        <v>1.00030721353855</v>
+      </c>
+      <c r="E481">
+        <v>1.000120636436756</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>41758</v>
+      </c>
+      <c r="B482">
+        <v>1.000662789677961</v>
+      </c>
+      <c r="C482">
+        <v>0.9979877754952492</v>
+      </c>
+      <c r="D482">
+        <v>1.00023178826655</v>
+      </c>
+      <c r="E482">
+        <v>1.000041708533423</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B483">
+        <v>1.000611746531441</v>
+      </c>
+      <c r="C483">
+        <v>0.9980971627418772</v>
+      </c>
+      <c r="D483">
+        <v>1.000677630328284</v>
+      </c>
+      <c r="E483">
+        <v>1.000233855023866</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B484">
+        <v>1.000515889913702</v>
+      </c>
+      <c r="C484">
+        <v>0.998218349243152</v>
+      </c>
+      <c r="D484">
+        <v>1.00125496734096</v>
+      </c>
+      <c r="E484">
+        <v>0.9998465146183472</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>41761</v>
+      </c>
+      <c r="B485">
+        <v>1.000440675170996</v>
+      </c>
+      <c r="C485">
+        <v>0.9972044954918018</v>
+      </c>
+      <c r="D485">
+        <v>1.001407980297558</v>
+      </c>
+      <c r="E485">
+        <v>0.9997326420745462</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>41764</v>
+      </c>
+      <c r="B486">
+        <v>1.000425329587586</v>
+      </c>
+      <c r="C486">
+        <v>0.997640944517642</v>
+      </c>
+      <c r="D486">
+        <v>1.00078800930953</v>
+      </c>
+      <c r="E486">
+        <v>0.9998818651579843</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>41765</v>
+      </c>
+      <c r="B487">
+        <v>1.00041184711586</v>
+      </c>
+      <c r="C487">
+        <v>0.9980141279879342</v>
+      </c>
+      <c r="D487">
+        <v>1.000082117490385</v>
+      </c>
+      <c r="E487">
+        <v>1.000048568157819</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>41766</v>
+      </c>
+      <c r="B488">
+        <v>1.000417623582017</v>
+      </c>
+      <c r="C488">
+        <v>0.9985082416859171</v>
+      </c>
+      <c r="D488">
+        <v>1.000310893318278</v>
+      </c>
+      <c r="E488">
+        <v>1.000643177093516</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>41767</v>
+      </c>
+      <c r="B489">
+        <v>1.000376287961585</v>
+      </c>
+      <c r="C489">
+        <v>0.9988944860835247</v>
+      </c>
+      <c r="D489">
+        <v>0.9996599008186788</v>
+      </c>
+      <c r="E489">
+        <v>1.000402003734273</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>41768</v>
+      </c>
+      <c r="B490">
+        <v>1.000304757683329</v>
+      </c>
+      <c r="C490">
+        <v>0.9987398686915938</v>
+      </c>
+      <c r="D490">
+        <v>0.999588546144657</v>
+      </c>
+      <c r="E490">
+        <v>1.000346753838006</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>41771</v>
+      </c>
+      <c r="B491">
+        <v>1.00022731099459</v>
+      </c>
+      <c r="C491">
+        <v>0.998018276697191</v>
+      </c>
+      <c r="D491">
+        <v>1.000378475707068</v>
+      </c>
+      <c r="E491">
+        <v>1.000453824114892</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>41772</v>
+      </c>
+      <c r="B492">
+        <v>1.000187066467102</v>
+      </c>
+      <c r="C492">
+        <v>0.9981255515497284</v>
+      </c>
+      <c r="D492">
+        <v>1.000617197912123</v>
+      </c>
+      <c r="E492">
+        <v>1.000495098817242</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>41773</v>
+      </c>
+      <c r="B493">
+        <v>1.000132939689454</v>
+      </c>
+      <c r="C493">
+        <v>0.9977075939574401</v>
+      </c>
+      <c r="D493">
+        <v>1.000245812480534</v>
+      </c>
+      <c r="E493">
+        <v>1.000579924481801</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B494">
+        <v>1.000119093931299</v>
+      </c>
+      <c r="C494">
+        <v>0.998463403715116</v>
+      </c>
+      <c r="D494">
+        <v>0.9998252471335374</v>
+      </c>
+      <c r="E494">
+        <v>1.000357545602548</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>41775</v>
+      </c>
+      <c r="B495">
+        <v>1.000085916664485</v>
+      </c>
+      <c r="C495">
+        <v>0.9989528432156923</v>
+      </c>
+      <c r="D495">
+        <v>0.9996327176534086</v>
+      </c>
+      <c r="E495">
+        <v>1.000447075476728</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>41778</v>
+      </c>
+      <c r="B496">
+        <v>1.000041661184782</v>
+      </c>
+      <c r="C496">
+        <v>0.9989523544060479</v>
+      </c>
+      <c r="D496">
+        <v>0.9995700740898857</v>
+      </c>
+      <c r="E496">
+        <v>1.000428359209227</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>41779</v>
+      </c>
+      <c r="B497">
+        <v>0.9999972364187883</v>
+      </c>
+      <c r="C497">
+        <v>0.9987750386024157</v>
+      </c>
+      <c r="D497">
+        <v>0.9994461501344675</v>
+      </c>
+      <c r="E497">
+        <v>1.000360835582531</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>41780</v>
+      </c>
+      <c r="B498">
+        <v>0.9999315166040456</v>
+      </c>
+      <c r="C498">
+        <v>0.9983768612626986</v>
+      </c>
+      <c r="D498">
+        <v>1.000023709394077</v>
+      </c>
+      <c r="E498">
+        <v>1.000475697907198</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>41781</v>
+      </c>
+      <c r="B499">
+        <v>0.999865073365201</v>
+      </c>
+      <c r="C499">
+        <v>0.9982618305987492</v>
+      </c>
+      <c r="D499">
+        <v>0.9999422253079685</v>
+      </c>
+      <c r="E499">
+        <v>1.000556182950089</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>41782</v>
+      </c>
+      <c r="B500">
+        <v>0.9998214771349668</v>
+      </c>
+      <c r="C500">
+        <v>0.9984983481601442</v>
+      </c>
+      <c r="D500">
+        <v>1.000006571054584</v>
+      </c>
+      <c r="E500">
+        <v>1.00062296103389</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B501">
+        <v>0.9997773637967989</v>
+      </c>
+      <c r="C501">
+        <v>0.9985491214527716</v>
+      </c>
+      <c r="D501">
+        <v>1.000137522431145</v>
+      </c>
+      <c r="E501">
+        <v>1.000522862971146</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>41786</v>
+      </c>
+      <c r="B502">
+        <v>0.9997570119580794</v>
+      </c>
+      <c r="C502">
+        <v>0.9996356453473112</v>
+      </c>
+      <c r="D502">
+        <v>1.000347436999128</v>
+      </c>
+      <c r="E502">
+        <v>1.000608925472828</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>41787</v>
+      </c>
+      <c r="B503">
+        <v>0.999749886456159</v>
+      </c>
+      <c r="C503">
+        <v>1.000282028859434</v>
+      </c>
+      <c r="D503">
+        <v>1.000161836281477</v>
+      </c>
+      <c r="E503">
+        <v>1.000515645492737</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>41788</v>
+      </c>
+      <c r="B504">
+        <v>0.9997041173183834</v>
+      </c>
+      <c r="C504">
+        <v>1.000153134365819</v>
+      </c>
+      <c r="D504">
+        <v>1.00021646494036</v>
+      </c>
+      <c r="E504">
+        <v>0.9998729023947097</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
         <v>41789</v>
       </c>
-      <c r="B253">
-        <v>0.9999159107548116</v>
-      </c>
-      <c r="C253">
-        <v>0.9999699871881694</v>
-      </c>
-      <c r="D253">
-        <v>0.9999827377710656</v>
-      </c>
-      <c r="E253">
-        <v>0.999989114639616</v>
+      <c r="B505">
+        <v>0.9996567100815748</v>
+      </c>
+      <c r="C505">
+        <v>0.9998483628201318</v>
+      </c>
+      <c r="D505">
+        <v>0.9999356706857313</v>
+      </c>
+      <c r="E505">
+        <v>0.9999600400053085</v>
       </c>
     </row>
   </sheetData>
